--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,15 @@
     <t>['4', '67']</t>
   </si>
   <si>
+    <t>['2', '12', '90+3']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['35', '38', '49', '71', '90+2']</t>
+  </si>
+  <si>
     <t>['60']</t>
   </si>
   <si>
@@ -587,6 +596,21 @@
   </si>
   <si>
     <t>['51', '72']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['53', '70']</t>
+  </si>
+  <si>
+    <t>['44', '64']</t>
+  </si>
+  <si>
+    <t>['45+3', '90+4']</t>
+  </si>
+  <si>
+    <t>['37']</t>
   </si>
 </sst>
 </file>
@@ -948,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK87"/>
+  <dimension ref="A1:BK92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1216,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -1279,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1383,7 +1407,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1473,7 +1497,7 @@
         <v>2.43</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1574,7 +1598,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1661,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -2043,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2147,7 +2171,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2338,7 +2362,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2425,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2529,7 +2553,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2619,7 +2643,7 @@
         <v>1.57</v>
       </c>
       <c r="AT9">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2720,7 +2744,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -2810,7 +2834,7 @@
         <v>1.63</v>
       </c>
       <c r="AT10">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2911,7 +2935,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -2998,7 +3022,7 @@
         <v>3</v>
       </c>
       <c r="AS11">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT11">
         <v>2</v>
@@ -3102,7 +3126,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3380,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT13">
         <v>0.29</v>
@@ -3484,7 +3508,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3765,7 +3789,7 @@
         <v>1.57</v>
       </c>
       <c r="AT15">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU15">
         <v>1.41</v>
@@ -4057,7 +4081,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4335,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT18">
         <v>1.14</v>
@@ -4439,7 +4463,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4821,7 +4845,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -4908,7 +4932,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT21">
         <v>1.86</v>
@@ -5102,7 +5126,7 @@
         <v>2.13</v>
       </c>
       <c r="AT22">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU22">
         <v>1.23</v>
@@ -5203,7 +5227,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -5394,7 +5418,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5484,7 +5508,7 @@
         <v>1.25</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU24">
         <v>1.32</v>
@@ -5585,7 +5609,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5672,10 +5696,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU25">
         <v>1.74</v>
@@ -5776,7 +5800,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5863,7 +5887,7 @@
         <v>2</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT26">
         <v>1.86</v>
@@ -5967,7 +5991,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6057,7 +6081,7 @@
         <v>1.57</v>
       </c>
       <c r="AT27">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU27">
         <v>2.44</v>
@@ -6627,10 +6651,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT30">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU30">
         <v>1.9</v>
@@ -6922,7 +6946,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7009,7 +7033,7 @@
         <v>1.5</v>
       </c>
       <c r="AS32">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT32">
         <v>1.25</v>
@@ -7113,7 +7137,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>13</v>
@@ -7200,10 +7224,10 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU33">
         <v>2.14</v>
@@ -7304,7 +7328,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7585,7 +7609,7 @@
         <v>1.63</v>
       </c>
       <c r="AT35">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU35">
         <v>2.19</v>
@@ -7686,7 +7710,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8155,10 +8179,10 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU38">
         <v>2.08</v>
@@ -8349,7 +8373,7 @@
         <v>1.63</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU39">
         <v>1.89</v>
@@ -8641,7 +8665,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8832,7 +8856,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -8919,10 +8943,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT42">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU42">
         <v>2.09</v>
@@ -9023,7 +9047,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9110,7 +9134,7 @@
         <v>1.67</v>
       </c>
       <c r="AS43">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT43">
         <v>1.86</v>
@@ -9405,7 +9429,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9495,7 +9519,7 @@
         <v>1.25</v>
       </c>
       <c r="AT45">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU45">
         <v>1.45</v>
@@ -9596,7 +9620,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>10</v>
@@ -9683,10 +9707,10 @@
         <v>1.67</v>
       </c>
       <c r="AS46">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT46">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU46">
         <v>1.24</v>
@@ -9787,7 +9811,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -9874,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT47">
         <v>1.14</v>
@@ -9978,7 +10002,7 @@
         <v>80</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10065,10 +10089,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU48">
         <v>2.17</v>
@@ -10169,7 +10193,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10551,7 +10575,7 @@
         <v>98</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10742,7 +10766,7 @@
         <v>112</v>
       </c>
       <c r="P52" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -10933,7 +10957,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11020,10 +11044,10 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT53">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU53">
         <v>1.68</v>
@@ -11211,10 +11235,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU54">
         <v>2.02</v>
@@ -11315,7 +11339,7 @@
         <v>115</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11593,7 +11617,7 @@
         <v>2.5</v>
       </c>
       <c r="AS56">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT56">
         <v>2</v>
@@ -11697,7 +11721,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11787,7 +11811,7 @@
         <v>1.57</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU57">
         <v>1.6</v>
@@ -11888,7 +11912,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -11975,10 +11999,10 @@
         <v>1.33</v>
       </c>
       <c r="AS58">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT58">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU58">
         <v>1.45</v>
@@ -12079,7 +12103,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12548,7 +12572,7 @@
         <v>1.2</v>
       </c>
       <c r="AS61">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT61">
         <v>1.25</v>
@@ -12652,7 +12676,7 @@
         <v>112</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -12742,7 +12766,7 @@
         <v>1</v>
       </c>
       <c r="AT62">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU62">
         <v>1.5</v>
@@ -12843,7 +12867,7 @@
         <v>120</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -12930,7 +12954,7 @@
         <v>0.8</v>
       </c>
       <c r="AS63">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT63">
         <v>0.5</v>
@@ -13034,7 +13058,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13121,10 +13145,10 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT64">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU64">
         <v>2.06</v>
@@ -13225,7 +13249,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13312,7 +13336,7 @@
         <v>0.2</v>
       </c>
       <c r="AS65">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT65">
         <v>0.29</v>
@@ -13506,7 +13530,7 @@
         <v>1.57</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU66">
         <v>2.29</v>
@@ -13607,7 +13631,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13697,7 +13721,7 @@
         <v>2.13</v>
       </c>
       <c r="AT67">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU67">
         <v>1.44</v>
@@ -13798,7 +13822,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -13885,10 +13909,10 @@
         <v>0.8</v>
       </c>
       <c r="AS68">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT68">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU68">
         <v>1.46</v>
@@ -13989,7 +14013,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14180,7 +14204,7 @@
         <v>80</v>
       </c>
       <c r="P70" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14562,7 +14586,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14840,10 +14864,10 @@
         <v>0.6</v>
       </c>
       <c r="AS73">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU73">
         <v>1.53</v>
@@ -14944,7 +14968,7 @@
         <v>80</v>
       </c>
       <c r="P74" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15031,10 +15055,10 @@
         <v>0.67</v>
       </c>
       <c r="AS74">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU74">
         <v>1.52</v>
@@ -15225,7 +15249,7 @@
         <v>2.43</v>
       </c>
       <c r="AT75">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU75">
         <v>1.92</v>
@@ -15326,7 +15350,7 @@
         <v>129</v>
       </c>
       <c r="P76" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15413,7 +15437,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT76">
         <v>1.25</v>
@@ -15517,7 +15541,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15607,7 +15631,7 @@
         <v>2.13</v>
       </c>
       <c r="AT77">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU77">
         <v>1.54</v>
@@ -15795,7 +15819,7 @@
         <v>0.67</v>
       </c>
       <c r="AS78">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT78">
         <v>0.5</v>
@@ -15899,7 +15923,7 @@
         <v>132</v>
       </c>
       <c r="P79" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -15986,10 +16010,10 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT79">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU79">
         <v>1.78</v>
@@ -16090,7 +16114,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16281,7 +16305,7 @@
         <v>114</v>
       </c>
       <c r="P81" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16472,7 +16496,7 @@
         <v>80</v>
       </c>
       <c r="P82" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16663,7 +16687,7 @@
         <v>134</v>
       </c>
       <c r="P83" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16750,7 +16774,7 @@
         <v>1.14</v>
       </c>
       <c r="AS83">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT83">
         <v>1</v>
@@ -17045,7 +17069,7 @@
         <v>112</v>
       </c>
       <c r="P85" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17135,7 +17159,7 @@
         <v>1</v>
       </c>
       <c r="AT85">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU85">
         <v>1.48</v>
@@ -17427,7 +17451,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17569,6 +17593,961 @@
       </c>
       <c r="BK87">
         <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>2365264</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>44864.41666666666</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H88" t="s">
+        <v>71</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>80</v>
+      </c>
+      <c r="P88" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q88">
+        <v>4</v>
+      </c>
+      <c r="R88">
+        <v>4</v>
+      </c>
+      <c r="S88">
+        <v>8</v>
+      </c>
+      <c r="T88">
+        <v>3.5</v>
+      </c>
+      <c r="U88">
+        <v>2.2</v>
+      </c>
+      <c r="V88">
+        <v>3</v>
+      </c>
+      <c r="W88">
+        <v>1.4</v>
+      </c>
+      <c r="X88">
+        <v>2.75</v>
+      </c>
+      <c r="Y88">
+        <v>2.75</v>
+      </c>
+      <c r="Z88">
+        <v>1.4</v>
+      </c>
+      <c r="AA88">
+        <v>8</v>
+      </c>
+      <c r="AB88">
+        <v>1.08</v>
+      </c>
+      <c r="AC88">
+        <v>3.15</v>
+      </c>
+      <c r="AD88">
+        <v>3.45</v>
+      </c>
+      <c r="AE88">
+        <v>2.25</v>
+      </c>
+      <c r="AF88">
+        <v>1.04</v>
+      </c>
+      <c r="AG88">
+        <v>10.5</v>
+      </c>
+      <c r="AH88">
+        <v>1.32</v>
+      </c>
+      <c r="AI88">
+        <v>3.35</v>
+      </c>
+      <c r="AJ88">
+        <v>1.89</v>
+      </c>
+      <c r="AK88">
+        <v>1.91</v>
+      </c>
+      <c r="AL88">
+        <v>1.75</v>
+      </c>
+      <c r="AM88">
+        <v>2</v>
+      </c>
+      <c r="AN88">
+        <v>1.55</v>
+      </c>
+      <c r="AO88">
+        <v>1.32</v>
+      </c>
+      <c r="AP88">
+        <v>1.39</v>
+      </c>
+      <c r="AQ88">
+        <v>0.43</v>
+      </c>
+      <c r="AR88">
+        <v>1</v>
+      </c>
+      <c r="AS88">
+        <v>0.38</v>
+      </c>
+      <c r="AT88">
+        <v>1.25</v>
+      </c>
+      <c r="AU88">
+        <v>1.67</v>
+      </c>
+      <c r="AV88">
+        <v>1.52</v>
+      </c>
+      <c r="AW88">
+        <v>3.19</v>
+      </c>
+      <c r="AX88">
+        <v>1.95</v>
+      </c>
+      <c r="AY88">
+        <v>7.7</v>
+      </c>
+      <c r="AZ88">
+        <v>2.25</v>
+      </c>
+      <c r="BA88">
+        <v>1.21</v>
+      </c>
+      <c r="BB88">
+        <v>1.42</v>
+      </c>
+      <c r="BC88">
+        <v>1.76</v>
+      </c>
+      <c r="BD88">
+        <v>2.22</v>
+      </c>
+      <c r="BE88">
+        <v>2.93</v>
+      </c>
+      <c r="BF88">
+        <v>4</v>
+      </c>
+      <c r="BG88">
+        <v>8</v>
+      </c>
+      <c r="BH88">
+        <v>7</v>
+      </c>
+      <c r="BI88">
+        <v>9</v>
+      </c>
+      <c r="BJ88">
+        <v>11</v>
+      </c>
+      <c r="BK88">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>2365263</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2">
+        <v>44864.5</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" t="s">
+        <v>66</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89" t="s">
+        <v>93</v>
+      </c>
+      <c r="P89" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q89">
+        <v>5</v>
+      </c>
+      <c r="R89">
+        <v>3</v>
+      </c>
+      <c r="S89">
+        <v>8</v>
+      </c>
+      <c r="T89">
+        <v>2.75</v>
+      </c>
+      <c r="U89">
+        <v>2.25</v>
+      </c>
+      <c r="V89">
+        <v>3.6</v>
+      </c>
+      <c r="W89">
+        <v>1.33</v>
+      </c>
+      <c r="X89">
+        <v>3.25</v>
+      </c>
+      <c r="Y89">
+        <v>2.63</v>
+      </c>
+      <c r="Z89">
+        <v>1.44</v>
+      </c>
+      <c r="AA89">
+        <v>7</v>
+      </c>
+      <c r="AB89">
+        <v>1.1</v>
+      </c>
+      <c r="AC89">
+        <v>2.16</v>
+      </c>
+      <c r="AD89">
+        <v>3.4</v>
+      </c>
+      <c r="AE89">
+        <v>3.35</v>
+      </c>
+      <c r="AF89">
+        <v>1.03</v>
+      </c>
+      <c r="AG89">
+        <v>12.5</v>
+      </c>
+      <c r="AH89">
+        <v>1.25</v>
+      </c>
+      <c r="AI89">
+        <v>3.95</v>
+      </c>
+      <c r="AJ89">
+        <v>1.72</v>
+      </c>
+      <c r="AK89">
+        <v>2.12</v>
+      </c>
+      <c r="AL89">
+        <v>1.62</v>
+      </c>
+      <c r="AM89">
+        <v>2.2</v>
+      </c>
+      <c r="AN89">
+        <v>1.32</v>
+      </c>
+      <c r="AO89">
+        <v>1.29</v>
+      </c>
+      <c r="AP89">
+        <v>1.68</v>
+      </c>
+      <c r="AQ89">
+        <v>2.17</v>
+      </c>
+      <c r="AR89">
+        <v>1.14</v>
+      </c>
+      <c r="AS89">
+        <v>1.86</v>
+      </c>
+      <c r="AT89">
+        <v>1.38</v>
+      </c>
+      <c r="AU89">
+        <v>1.68</v>
+      </c>
+      <c r="AV89">
+        <v>1.58</v>
+      </c>
+      <c r="AW89">
+        <v>3.26</v>
+      </c>
+      <c r="AX89">
+        <v>1.84</v>
+      </c>
+      <c r="AY89">
+        <v>7.6</v>
+      </c>
+      <c r="AZ89">
+        <v>2.47</v>
+      </c>
+      <c r="BA89">
+        <v>1.24</v>
+      </c>
+      <c r="BB89">
+        <v>1.48</v>
+      </c>
+      <c r="BC89">
+        <v>1.87</v>
+      </c>
+      <c r="BD89">
+        <v>2.39</v>
+      </c>
+      <c r="BE89">
+        <v>3.2</v>
+      </c>
+      <c r="BF89">
+        <v>5</v>
+      </c>
+      <c r="BG89">
+        <v>4</v>
+      </c>
+      <c r="BH89">
+        <v>6</v>
+      </c>
+      <c r="BI89">
+        <v>7</v>
+      </c>
+      <c r="BJ89">
+        <v>11</v>
+      </c>
+      <c r="BK89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:63">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>2365266</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>44864.58333333334</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>69</v>
+      </c>
+      <c r="H90" t="s">
+        <v>73</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>3</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>5</v>
+      </c>
+      <c r="O90" t="s">
+        <v>137</v>
+      </c>
+      <c r="P90" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q90">
+        <v>2</v>
+      </c>
+      <c r="R90">
+        <v>6</v>
+      </c>
+      <c r="S90">
+        <v>8</v>
+      </c>
+      <c r="T90">
+        <v>2.3</v>
+      </c>
+      <c r="U90">
+        <v>2.25</v>
+      </c>
+      <c r="V90">
+        <v>4.75</v>
+      </c>
+      <c r="W90">
+        <v>1.36</v>
+      </c>
+      <c r="X90">
+        <v>3</v>
+      </c>
+      <c r="Y90">
+        <v>2.63</v>
+      </c>
+      <c r="Z90">
+        <v>1.44</v>
+      </c>
+      <c r="AA90">
+        <v>7</v>
+      </c>
+      <c r="AB90">
+        <v>1.1</v>
+      </c>
+      <c r="AC90">
+        <v>1.95</v>
+      </c>
+      <c r="AD90">
+        <v>3.3</v>
+      </c>
+      <c r="AE90">
+        <v>3.5</v>
+      </c>
+      <c r="AF90">
+        <v>1.03</v>
+      </c>
+      <c r="AG90">
+        <v>11.5</v>
+      </c>
+      <c r="AH90">
+        <v>1.27</v>
+      </c>
+      <c r="AI90">
+        <v>3.7</v>
+      </c>
+      <c r="AJ90">
+        <v>1.9</v>
+      </c>
+      <c r="AK90">
+        <v>1.98</v>
+      </c>
+      <c r="AL90">
+        <v>1.8</v>
+      </c>
+      <c r="AM90">
+        <v>1.95</v>
+      </c>
+      <c r="AN90">
+        <v>1.21</v>
+      </c>
+      <c r="AO90">
+        <v>1.27</v>
+      </c>
+      <c r="AP90">
+        <v>1.98</v>
+      </c>
+      <c r="AQ90">
+        <v>1.29</v>
+      </c>
+      <c r="AR90">
+        <v>1</v>
+      </c>
+      <c r="AS90">
+        <v>1.5</v>
+      </c>
+      <c r="AT90">
+        <v>0.88</v>
+      </c>
+      <c r="AU90">
+        <v>1.94</v>
+      </c>
+      <c r="AV90">
+        <v>1.43</v>
+      </c>
+      <c r="AW90">
+        <v>3.37</v>
+      </c>
+      <c r="AX90">
+        <v>1.34</v>
+      </c>
+      <c r="AY90">
+        <v>9.5</v>
+      </c>
+      <c r="AZ90">
+        <v>4.36</v>
+      </c>
+      <c r="BA90">
+        <v>1.2</v>
+      </c>
+      <c r="BB90">
+        <v>1.32</v>
+      </c>
+      <c r="BC90">
+        <v>1.6</v>
+      </c>
+      <c r="BD90">
+        <v>2.02</v>
+      </c>
+      <c r="BE90">
+        <v>2.62</v>
+      </c>
+      <c r="BF90">
+        <v>6</v>
+      </c>
+      <c r="BG90">
+        <v>6</v>
+      </c>
+      <c r="BH90">
+        <v>6</v>
+      </c>
+      <c r="BI90">
+        <v>13</v>
+      </c>
+      <c r="BJ90">
+        <v>12</v>
+      </c>
+      <c r="BK90">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>2365262</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2">
+        <v>44865.63541666666</v>
+      </c>
+      <c r="F91">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>65</v>
+      </c>
+      <c r="H91" t="s">
+        <v>70</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>138</v>
+      </c>
+      <c r="P91" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q91">
+        <v>9</v>
+      </c>
+      <c r="R91">
+        <v>9</v>
+      </c>
+      <c r="S91">
+        <v>18</v>
+      </c>
+      <c r="T91">
+        <v>2.1</v>
+      </c>
+      <c r="U91">
+        <v>2.4</v>
+      </c>
+      <c r="V91">
+        <v>5.5</v>
+      </c>
+      <c r="W91">
+        <v>1.3</v>
+      </c>
+      <c r="X91">
+        <v>3.4</v>
+      </c>
+      <c r="Y91">
+        <v>2.5</v>
+      </c>
+      <c r="Z91">
+        <v>1.5</v>
+      </c>
+      <c r="AA91">
+        <v>6</v>
+      </c>
+      <c r="AB91">
+        <v>1.13</v>
+      </c>
+      <c r="AC91">
+        <v>1.53</v>
+      </c>
+      <c r="AD91">
+        <v>4.2</v>
+      </c>
+      <c r="AE91">
+        <v>5.5</v>
+      </c>
+      <c r="AF91">
+        <v>1.02</v>
+      </c>
+      <c r="AG91">
+        <v>14.5</v>
+      </c>
+      <c r="AH91">
+        <v>1.22</v>
+      </c>
+      <c r="AI91">
+        <v>4.3</v>
+      </c>
+      <c r="AJ91">
+        <v>1.66</v>
+      </c>
+      <c r="AK91">
+        <v>2.23</v>
+      </c>
+      <c r="AL91">
+        <v>1.75</v>
+      </c>
+      <c r="AM91">
+        <v>2</v>
+      </c>
+      <c r="AN91">
+        <v>1.14</v>
+      </c>
+      <c r="AO91">
+        <v>1.19</v>
+      </c>
+      <c r="AP91">
+        <v>2.5</v>
+      </c>
+      <c r="AQ91">
+        <v>1.14</v>
+      </c>
+      <c r="AR91">
+        <v>1.5</v>
+      </c>
+      <c r="AS91">
+        <v>1</v>
+      </c>
+      <c r="AT91">
+        <v>1.71</v>
+      </c>
+      <c r="AU91">
+        <v>2.16</v>
+      </c>
+      <c r="AV91">
+        <v>1.39</v>
+      </c>
+      <c r="AW91">
+        <v>3.55</v>
+      </c>
+      <c r="AX91">
+        <v>1.24</v>
+      </c>
+      <c r="AY91">
+        <v>10.5</v>
+      </c>
+      <c r="AZ91">
+        <v>5.6</v>
+      </c>
+      <c r="BA91">
+        <v>1.18</v>
+      </c>
+      <c r="BB91">
+        <v>1.39</v>
+      </c>
+      <c r="BC91">
+        <v>1.72</v>
+      </c>
+      <c r="BD91">
+        <v>2.15</v>
+      </c>
+      <c r="BE91">
+        <v>2.84</v>
+      </c>
+      <c r="BF91">
+        <v>4</v>
+      </c>
+      <c r="BG91">
+        <v>3</v>
+      </c>
+      <c r="BH91">
+        <v>10</v>
+      </c>
+      <c r="BI91">
+        <v>19</v>
+      </c>
+      <c r="BJ91">
+        <v>14</v>
+      </c>
+      <c r="BK91">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>2365271</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>44869.625</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>74</v>
+      </c>
+      <c r="H92" t="s">
+        <v>72</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>3</v>
+      </c>
+      <c r="L92">
+        <v>5</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>6</v>
+      </c>
+      <c r="O92" t="s">
+        <v>139</v>
+      </c>
+      <c r="P92" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q92">
+        <v>8</v>
+      </c>
+      <c r="R92">
+        <v>4</v>
+      </c>
+      <c r="S92">
+        <v>12</v>
+      </c>
+      <c r="T92">
+        <v>3.25</v>
+      </c>
+      <c r="U92">
+        <v>2.2</v>
+      </c>
+      <c r="V92">
+        <v>3.1</v>
+      </c>
+      <c r="W92">
+        <v>1.36</v>
+      </c>
+      <c r="X92">
+        <v>3</v>
+      </c>
+      <c r="Y92">
+        <v>2.75</v>
+      </c>
+      <c r="Z92">
+        <v>1.4</v>
+      </c>
+      <c r="AA92">
+        <v>7</v>
+      </c>
+      <c r="AB92">
+        <v>1.1</v>
+      </c>
+      <c r="AC92">
+        <v>2.75</v>
+      </c>
+      <c r="AD92">
+        <v>3.45</v>
+      </c>
+      <c r="AE92">
+        <v>2.3</v>
+      </c>
+      <c r="AF92">
+        <v>1.01</v>
+      </c>
+      <c r="AG92">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH92">
+        <v>1.26</v>
+      </c>
+      <c r="AI92">
+        <v>3.54</v>
+      </c>
+      <c r="AJ92">
+        <v>1.8</v>
+      </c>
+      <c r="AK92">
+        <v>1.9</v>
+      </c>
+      <c r="AL92">
+        <v>1.7</v>
+      </c>
+      <c r="AM92">
+        <v>2.05</v>
+      </c>
+      <c r="AN92">
+        <v>1.55</v>
+      </c>
+      <c r="AO92">
+        <v>1.29</v>
+      </c>
+      <c r="AP92">
+        <v>1.42</v>
+      </c>
+      <c r="AQ92">
+        <v>2</v>
+      </c>
+      <c r="AR92">
+        <v>1.43</v>
+      </c>
+      <c r="AS92">
+        <v>2.13</v>
+      </c>
+      <c r="AT92">
+        <v>1.25</v>
+      </c>
+      <c r="AU92">
+        <v>1.47</v>
+      </c>
+      <c r="AV92">
+        <v>1.53</v>
+      </c>
+      <c r="AW92">
+        <v>3</v>
+      </c>
+      <c r="AX92">
+        <v>2.44</v>
+      </c>
+      <c r="AY92">
+        <v>8</v>
+      </c>
+      <c r="AZ92">
+        <v>1.75</v>
+      </c>
+      <c r="BA92">
+        <v>1.19</v>
+      </c>
+      <c r="BB92">
+        <v>1.39</v>
+      </c>
+      <c r="BC92">
+        <v>1.72</v>
+      </c>
+      <c r="BD92">
+        <v>2.15</v>
+      </c>
+      <c r="BE92">
+        <v>2.84</v>
+      </c>
+      <c r="BF92">
+        <v>10</v>
+      </c>
+      <c r="BG92">
+        <v>3</v>
+      </c>
+      <c r="BH92">
+        <v>7</v>
+      </c>
+      <c r="BI92">
+        <v>5</v>
+      </c>
+      <c r="BJ92">
+        <v>17</v>
+      </c>
+      <c r="BK92">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,18 @@
     <t>['35', '38', '49', '71', '90+2']</t>
   </si>
   <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['24', '73', '77']</t>
+  </si>
+  <si>
+    <t>['34', '37', '51']</t>
+  </si>
+  <si>
+    <t>['45+1', '46', '69', '83', '90']</t>
+  </si>
+  <si>
     <t>['60']</t>
   </si>
   <si>
@@ -611,6 +623,24 @@
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['71', '79']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['58', '79']</t>
+  </si>
+  <si>
+    <t>['79', '90+3']</t>
+  </si>
+  <si>
+    <t>['4', '19', '56']</t>
+  </si>
+  <si>
+    <t>['24', '64']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK92"/>
+  <dimension ref="A1:BK103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1216,7 +1246,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -1407,7 +1437,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1494,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT3">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1598,7 +1628,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1688,7 +1718,7 @@
         <v>0.38</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1876,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT5">
         <v>0.5</v>
@@ -2067,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT6">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2171,7 +2201,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2258,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT7">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2362,7 +2392,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2452,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU8">
         <v>2.54</v>
@@ -2553,7 +2583,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2640,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT9">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2744,7 +2774,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -2831,10 +2861,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
+        <v>1.56</v>
+      </c>
+      <c r="AT10">
         <v>1.63</v>
-      </c>
-      <c r="AT10">
-        <v>1.71</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2935,7 +2965,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3022,10 +3052,10 @@
         <v>3</v>
       </c>
       <c r="AS11">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT11">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU11">
         <v>2.05</v>
@@ -3126,7 +3156,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3213,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT12">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3404,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT13">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3508,7 +3538,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3595,10 +3625,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT14">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU14">
         <v>1.59</v>
@@ -3786,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT15">
         <v>1.25</v>
@@ -3977,7 +4007,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT16">
         <v>0.5</v>
@@ -4081,7 +4111,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4168,10 +4198,10 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT17">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU17">
         <v>2.27</v>
@@ -4359,10 +4389,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT18">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4463,7 +4493,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4550,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT19">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4741,7 +4771,7 @@
         <v>2</v>
       </c>
       <c r="AS20">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT20">
         <v>0.5</v>
@@ -4845,7 +4875,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -4935,7 +4965,7 @@
         <v>0.38</v>
       </c>
       <c r="AT21">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU21">
         <v>1.24</v>
@@ -5123,10 +5153,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT22">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU22">
         <v>1.23</v>
@@ -5227,7 +5257,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -5314,10 +5344,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT23">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU23">
         <v>2.6</v>
@@ -5418,7 +5448,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5505,10 +5535,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT24">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU24">
         <v>1.32</v>
@@ -5609,7 +5639,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5696,10 +5726,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT25">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU25">
         <v>1.74</v>
@@ -5800,7 +5830,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5887,10 +5917,10 @@
         <v>2</v>
       </c>
       <c r="AS26">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT26">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU26">
         <v>1.23</v>
@@ -5991,7 +6021,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6078,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT27">
         <v>1.25</v>
@@ -6269,10 +6299,10 @@
         <v>2</v>
       </c>
       <c r="AS28">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU28">
         <v>1.99</v>
@@ -6460,10 +6490,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU29">
         <v>1.87</v>
@@ -6651,10 +6681,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT30">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU30">
         <v>1.9</v>
@@ -6842,10 +6872,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT31">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU31">
         <v>1.65</v>
@@ -6946,7 +6976,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7036,7 +7066,7 @@
         <v>0.38</v>
       </c>
       <c r="AT32">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU32">
         <v>1.21</v>
@@ -7137,7 +7167,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q33">
         <v>13</v>
@@ -7227,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU33">
         <v>2.14</v>
@@ -7328,7 +7358,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7415,10 +7445,10 @@
         <v>1.33</v>
       </c>
       <c r="AS34">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU34">
         <v>1.19</v>
@@ -7606,10 +7636,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT35">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU35">
         <v>2.19</v>
@@ -7710,7 +7740,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7797,10 +7827,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT36">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU36">
         <v>1.58</v>
@@ -7988,7 +8018,7 @@
         <v>1.33</v>
       </c>
       <c r="AS37">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT37">
         <v>0.5</v>
@@ -8179,10 +8209,10 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT38">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU38">
         <v>2.08</v>
@@ -8370,10 +8400,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT39">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU39">
         <v>1.89</v>
@@ -8561,10 +8591,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT40">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU40">
         <v>1.71</v>
@@ -8665,7 +8695,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8752,10 +8782,10 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT41">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU41">
         <v>1.29</v>
@@ -8856,7 +8886,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -8943,10 +8973,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT42">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU42">
         <v>2.09</v>
@@ -9047,7 +9077,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9134,10 +9164,10 @@
         <v>1.67</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT43">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU43">
         <v>1.77</v>
@@ -9325,10 +9355,10 @@
         <v>1.75</v>
       </c>
       <c r="AS44">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU44">
         <v>2.32</v>
@@ -9429,7 +9459,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9516,10 +9546,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT45">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU45">
         <v>1.45</v>
@@ -9620,7 +9650,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>10</v>
@@ -9811,7 +9841,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -9898,10 +9928,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT47">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU47">
         <v>1.81</v>
@@ -10002,7 +10032,7 @@
         <v>80</v>
       </c>
       <c r="P48" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10092,7 +10122,7 @@
         <v>1</v>
       </c>
       <c r="AT48">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU48">
         <v>2.17</v>
@@ -10193,7 +10223,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10280,10 +10310,10 @@
         <v>2.33</v>
       </c>
       <c r="AS49">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT49">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU49">
         <v>1.52</v>
@@ -10471,10 +10501,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT50">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU50">
         <v>1.51</v>
@@ -10575,7 +10605,7 @@
         <v>98</v>
       </c>
       <c r="P51" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10662,10 +10692,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT51">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU51">
         <v>1.57</v>
@@ -10766,7 +10796,7 @@
         <v>112</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -10853,10 +10883,10 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT52">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU52">
         <v>1.4</v>
@@ -10957,7 +10987,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11044,7 +11074,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT53">
         <v>1.25</v>
@@ -11235,10 +11265,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT54">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU54">
         <v>2.02</v>
@@ -11339,7 +11369,7 @@
         <v>115</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11426,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT55">
         <v>0.5</v>
@@ -11617,10 +11647,10 @@
         <v>2.5</v>
       </c>
       <c r="AS56">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT56">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU56">
         <v>1.7</v>
@@ -11721,7 +11751,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11808,10 +11838,10 @@
         <v>0.75</v>
       </c>
       <c r="AS57">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT57">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU57">
         <v>1.6</v>
@@ -11912,7 +11942,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12002,7 +12032,7 @@
         <v>0.38</v>
       </c>
       <c r="AT58">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU58">
         <v>1.45</v>
@@ -12103,7 +12133,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12190,10 +12220,10 @@
         <v>1.4</v>
       </c>
       <c r="AS59">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU59">
         <v>1.8</v>
@@ -12381,10 +12411,10 @@
         <v>0.75</v>
       </c>
       <c r="AS60">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT60">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU60">
         <v>1.86</v>
@@ -12575,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="AT61">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU61">
         <v>2.16</v>
@@ -12676,7 +12706,7 @@
         <v>112</v>
       </c>
       <c r="P62" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -12763,10 +12793,10 @@
         <v>1.75</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT62">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU62">
         <v>1.5</v>
@@ -12867,7 +12897,7 @@
         <v>120</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -12954,7 +12984,7 @@
         <v>0.8</v>
       </c>
       <c r="AS63">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT63">
         <v>0.5</v>
@@ -13058,7 +13088,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13148,7 +13178,7 @@
         <v>1</v>
       </c>
       <c r="AT64">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU64">
         <v>2.06</v>
@@ -13249,7 +13279,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13336,10 +13366,10 @@
         <v>0.2</v>
       </c>
       <c r="AS65">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT65">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU65">
         <v>1.8</v>
@@ -13527,10 +13557,10 @@
         <v>1.2</v>
       </c>
       <c r="AS66">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT66">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU66">
         <v>2.29</v>
@@ -13631,7 +13661,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13718,7 +13748,7 @@
         <v>1.8</v>
       </c>
       <c r="AS67">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT67">
         <v>1.25</v>
@@ -13822,7 +13852,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -13912,7 +13942,7 @@
         <v>0.38</v>
       </c>
       <c r="AT68">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU68">
         <v>1.46</v>
@@ -14013,7 +14043,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14100,10 +14130,10 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT69">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU69">
         <v>2.16</v>
@@ -14204,7 +14234,7 @@
         <v>80</v>
       </c>
       <c r="P70" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14291,10 +14321,10 @@
         <v>1.8</v>
       </c>
       <c r="AS70">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT70">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU70">
         <v>1.7</v>
@@ -14482,10 +14512,10 @@
         <v>1.17</v>
       </c>
       <c r="AS71">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU71">
         <v>1.52</v>
@@ -14586,7 +14616,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14673,10 +14703,10 @@
         <v>0.8</v>
       </c>
       <c r="AS72">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT72">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU72">
         <v>1.81</v>
@@ -14864,10 +14894,10 @@
         <v>0.6</v>
       </c>
       <c r="AS73">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT73">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU73">
         <v>1.53</v>
@@ -14968,7 +14998,7 @@
         <v>80</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15058,7 +15088,7 @@
         <v>0.38</v>
       </c>
       <c r="AT74">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU74">
         <v>1.52</v>
@@ -15246,10 +15276,10 @@
         <v>1.6</v>
       </c>
       <c r="AS75">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT75">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU75">
         <v>1.92</v>
@@ -15350,7 +15380,7 @@
         <v>129</v>
       </c>
       <c r="P76" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15437,10 +15467,10 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT76">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU76">
         <v>1.96</v>
@@ -15541,7 +15571,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15628,10 +15658,10 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT77">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU77">
         <v>1.54</v>
@@ -15923,7 +15953,7 @@
         <v>132</v>
       </c>
       <c r="P79" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16010,7 +16040,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT79">
         <v>1.25</v>
@@ -16114,7 +16144,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16201,10 +16231,10 @@
         <v>0.33</v>
       </c>
       <c r="AS80">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT80">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU80">
         <v>1.46</v>
@@ -16305,7 +16335,7 @@
         <v>114</v>
       </c>
       <c r="P81" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16392,10 +16422,10 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT81">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU81">
         <v>2.08</v>
@@ -16496,7 +16526,7 @@
         <v>80</v>
       </c>
       <c r="P82" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16583,10 +16613,10 @@
         <v>1.83</v>
       </c>
       <c r="AS82">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT82">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU82">
         <v>1.81</v>
@@ -16687,7 +16717,7 @@
         <v>134</v>
       </c>
       <c r="P83" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16774,10 +16804,10 @@
         <v>1.14</v>
       </c>
       <c r="AS83">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU83">
         <v>1.44</v>
@@ -16965,10 +16995,10 @@
         <v>1.17</v>
       </c>
       <c r="AS84">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT84">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU84">
         <v>1.62</v>
@@ -17069,7 +17099,7 @@
         <v>112</v>
       </c>
       <c r="P85" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17156,10 +17186,10 @@
         <v>0.83</v>
       </c>
       <c r="AS85">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT85">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU85">
         <v>1.48</v>
@@ -17347,7 +17377,7 @@
         <v>0.57</v>
       </c>
       <c r="AS86">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT86">
         <v>0.5</v>
@@ -17451,7 +17481,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17538,10 +17568,10 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT87">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU87">
         <v>1.85</v>
@@ -17642,7 +17672,7 @@
         <v>80</v>
       </c>
       <c r="P88" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17732,7 +17762,7 @@
         <v>0.38</v>
       </c>
       <c r="AT88">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU88">
         <v>1.67</v>
@@ -17833,7 +17863,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17920,10 +17950,10 @@
         <v>1.14</v>
       </c>
       <c r="AS89">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT89">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU89">
         <v>1.68</v>
@@ -18024,7 +18054,7 @@
         <v>137</v>
       </c>
       <c r="P90" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18111,10 +18141,10 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT90">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU90">
         <v>1.94</v>
@@ -18215,7 +18245,7 @@
         <v>138</v>
       </c>
       <c r="P91" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18305,7 +18335,7 @@
         <v>1</v>
       </c>
       <c r="AT91">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU91">
         <v>2.16</v>
@@ -18406,7 +18436,7 @@
         <v>139</v>
       </c>
       <c r="P92" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q92">
         <v>8</v>
@@ -18493,7 +18523,7 @@
         <v>1.43</v>
       </c>
       <c r="AS92">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT92">
         <v>1.25</v>
@@ -18548,6 +18578,2107 @@
       </c>
       <c r="BK92">
         <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>2365270</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>44871.41666666666</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>73</v>
+      </c>
+      <c r="H93" t="s">
+        <v>75</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93" t="s">
+        <v>140</v>
+      </c>
+      <c r="P93" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q93">
+        <v>7</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>8</v>
+      </c>
+      <c r="T93">
+        <v>3.6</v>
+      </c>
+      <c r="U93">
+        <v>2.25</v>
+      </c>
+      <c r="V93">
+        <v>2.75</v>
+      </c>
+      <c r="W93">
+        <v>1.36</v>
+      </c>
+      <c r="X93">
+        <v>3</v>
+      </c>
+      <c r="Y93">
+        <v>2.63</v>
+      </c>
+      <c r="Z93">
+        <v>1.44</v>
+      </c>
+      <c r="AA93">
+        <v>7</v>
+      </c>
+      <c r="AB93">
+        <v>1.1</v>
+      </c>
+      <c r="AC93">
+        <v>2.62</v>
+      </c>
+      <c r="AD93">
+        <v>3.5</v>
+      </c>
+      <c r="AE93">
+        <v>2.23</v>
+      </c>
+      <c r="AF93">
+        <v>1.01</v>
+      </c>
+      <c r="AG93">
+        <v>11</v>
+      </c>
+      <c r="AH93">
+        <v>1.22</v>
+      </c>
+      <c r="AI93">
+        <v>3.7</v>
+      </c>
+      <c r="AJ93">
+        <v>1.75</v>
+      </c>
+      <c r="AK93">
+        <v>1.95</v>
+      </c>
+      <c r="AL93">
+        <v>1.67</v>
+      </c>
+      <c r="AM93">
+        <v>2.1</v>
+      </c>
+      <c r="AN93">
+        <v>1.7</v>
+      </c>
+      <c r="AO93">
+        <v>1.25</v>
+      </c>
+      <c r="AP93">
+        <v>1.38</v>
+      </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AR93">
+        <v>1</v>
+      </c>
+      <c r="AS93">
+        <v>0.88</v>
+      </c>
+      <c r="AT93">
+        <v>1.22</v>
+      </c>
+      <c r="AU93">
+        <v>1.38</v>
+      </c>
+      <c r="AV93">
+        <v>1.54</v>
+      </c>
+      <c r="AW93">
+        <v>2.92</v>
+      </c>
+      <c r="AX93">
+        <v>1.98</v>
+      </c>
+      <c r="AY93">
+        <v>7.7</v>
+      </c>
+      <c r="AZ93">
+        <v>2.21</v>
+      </c>
+      <c r="BA93">
+        <v>1.25</v>
+      </c>
+      <c r="BB93">
+        <v>1.33</v>
+      </c>
+      <c r="BC93">
+        <v>1.6</v>
+      </c>
+      <c r="BD93">
+        <v>2</v>
+      </c>
+      <c r="BE93">
+        <v>2.7</v>
+      </c>
+      <c r="BF93">
+        <v>7</v>
+      </c>
+      <c r="BG93">
+        <v>6</v>
+      </c>
+      <c r="BH93">
+        <v>7</v>
+      </c>
+      <c r="BI93">
+        <v>3</v>
+      </c>
+      <c r="BJ93">
+        <v>14</v>
+      </c>
+      <c r="BK93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>2365273</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>44871.41666666666</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>66</v>
+      </c>
+      <c r="H94" t="s">
+        <v>71</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>81</v>
+      </c>
+      <c r="P94" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q94">
+        <v>4</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>5</v>
+      </c>
+      <c r="T94">
+        <v>2.75</v>
+      </c>
+      <c r="U94">
+        <v>2.1</v>
+      </c>
+      <c r="V94">
+        <v>4</v>
+      </c>
+      <c r="W94">
+        <v>1.4</v>
+      </c>
+      <c r="X94">
+        <v>2.75</v>
+      </c>
+      <c r="Y94">
+        <v>3</v>
+      </c>
+      <c r="Z94">
+        <v>1.36</v>
+      </c>
+      <c r="AA94">
+        <v>8</v>
+      </c>
+      <c r="AB94">
+        <v>1.08</v>
+      </c>
+      <c r="AC94">
+        <v>1.86</v>
+      </c>
+      <c r="AD94">
+        <v>3.34</v>
+      </c>
+      <c r="AE94">
+        <v>3.58</v>
+      </c>
+      <c r="AF94">
+        <v>1.04</v>
+      </c>
+      <c r="AG94">
+        <v>10.5</v>
+      </c>
+      <c r="AH94">
+        <v>1.32</v>
+      </c>
+      <c r="AI94">
+        <v>3.35</v>
+      </c>
+      <c r="AJ94">
+        <v>1.82</v>
+      </c>
+      <c r="AK94">
+        <v>1.85</v>
+      </c>
+      <c r="AL94">
+        <v>1.8</v>
+      </c>
+      <c r="AM94">
+        <v>1.95</v>
+      </c>
+      <c r="AN94">
+        <v>1.31</v>
+      </c>
+      <c r="AO94">
+        <v>1.3</v>
+      </c>
+      <c r="AP94">
+        <v>1.7</v>
+      </c>
+      <c r="AQ94">
+        <v>2.43</v>
+      </c>
+      <c r="AR94">
+        <v>1.25</v>
+      </c>
+      <c r="AS94">
+        <v>2.25</v>
+      </c>
+      <c r="AT94">
+        <v>1.22</v>
+      </c>
+      <c r="AU94">
+        <v>1.91</v>
+      </c>
+      <c r="AV94">
+        <v>1.58</v>
+      </c>
+      <c r="AW94">
+        <v>3.49</v>
+      </c>
+      <c r="AX94">
+        <v>1.7</v>
+      </c>
+      <c r="AY94">
+        <v>8</v>
+      </c>
+      <c r="AZ94">
+        <v>2.72</v>
+      </c>
+      <c r="BA94">
+        <v>1.18</v>
+      </c>
+      <c r="BB94">
+        <v>1.33</v>
+      </c>
+      <c r="BC94">
+        <v>1.6</v>
+      </c>
+      <c r="BD94">
+        <v>2.05</v>
+      </c>
+      <c r="BE94">
+        <v>2.7</v>
+      </c>
+      <c r="BF94">
+        <v>8</v>
+      </c>
+      <c r="BG94">
+        <v>4</v>
+      </c>
+      <c r="BH94">
+        <v>12</v>
+      </c>
+      <c r="BI94">
+        <v>4</v>
+      </c>
+      <c r="BJ94">
+        <v>20</v>
+      </c>
+      <c r="BK94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>2365269</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>44871.5</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>68</v>
+      </c>
+      <c r="H95" t="s">
+        <v>67</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>141</v>
+      </c>
+      <c r="P95" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q95">
+        <v>7</v>
+      </c>
+      <c r="R95">
+        <v>3</v>
+      </c>
+      <c r="S95">
+        <v>10</v>
+      </c>
+      <c r="T95">
+        <v>1.91</v>
+      </c>
+      <c r="U95">
+        <v>2.5</v>
+      </c>
+      <c r="V95">
+        <v>6.5</v>
+      </c>
+      <c r="W95">
+        <v>1.3</v>
+      </c>
+      <c r="X95">
+        <v>3.4</v>
+      </c>
+      <c r="Y95">
+        <v>2.5</v>
+      </c>
+      <c r="Z95">
+        <v>1.5</v>
+      </c>
+      <c r="AA95">
+        <v>6</v>
+      </c>
+      <c r="AB95">
+        <v>1.13</v>
+      </c>
+      <c r="AC95">
+        <v>1.39</v>
+      </c>
+      <c r="AD95">
+        <v>4.3</v>
+      </c>
+      <c r="AE95">
+        <v>6.21</v>
+      </c>
+      <c r="AF95">
+        <v>1.01</v>
+      </c>
+      <c r="AG95">
+        <v>16.5</v>
+      </c>
+      <c r="AH95">
+        <v>1.2</v>
+      </c>
+      <c r="AI95">
+        <v>4</v>
+      </c>
+      <c r="AJ95">
+        <v>1.62</v>
+      </c>
+      <c r="AK95">
+        <v>2.15</v>
+      </c>
+      <c r="AL95">
+        <v>1.91</v>
+      </c>
+      <c r="AM95">
+        <v>1.91</v>
+      </c>
+      <c r="AN95">
+        <v>1.13</v>
+      </c>
+      <c r="AO95">
+        <v>1.18</v>
+      </c>
+      <c r="AP95">
+        <v>2.8</v>
+      </c>
+      <c r="AQ95">
+        <v>1.57</v>
+      </c>
+      <c r="AR95">
+        <v>0.29</v>
+      </c>
+      <c r="AS95">
+        <v>1.75</v>
+      </c>
+      <c r="AT95">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU95">
+        <v>2.03</v>
+      </c>
+      <c r="AV95">
+        <v>1.68</v>
+      </c>
+      <c r="AW95">
+        <v>3.71</v>
+      </c>
+      <c r="AX95">
+        <v>1.44</v>
+      </c>
+      <c r="AY95">
+        <v>8.5</v>
+      </c>
+      <c r="AZ95">
+        <v>3.72</v>
+      </c>
+      <c r="BA95">
+        <v>1.26</v>
+      </c>
+      <c r="BB95">
+        <v>1.49</v>
+      </c>
+      <c r="BC95">
+        <v>2</v>
+      </c>
+      <c r="BD95">
+        <v>2.5</v>
+      </c>
+      <c r="BE95">
+        <v>3.5</v>
+      </c>
+      <c r="BF95">
+        <v>8</v>
+      </c>
+      <c r="BG95">
+        <v>3</v>
+      </c>
+      <c r="BH95">
+        <v>8</v>
+      </c>
+      <c r="BI95">
+        <v>7</v>
+      </c>
+      <c r="BJ95">
+        <v>16</v>
+      </c>
+      <c r="BK95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>2365272</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>44871.58333333334</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>70</v>
+      </c>
+      <c r="H96" t="s">
+        <v>69</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>126</v>
+      </c>
+      <c r="P96" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q96">
+        <v>5</v>
+      </c>
+      <c r="R96">
+        <v>5</v>
+      </c>
+      <c r="S96">
+        <v>10</v>
+      </c>
+      <c r="T96">
+        <v>3.4</v>
+      </c>
+      <c r="U96">
+        <v>2.2</v>
+      </c>
+      <c r="V96">
+        <v>3</v>
+      </c>
+      <c r="W96">
+        <v>1.36</v>
+      </c>
+      <c r="X96">
+        <v>3</v>
+      </c>
+      <c r="Y96">
+        <v>2.75</v>
+      </c>
+      <c r="Z96">
+        <v>1.4</v>
+      </c>
+      <c r="AA96">
+        <v>7</v>
+      </c>
+      <c r="AB96">
+        <v>1.1</v>
+      </c>
+      <c r="AC96">
+        <v>2.67</v>
+      </c>
+      <c r="AD96">
+        <v>3.55</v>
+      </c>
+      <c r="AE96">
+        <v>2.37</v>
+      </c>
+      <c r="AF96">
+        <v>1.03</v>
+      </c>
+      <c r="AG96">
+        <v>11.5</v>
+      </c>
+      <c r="AH96">
+        <v>1.27</v>
+      </c>
+      <c r="AI96">
+        <v>3.7</v>
+      </c>
+      <c r="AJ96">
+        <v>1.96</v>
+      </c>
+      <c r="AK96">
+        <v>1.94</v>
+      </c>
+      <c r="AL96">
+        <v>1.67</v>
+      </c>
+      <c r="AM96">
+        <v>2.1</v>
+      </c>
+      <c r="AN96">
+        <v>1.57</v>
+      </c>
+      <c r="AO96">
+        <v>1.3</v>
+      </c>
+      <c r="AP96">
+        <v>1.39</v>
+      </c>
+      <c r="AQ96">
+        <v>1.25</v>
+      </c>
+      <c r="AR96">
+        <v>1.14</v>
+      </c>
+      <c r="AS96">
+        <v>1.22</v>
+      </c>
+      <c r="AT96">
+        <v>1.13</v>
+      </c>
+      <c r="AU96">
+        <v>1.43</v>
+      </c>
+      <c r="AV96">
+        <v>1.66</v>
+      </c>
+      <c r="AW96">
+        <v>3.09</v>
+      </c>
+      <c r="AX96">
+        <v>2.36</v>
+      </c>
+      <c r="AY96">
+        <v>7.9</v>
+      </c>
+      <c r="AZ96">
+        <v>1.89</v>
+      </c>
+      <c r="BA96">
+        <v>1.24</v>
+      </c>
+      <c r="BB96">
+        <v>1.35</v>
+      </c>
+      <c r="BC96">
+        <v>1.65</v>
+      </c>
+      <c r="BD96">
+        <v>2.1</v>
+      </c>
+      <c r="BE96">
+        <v>2.77</v>
+      </c>
+      <c r="BF96">
+        <v>4</v>
+      </c>
+      <c r="BG96">
+        <v>4</v>
+      </c>
+      <c r="BH96">
+        <v>8</v>
+      </c>
+      <c r="BI96">
+        <v>11</v>
+      </c>
+      <c r="BJ96">
+        <v>12</v>
+      </c>
+      <c r="BK96">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>2365268</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>44872.625</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>65</v>
+      </c>
+      <c r="H97" t="s">
+        <v>76</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97" t="s">
+        <v>80</v>
+      </c>
+      <c r="P97" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q97">
+        <v>4</v>
+      </c>
+      <c r="R97">
+        <v>6</v>
+      </c>
+      <c r="S97">
+        <v>10</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>2.25</v>
+      </c>
+      <c r="V97">
+        <v>3.6</v>
+      </c>
+      <c r="W97">
+        <v>1.33</v>
+      </c>
+      <c r="X97">
+        <v>3.25</v>
+      </c>
+      <c r="Y97">
+        <v>2.63</v>
+      </c>
+      <c r="Z97">
+        <v>1.44</v>
+      </c>
+      <c r="AA97">
+        <v>6.5</v>
+      </c>
+      <c r="AB97">
+        <v>1.11</v>
+      </c>
+      <c r="AC97">
+        <v>2</v>
+      </c>
+      <c r="AD97">
+        <v>3.5</v>
+      </c>
+      <c r="AE97">
+        <v>3.45</v>
+      </c>
+      <c r="AF97">
+        <v>1.03</v>
+      </c>
+      <c r="AG97">
+        <v>12.5</v>
+      </c>
+      <c r="AH97">
+        <v>1.25</v>
+      </c>
+      <c r="AI97">
+        <v>3.95</v>
+      </c>
+      <c r="AJ97">
+        <v>1.57</v>
+      </c>
+      <c r="AK97">
+        <v>2.14</v>
+      </c>
+      <c r="AL97">
+        <v>1.62</v>
+      </c>
+      <c r="AM97">
+        <v>2.2</v>
+      </c>
+      <c r="AN97">
+        <v>1.34</v>
+      </c>
+      <c r="AO97">
+        <v>1.3</v>
+      </c>
+      <c r="AP97">
+        <v>1.65</v>
+      </c>
+      <c r="AQ97">
+        <v>1</v>
+      </c>
+      <c r="AR97">
+        <v>2</v>
+      </c>
+      <c r="AS97">
+        <v>1</v>
+      </c>
+      <c r="AT97">
+        <v>1.88</v>
+      </c>
+      <c r="AU97">
+        <v>2.09</v>
+      </c>
+      <c r="AV97">
+        <v>1.73</v>
+      </c>
+      <c r="AW97">
+        <v>3.82</v>
+      </c>
+      <c r="AX97">
+        <v>1.77</v>
+      </c>
+      <c r="AY97">
+        <v>7.4</v>
+      </c>
+      <c r="AZ97">
+        <v>2.57</v>
+      </c>
+      <c r="BA97">
+        <v>1.25</v>
+      </c>
+      <c r="BB97">
+        <v>1.45</v>
+      </c>
+      <c r="BC97">
+        <v>1.75</v>
+      </c>
+      <c r="BD97">
+        <v>2.22</v>
+      </c>
+      <c r="BE97">
+        <v>2.9</v>
+      </c>
+      <c r="BF97">
+        <v>2</v>
+      </c>
+      <c r="BG97">
+        <v>4</v>
+      </c>
+      <c r="BH97">
+        <v>5</v>
+      </c>
+      <c r="BI97">
+        <v>5</v>
+      </c>
+      <c r="BJ97">
+        <v>7</v>
+      </c>
+      <c r="BK97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>2365279</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>75</v>
+      </c>
+      <c r="H98" t="s">
+        <v>67</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>80</v>
+      </c>
+      <c r="P98" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q98">
+        <v>8</v>
+      </c>
+      <c r="R98">
+        <v>3</v>
+      </c>
+      <c r="S98">
+        <v>11</v>
+      </c>
+      <c r="T98">
+        <v>2.03</v>
+      </c>
+      <c r="U98">
+        <v>2.43</v>
+      </c>
+      <c r="V98">
+        <v>5.65</v>
+      </c>
+      <c r="W98">
+        <v>1.28</v>
+      </c>
+      <c r="X98">
+        <v>3.3</v>
+      </c>
+      <c r="Y98">
+        <v>2.4</v>
+      </c>
+      <c r="Z98">
+        <v>1.49</v>
+      </c>
+      <c r="AA98">
+        <v>5.85</v>
+      </c>
+      <c r="AB98">
+        <v>1.1</v>
+      </c>
+      <c r="AC98">
+        <v>1.82</v>
+      </c>
+      <c r="AD98">
+        <v>3.84</v>
+      </c>
+      <c r="AE98">
+        <v>4.04</v>
+      </c>
+      <c r="AF98">
+        <v>1.02</v>
+      </c>
+      <c r="AG98">
+        <v>14.5</v>
+      </c>
+      <c r="AH98">
+        <v>1.22</v>
+      </c>
+      <c r="AI98">
+        <v>4.3</v>
+      </c>
+      <c r="AJ98">
+        <v>1.74</v>
+      </c>
+      <c r="AK98">
+        <v>2.1</v>
+      </c>
+      <c r="AL98">
+        <v>1.77</v>
+      </c>
+      <c r="AM98">
+        <v>2</v>
+      </c>
+      <c r="AN98">
+        <v>1.13</v>
+      </c>
+      <c r="AO98">
+        <v>1.21</v>
+      </c>
+      <c r="AP98">
+        <v>2.52</v>
+      </c>
+      <c r="AQ98">
+        <v>1.86</v>
+      </c>
+      <c r="AR98">
+        <v>0.25</v>
+      </c>
+      <c r="AS98">
+        <v>1.63</v>
+      </c>
+      <c r="AT98">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU98">
+        <v>1.63</v>
+      </c>
+      <c r="AV98">
+        <v>1.61</v>
+      </c>
+      <c r="AW98">
+        <v>3.24</v>
+      </c>
+      <c r="AX98">
+        <v>1.85</v>
+      </c>
+      <c r="AY98">
+        <v>8</v>
+      </c>
+      <c r="AZ98">
+        <v>2.28</v>
+      </c>
+      <c r="BA98">
+        <v>1.26</v>
+      </c>
+      <c r="BB98">
+        <v>1.65</v>
+      </c>
+      <c r="BC98">
+        <v>2.03</v>
+      </c>
+      <c r="BD98">
+        <v>2.55</v>
+      </c>
+      <c r="BE98">
+        <v>3.34</v>
+      </c>
+      <c r="BF98">
+        <v>5</v>
+      </c>
+      <c r="BG98">
+        <v>6</v>
+      </c>
+      <c r="BH98">
+        <v>16</v>
+      </c>
+      <c r="BI98">
+        <v>9</v>
+      </c>
+      <c r="BJ98">
+        <v>21</v>
+      </c>
+      <c r="BK98">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>2365275</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>44878.41666666666</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>71</v>
+      </c>
+      <c r="H99" t="s">
+        <v>68</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>80</v>
+      </c>
+      <c r="P99" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q99">
+        <v>7</v>
+      </c>
+      <c r="R99">
+        <v>4</v>
+      </c>
+      <c r="S99">
+        <v>11</v>
+      </c>
+      <c r="T99">
+        <v>4</v>
+      </c>
+      <c r="U99">
+        <v>2.05</v>
+      </c>
+      <c r="V99">
+        <v>2.88</v>
+      </c>
+      <c r="W99">
+        <v>1.44</v>
+      </c>
+      <c r="X99">
+        <v>2.63</v>
+      </c>
+      <c r="Y99">
+        <v>3.25</v>
+      </c>
+      <c r="Z99">
+        <v>1.33</v>
+      </c>
+      <c r="AA99">
+        <v>9</v>
+      </c>
+      <c r="AB99">
+        <v>1.07</v>
+      </c>
+      <c r="AC99">
+        <v>3.42</v>
+      </c>
+      <c r="AD99">
+        <v>3.32</v>
+      </c>
+      <c r="AE99">
+        <v>2.22</v>
+      </c>
+      <c r="AF99">
+        <v>1.05</v>
+      </c>
+      <c r="AG99">
+        <v>8</v>
+      </c>
+      <c r="AH99">
+        <v>1.33</v>
+      </c>
+      <c r="AI99">
+        <v>3</v>
+      </c>
+      <c r="AJ99">
+        <v>2.05</v>
+      </c>
+      <c r="AK99">
+        <v>1.69</v>
+      </c>
+      <c r="AL99">
+        <v>1.95</v>
+      </c>
+      <c r="AM99">
+        <v>1.8</v>
+      </c>
+      <c r="AN99">
+        <v>1.65</v>
+      </c>
+      <c r="AO99">
+        <v>1.35</v>
+      </c>
+      <c r="AP99">
+        <v>1.22</v>
+      </c>
+      <c r="AQ99">
+        <v>1.57</v>
+      </c>
+      <c r="AR99">
+        <v>1.25</v>
+      </c>
+      <c r="AS99">
+        <v>1.38</v>
+      </c>
+      <c r="AT99">
+        <v>1.44</v>
+      </c>
+      <c r="AU99">
+        <v>1.58</v>
+      </c>
+      <c r="AV99">
+        <v>1.73</v>
+      </c>
+      <c r="AW99">
+        <v>3.31</v>
+      </c>
+      <c r="AX99">
+        <v>2.2</v>
+      </c>
+      <c r="AY99">
+        <v>7.7</v>
+      </c>
+      <c r="AZ99">
+        <v>1.99</v>
+      </c>
+      <c r="BA99">
+        <v>1.21</v>
+      </c>
+      <c r="BB99">
+        <v>1.6</v>
+      </c>
+      <c r="BC99">
+        <v>1.98</v>
+      </c>
+      <c r="BD99">
+        <v>2.55</v>
+      </c>
+      <c r="BE99">
+        <v>2.93</v>
+      </c>
+      <c r="BF99">
+        <v>4</v>
+      </c>
+      <c r="BG99">
+        <v>7</v>
+      </c>
+      <c r="BH99">
+        <v>7</v>
+      </c>
+      <c r="BI99">
+        <v>6</v>
+      </c>
+      <c r="BJ99">
+        <v>11</v>
+      </c>
+      <c r="BK99">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>2365276</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>44878.41666666666</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100">
+        <v>4</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>3</v>
+      </c>
+      <c r="N100">
+        <v>6</v>
+      </c>
+      <c r="O100" t="s">
+        <v>142</v>
+      </c>
+      <c r="P100" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q100">
+        <v>3</v>
+      </c>
+      <c r="R100">
+        <v>8</v>
+      </c>
+      <c r="S100">
+        <v>11</v>
+      </c>
+      <c r="T100">
+        <v>3.25</v>
+      </c>
+      <c r="U100">
+        <v>2.2</v>
+      </c>
+      <c r="V100">
+        <v>3.1</v>
+      </c>
+      <c r="W100">
+        <v>1.36</v>
+      </c>
+      <c r="X100">
+        <v>3</v>
+      </c>
+      <c r="Y100">
+        <v>2.75</v>
+      </c>
+      <c r="Z100">
+        <v>1.4</v>
+      </c>
+      <c r="AA100">
+        <v>7</v>
+      </c>
+      <c r="AB100">
+        <v>1.1</v>
+      </c>
+      <c r="AC100">
+        <v>2.5</v>
+      </c>
+      <c r="AD100">
+        <v>3.4</v>
+      </c>
+      <c r="AE100">
+        <v>2.6</v>
+      </c>
+      <c r="AF100">
+        <v>1.01</v>
+      </c>
+      <c r="AG100">
+        <v>9.9</v>
+      </c>
+      <c r="AH100">
+        <v>1.24</v>
+      </c>
+      <c r="AI100">
+        <v>3.72</v>
+      </c>
+      <c r="AJ100">
+        <v>1.85</v>
+      </c>
+      <c r="AK100">
+        <v>2</v>
+      </c>
+      <c r="AL100">
+        <v>1.67</v>
+      </c>
+      <c r="AM100">
+        <v>2.1</v>
+      </c>
+      <c r="AN100">
+        <v>1.55</v>
+      </c>
+      <c r="AO100">
+        <v>1.29</v>
+      </c>
+      <c r="AP100">
+        <v>1.44</v>
+      </c>
+      <c r="AQ100">
+        <v>2.13</v>
+      </c>
+      <c r="AR100">
+        <v>1.71</v>
+      </c>
+      <c r="AS100">
+        <v>2</v>
+      </c>
+      <c r="AT100">
+        <v>1.63</v>
+      </c>
+      <c r="AU100">
+        <v>1.56</v>
+      </c>
+      <c r="AV100">
+        <v>1.49</v>
+      </c>
+      <c r="AW100">
+        <v>3.05</v>
+      </c>
+      <c r="AX100">
+        <v>2.24</v>
+      </c>
+      <c r="AY100">
+        <v>7.8</v>
+      </c>
+      <c r="AZ100">
+        <v>1.95</v>
+      </c>
+      <c r="BA100">
+        <v>1.24</v>
+      </c>
+      <c r="BB100">
+        <v>1.42</v>
+      </c>
+      <c r="BC100">
+        <v>1.66</v>
+      </c>
+      <c r="BD100">
+        <v>2.02</v>
+      </c>
+      <c r="BE100">
+        <v>2.73</v>
+      </c>
+      <c r="BF100">
+        <v>6</v>
+      </c>
+      <c r="BG100">
+        <v>10</v>
+      </c>
+      <c r="BH100">
+        <v>8</v>
+      </c>
+      <c r="BI100">
+        <v>10</v>
+      </c>
+      <c r="BJ100">
+        <v>14</v>
+      </c>
+      <c r="BK100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>2365274</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>44878.5</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>69</v>
+      </c>
+      <c r="H101" t="s">
+        <v>66</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>80</v>
+      </c>
+      <c r="P101" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q101">
+        <v>6</v>
+      </c>
+      <c r="R101">
+        <v>8</v>
+      </c>
+      <c r="S101">
+        <v>14</v>
+      </c>
+      <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
+        <v>2.25</v>
+      </c>
+      <c r="V101">
+        <v>3.75</v>
+      </c>
+      <c r="W101">
+        <v>1.36</v>
+      </c>
+      <c r="X101">
+        <v>3</v>
+      </c>
+      <c r="Y101">
+        <v>2.63</v>
+      </c>
+      <c r="Z101">
+        <v>1.44</v>
+      </c>
+      <c r="AA101">
+        <v>7</v>
+      </c>
+      <c r="AB101">
+        <v>1.1</v>
+      </c>
+      <c r="AC101">
+        <v>2.15</v>
+      </c>
+      <c r="AD101">
+        <v>3.5</v>
+      </c>
+      <c r="AE101">
+        <v>3.2</v>
+      </c>
+      <c r="AF101">
+        <v>1.05</v>
+      </c>
+      <c r="AG101">
+        <v>9</v>
+      </c>
+      <c r="AH101">
+        <v>1.25</v>
+      </c>
+      <c r="AI101">
+        <v>3.75</v>
+      </c>
+      <c r="AJ101">
+        <v>1.82</v>
+      </c>
+      <c r="AK101">
+        <v>1.85</v>
+      </c>
+      <c r="AL101">
+        <v>1.67</v>
+      </c>
+      <c r="AM101">
+        <v>2.1</v>
+      </c>
+      <c r="AN101">
+        <v>1.33</v>
+      </c>
+      <c r="AO101">
+        <v>1.29</v>
+      </c>
+      <c r="AP101">
+        <v>1.68</v>
+      </c>
+      <c r="AQ101">
+        <v>1.5</v>
+      </c>
+      <c r="AR101">
+        <v>1.38</v>
+      </c>
+      <c r="AS101">
+        <v>1.33</v>
+      </c>
+      <c r="AT101">
+        <v>1.56</v>
+      </c>
+      <c r="AU101">
+        <v>1.88</v>
+      </c>
+      <c r="AV101">
+        <v>1.54</v>
+      </c>
+      <c r="AW101">
+        <v>3.42</v>
+      </c>
+      <c r="AX101">
+        <v>1.72</v>
+      </c>
+      <c r="AY101">
+        <v>8</v>
+      </c>
+      <c r="AZ101">
+        <v>2.63</v>
+      </c>
+      <c r="BA101">
+        <v>1.2</v>
+      </c>
+      <c r="BB101">
+        <v>1.36</v>
+      </c>
+      <c r="BC101">
+        <v>1.67</v>
+      </c>
+      <c r="BD101">
+        <v>2.12</v>
+      </c>
+      <c r="BE101">
+        <v>2.81</v>
+      </c>
+      <c r="BF101">
+        <v>6</v>
+      </c>
+      <c r="BG101">
+        <v>10</v>
+      </c>
+      <c r="BH101">
+        <v>10</v>
+      </c>
+      <c r="BI101">
+        <v>8</v>
+      </c>
+      <c r="BJ101">
+        <v>16</v>
+      </c>
+      <c r="BK101">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>2365278</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>44878.58333333334</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>76</v>
+      </c>
+      <c r="H102" t="s">
+        <v>73</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>5</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>6</v>
+      </c>
+      <c r="O102" t="s">
+        <v>143</v>
+      </c>
+      <c r="P102" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q102">
+        <v>3</v>
+      </c>
+      <c r="R102">
+        <v>3</v>
+      </c>
+      <c r="S102">
+        <v>6</v>
+      </c>
+      <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
+        <v>2.3</v>
+      </c>
+      <c r="V102">
+        <v>4.75</v>
+      </c>
+      <c r="W102">
+        <v>1.33</v>
+      </c>
+      <c r="X102">
+        <v>3.25</v>
+      </c>
+      <c r="Y102">
+        <v>2.63</v>
+      </c>
+      <c r="Z102">
+        <v>1.44</v>
+      </c>
+      <c r="AA102">
+        <v>6.5</v>
+      </c>
+      <c r="AB102">
+        <v>1.11</v>
+      </c>
+      <c r="AC102">
+        <v>1.68</v>
+      </c>
+      <c r="AD102">
+        <v>3.8</v>
+      </c>
+      <c r="AE102">
+        <v>5.1</v>
+      </c>
+      <c r="AF102">
+        <v>1</v>
+      </c>
+      <c r="AG102">
+        <v>10.5</v>
+      </c>
+      <c r="AH102">
+        <v>1.23</v>
+      </c>
+      <c r="AI102">
+        <v>3.8</v>
+      </c>
+      <c r="AJ102">
+        <v>1.73</v>
+      </c>
+      <c r="AK102">
+        <v>2.12</v>
+      </c>
+      <c r="AL102">
+        <v>1.7</v>
+      </c>
+      <c r="AM102">
+        <v>2.05</v>
+      </c>
+      <c r="AN102">
+        <v>1.24</v>
+      </c>
+      <c r="AO102">
+        <v>1.3</v>
+      </c>
+      <c r="AP102">
+        <v>2.25</v>
+      </c>
+      <c r="AQ102">
+        <v>2.13</v>
+      </c>
+      <c r="AR102">
+        <v>0.88</v>
+      </c>
+      <c r="AS102">
+        <v>2.22</v>
+      </c>
+      <c r="AT102">
+        <v>0.78</v>
+      </c>
+      <c r="AU102">
+        <v>1.63</v>
+      </c>
+      <c r="AV102">
+        <v>1.49</v>
+      </c>
+      <c r="AW102">
+        <v>3.12</v>
+      </c>
+      <c r="AX102">
+        <v>1.31</v>
+      </c>
+      <c r="AY102">
+        <v>9.4</v>
+      </c>
+      <c r="AZ102">
+        <v>4.6</v>
+      </c>
+      <c r="BA102">
+        <v>1.18</v>
+      </c>
+      <c r="BB102">
+        <v>1.37</v>
+      </c>
+      <c r="BC102">
+        <v>1.69</v>
+      </c>
+      <c r="BD102">
+        <v>2.11</v>
+      </c>
+      <c r="BE102">
+        <v>2.75</v>
+      </c>
+      <c r="BF102">
+        <v>7</v>
+      </c>
+      <c r="BG102">
+        <v>4</v>
+      </c>
+      <c r="BH102">
+        <v>8</v>
+      </c>
+      <c r="BI102">
+        <v>3</v>
+      </c>
+      <c r="BJ102">
+        <v>15</v>
+      </c>
+      <c r="BK102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>2365277</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>44878.66666666666</v>
+      </c>
+      <c r="F103">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>72</v>
+      </c>
+      <c r="H103" t="s">
+        <v>65</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103" t="s">
+        <v>80</v>
+      </c>
+      <c r="P103" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q103">
+        <v>6</v>
+      </c>
+      <c r="R103">
+        <v>5</v>
+      </c>
+      <c r="S103">
+        <v>11</v>
+      </c>
+      <c r="T103">
+        <v>3.54</v>
+      </c>
+      <c r="U103">
+        <v>2.25</v>
+      </c>
+      <c r="V103">
+        <v>2.83</v>
+      </c>
+      <c r="W103">
+        <v>1.34</v>
+      </c>
+      <c r="X103">
+        <v>3.14</v>
+      </c>
+      <c r="Y103">
+        <v>2.54</v>
+      </c>
+      <c r="Z103">
+        <v>1.49</v>
+      </c>
+      <c r="AA103">
+        <v>6.2</v>
+      </c>
+      <c r="AB103">
+        <v>1.11</v>
+      </c>
+      <c r="AC103">
+        <v>2.75</v>
+      </c>
+      <c r="AD103">
+        <v>3.42</v>
+      </c>
+      <c r="AE103">
+        <v>2.47</v>
+      </c>
+      <c r="AF103">
+        <v>1</v>
+      </c>
+      <c r="AG103">
+        <v>10.5</v>
+      </c>
+      <c r="AH103">
+        <v>1.22</v>
+      </c>
+      <c r="AI103">
+        <v>3.9</v>
+      </c>
+      <c r="AJ103">
+        <v>1.8</v>
+      </c>
+      <c r="AK103">
+        <v>1.9</v>
+      </c>
+      <c r="AL103">
+        <v>1.62</v>
+      </c>
+      <c r="AM103">
+        <v>2.24</v>
+      </c>
+      <c r="AN103">
+        <v>1.62</v>
+      </c>
+      <c r="AO103">
+        <v>1.29</v>
+      </c>
+      <c r="AP103">
+        <v>1.4</v>
+      </c>
+      <c r="AQ103">
+        <v>1.63</v>
+      </c>
+      <c r="AR103">
+        <v>1.86</v>
+      </c>
+      <c r="AS103">
+        <v>1.56</v>
+      </c>
+      <c r="AT103">
+        <v>1.75</v>
+      </c>
+      <c r="AU103">
+        <v>1.85</v>
+      </c>
+      <c r="AV103">
+        <v>1.48</v>
+      </c>
+      <c r="AW103">
+        <v>3.33</v>
+      </c>
+      <c r="AX103">
+        <v>2.21</v>
+      </c>
+      <c r="AY103">
+        <v>7.7</v>
+      </c>
+      <c r="AZ103">
+        <v>1.98</v>
+      </c>
+      <c r="BA103">
+        <v>1.22</v>
+      </c>
+      <c r="BB103">
+        <v>1.43</v>
+      </c>
+      <c r="BC103">
+        <v>1.79</v>
+      </c>
+      <c r="BD103">
+        <v>2.26</v>
+      </c>
+      <c r="BE103">
+        <v>3.04</v>
+      </c>
+      <c r="BF103">
+        <v>3</v>
+      </c>
+      <c r="BG103">
+        <v>3</v>
+      </c>
+      <c r="BH103">
+        <v>2</v>
+      </c>
+      <c r="BI103">
+        <v>1</v>
+      </c>
+      <c r="BJ103">
+        <v>5</v>
+      </c>
+      <c r="BK103">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -641,6 +641,9 @@
   </si>
   <si>
     <t>['24', '64']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK103"/>
+  <dimension ref="A1:BK104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2100,7 +2103,7 @@
         <v>1.33</v>
       </c>
       <c r="AT6">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -3243,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT12">
         <v>1.44</v>
@@ -4007,7 +4010,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT16">
         <v>0.5</v>
@@ -5538,7 +5541,7 @@
         <v>1.22</v>
       </c>
       <c r="AT24">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU24">
         <v>1.32</v>
@@ -6490,7 +6493,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT29">
         <v>1.88</v>
@@ -7257,7 +7260,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU33">
         <v>2.14</v>
@@ -7827,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT36">
         <v>1.13</v>
@@ -8212,7 +8215,7 @@
         <v>2</v>
       </c>
       <c r="AT38">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU38">
         <v>2.08</v>
@@ -10692,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT51">
         <v>0.5600000000000001</v>
@@ -11268,7 +11271,7 @@
         <v>1.63</v>
       </c>
       <c r="AT54">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU54">
         <v>2.02</v>
@@ -12793,7 +12796,7 @@
         <v>1.75</v>
       </c>
       <c r="AS62">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT62">
         <v>1.63</v>
@@ -13560,7 +13563,7 @@
         <v>1.75</v>
       </c>
       <c r="AT66">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU66">
         <v>2.29</v>
@@ -15661,7 +15664,7 @@
         <v>2.22</v>
       </c>
       <c r="AT77">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU77">
         <v>1.54</v>
@@ -17186,7 +17189,7 @@
         <v>0.83</v>
       </c>
       <c r="AS85">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT85">
         <v>1.56</v>
@@ -17762,7 +17765,7 @@
         <v>0.38</v>
       </c>
       <c r="AT88">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU88">
         <v>1.67</v>
@@ -18714,7 +18717,7 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT93">
         <v>1.22</v>
@@ -18908,7 +18911,7 @@
         <v>2.25</v>
       </c>
       <c r="AT94">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU94">
         <v>1.91</v>
@@ -20679,6 +20682,197 @@
       </c>
       <c r="BK103">
         <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>2365281</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>44974.625</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>73</v>
+      </c>
+      <c r="H104" t="s">
+        <v>71</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104" t="s">
+        <v>80</v>
+      </c>
+      <c r="P104" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q104">
+        <v>7</v>
+      </c>
+      <c r="R104">
+        <v>5</v>
+      </c>
+      <c r="S104">
+        <v>12</v>
+      </c>
+      <c r="T104">
+        <v>3.6</v>
+      </c>
+      <c r="U104">
+        <v>2.05</v>
+      </c>
+      <c r="V104">
+        <v>3.1</v>
+      </c>
+      <c r="W104">
+        <v>1.44</v>
+      </c>
+      <c r="X104">
+        <v>2.63</v>
+      </c>
+      <c r="Y104">
+        <v>3.25</v>
+      </c>
+      <c r="Z104">
+        <v>1.33</v>
+      </c>
+      <c r="AA104">
+        <v>9</v>
+      </c>
+      <c r="AB104">
+        <v>1.07</v>
+      </c>
+      <c r="AC104">
+        <v>2.94</v>
+      </c>
+      <c r="AD104">
+        <v>3.32</v>
+      </c>
+      <c r="AE104">
+        <v>2.4</v>
+      </c>
+      <c r="AF104">
+        <v>1.05</v>
+      </c>
+      <c r="AG104">
+        <v>7.5</v>
+      </c>
+      <c r="AH104">
+        <v>1.32</v>
+      </c>
+      <c r="AI104">
+        <v>3.1</v>
+      </c>
+      <c r="AJ104">
+        <v>2.05</v>
+      </c>
+      <c r="AK104">
+        <v>1.67</v>
+      </c>
+      <c r="AL104">
+        <v>1.91</v>
+      </c>
+      <c r="AM104">
+        <v>1.91</v>
+      </c>
+      <c r="AN104">
+        <v>1.45</v>
+      </c>
+      <c r="AO104">
+        <v>1.35</v>
+      </c>
+      <c r="AP104">
+        <v>1.37</v>
+      </c>
+      <c r="AQ104">
+        <v>0.88</v>
+      </c>
+      <c r="AR104">
+        <v>1.22</v>
+      </c>
+      <c r="AS104">
+        <v>0.78</v>
+      </c>
+      <c r="AT104">
+        <v>1.4</v>
+      </c>
+      <c r="AU104">
+        <v>1.42</v>
+      </c>
+      <c r="AV104">
+        <v>1.52</v>
+      </c>
+      <c r="AW104">
+        <v>2.94</v>
+      </c>
+      <c r="AX104">
+        <v>2</v>
+      </c>
+      <c r="AY104">
+        <v>7</v>
+      </c>
+      <c r="AZ104">
+        <v>2.2</v>
+      </c>
+      <c r="BA104">
+        <v>1.36</v>
+      </c>
+      <c r="BB104">
+        <v>1.66</v>
+      </c>
+      <c r="BC104">
+        <v>2.12</v>
+      </c>
+      <c r="BD104">
+        <v>2.9</v>
+      </c>
+      <c r="BE104">
+        <v>4.1</v>
+      </c>
+      <c r="BF104">
+        <v>2</v>
+      </c>
+      <c r="BG104">
+        <v>5</v>
+      </c>
+      <c r="BH104">
+        <v>0</v>
+      </c>
+      <c r="BI104">
+        <v>5</v>
+      </c>
+      <c r="BJ104">
+        <v>2</v>
+      </c>
+      <c r="BK104">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="216">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,12 @@
     <t>['45+1', '46', '69', '83', '90']</t>
   </si>
   <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['31', '54', '56', '75', '83']</t>
+  </si>
+  <si>
     <t>['60']</t>
   </si>
   <si>
@@ -644,6 +650,18 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['14', '51', '53']</t>
+  </si>
+  <si>
+    <t>['40', '45']</t>
+  </si>
+  <si>
+    <t>['5', '48', '67', '69']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK104"/>
+  <dimension ref="A1:BK109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1267,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -1339,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="AT2">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1440,7 +1458,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1527,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>0.78</v>
@@ -1631,7 +1649,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1718,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT4">
         <v>1.22</v>
@@ -1912,7 +1930,7 @@
         <v>1.75</v>
       </c>
       <c r="AT5">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2100,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
         <v>1.4</v>
@@ -2204,7 +2222,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2291,10 +2309,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT7">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2395,7 +2413,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2586,7 +2604,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2777,7 +2795,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -2968,7 +2986,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3055,10 +3073,10 @@
         <v>3</v>
       </c>
       <c r="AS11">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT11">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU11">
         <v>2.05</v>
@@ -3159,7 +3177,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3249,7 +3267,7 @@
         <v>0.78</v>
       </c>
       <c r="AT12">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3541,7 +3559,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3628,10 +3646,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT14">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU14">
         <v>1.59</v>
@@ -3822,7 +3840,7 @@
         <v>1.38</v>
       </c>
       <c r="AT15">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU15">
         <v>1.41</v>
@@ -4013,7 +4031,7 @@
         <v>0.78</v>
       </c>
       <c r="AT16">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU16">
         <v>1.33</v>
@@ -4114,7 +4132,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4201,10 +4219,10 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT17">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU17">
         <v>2.27</v>
@@ -4392,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT18">
         <v>1.13</v>
@@ -4496,7 +4514,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4777,7 +4795,7 @@
         <v>1.56</v>
       </c>
       <c r="AT20">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU20">
         <v>2.93</v>
@@ -4878,7 +4896,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -4965,10 +4983,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT21">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU21">
         <v>1.24</v>
@@ -5260,7 +5278,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -5451,7 +5469,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5538,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT24">
         <v>1.4</v>
@@ -5642,7 +5660,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5729,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT25">
         <v>0.78</v>
@@ -5833,7 +5851,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5923,7 +5941,7 @@
         <v>2</v>
       </c>
       <c r="AT26">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU26">
         <v>1.23</v>
@@ -6024,7 +6042,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6114,7 +6132,7 @@
         <v>1.75</v>
       </c>
       <c r="AT27">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU27">
         <v>2.44</v>
@@ -6302,7 +6320,7 @@
         <v>2</v>
       </c>
       <c r="AS28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT28">
         <v>1.22</v>
@@ -6496,7 +6514,7 @@
         <v>0.78</v>
       </c>
       <c r="AT29">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU29">
         <v>1.87</v>
@@ -6684,7 +6702,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT30">
         <v>1.63</v>
@@ -6979,7 +6997,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7066,10 +7084,10 @@
         <v>1.5</v>
       </c>
       <c r="AS32">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT32">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU32">
         <v>1.21</v>
@@ -7170,7 +7188,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>13</v>
@@ -7361,7 +7379,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7743,7 +7761,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8021,10 +8039,10 @@
         <v>1.33</v>
       </c>
       <c r="AS37">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT37">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU37">
         <v>1.42</v>
@@ -8594,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT40">
         <v>0.5600000000000001</v>
@@ -8698,7 +8716,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8788,7 +8806,7 @@
         <v>2.22</v>
       </c>
       <c r="AT41">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU41">
         <v>1.29</v>
@@ -8889,7 +8907,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -8976,7 +8994,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT42">
         <v>1.63</v>
@@ -9080,7 +9098,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9167,10 +9185,10 @@
         <v>1.67</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU43">
         <v>1.77</v>
@@ -9462,7 +9480,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9549,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT45">
         <v>1.56</v>
@@ -9653,7 +9671,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>10</v>
@@ -9740,10 +9758,10 @@
         <v>1.67</v>
       </c>
       <c r="AS46">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT46">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU46">
         <v>1.24</v>
@@ -9844,7 +9862,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10035,7 +10053,7 @@
         <v>80</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10226,7 +10244,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10316,7 +10334,7 @@
         <v>1.38</v>
       </c>
       <c r="AT49">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU49">
         <v>1.52</v>
@@ -10504,10 +10522,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT50">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU50">
         <v>1.51</v>
@@ -10608,7 +10626,7 @@
         <v>98</v>
       </c>
       <c r="P51" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10799,7 +10817,7 @@
         <v>112</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -10889,7 +10907,7 @@
         <v>2.22</v>
       </c>
       <c r="AT52">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU52">
         <v>1.4</v>
@@ -10990,7 +11008,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11077,10 +11095,10 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT53">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU53">
         <v>1.68</v>
@@ -11268,7 +11286,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT54">
         <v>1.4</v>
@@ -11372,7 +11390,7 @@
         <v>115</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11459,10 +11477,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT55">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU55">
         <v>1.74</v>
@@ -11653,7 +11671,7 @@
         <v>2</v>
       </c>
       <c r="AT56">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU56">
         <v>1.7</v>
@@ -11754,7 +11772,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11945,7 +11963,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12032,7 +12050,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT58">
         <v>1.63</v>
@@ -12136,7 +12154,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12414,7 +12432,7 @@
         <v>0.75</v>
       </c>
       <c r="AS60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>1.13</v>
@@ -12608,7 +12626,7 @@
         <v>1</v>
       </c>
       <c r="AT61">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU61">
         <v>2.16</v>
@@ -12709,7 +12727,7 @@
         <v>112</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -12900,7 +12918,7 @@
         <v>120</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -12987,10 +13005,10 @@
         <v>0.8</v>
       </c>
       <c r="AS63">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT63">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU63">
         <v>1.84</v>
@@ -13091,7 +13109,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13282,7 +13300,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13369,7 +13387,7 @@
         <v>0.2</v>
       </c>
       <c r="AS65">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT65">
         <v>0.5600000000000001</v>
@@ -13664,7 +13682,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13754,7 +13772,7 @@
         <v>2.22</v>
       </c>
       <c r="AT67">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU67">
         <v>1.44</v>
@@ -13855,7 +13873,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -13942,7 +13960,7 @@
         <v>0.8</v>
       </c>
       <c r="AS68">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT68">
         <v>1.56</v>
@@ -14046,7 +14064,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14136,7 +14154,7 @@
         <v>1.75</v>
       </c>
       <c r="AT69">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU69">
         <v>2.16</v>
@@ -14237,7 +14255,7 @@
         <v>80</v>
       </c>
       <c r="P70" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14327,7 +14345,7 @@
         <v>1.38</v>
       </c>
       <c r="AT70">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU70">
         <v>1.7</v>
@@ -14515,7 +14533,7 @@
         <v>1.17</v>
       </c>
       <c r="AS71">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT71">
         <v>1.22</v>
@@ -14619,7 +14637,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15001,7 +15019,7 @@
         <v>80</v>
       </c>
       <c r="P74" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15088,7 +15106,7 @@
         <v>0.67</v>
       </c>
       <c r="AS74">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT74">
         <v>0.78</v>
@@ -15279,7 +15297,7 @@
         <v>1.6</v>
       </c>
       <c r="AS75">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT75">
         <v>1.63</v>
@@ -15383,7 +15401,7 @@
         <v>129</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15470,10 +15488,10 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT76">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU76">
         <v>1.96</v>
@@ -15574,7 +15592,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15855,7 +15873,7 @@
         <v>1</v>
       </c>
       <c r="AT78">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU78">
         <v>2.05</v>
@@ -15956,7 +15974,7 @@
         <v>132</v>
       </c>
       <c r="P79" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16043,10 +16061,10 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT79">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU79">
         <v>1.78</v>
@@ -16147,7 +16165,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16234,7 +16252,7 @@
         <v>0.33</v>
       </c>
       <c r="AS80">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT80">
         <v>0.5600000000000001</v>
@@ -16338,7 +16356,7 @@
         <v>114</v>
       </c>
       <c r="P81" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16428,7 +16446,7 @@
         <v>1.75</v>
       </c>
       <c r="AT81">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU81">
         <v>2.08</v>
@@ -16529,7 +16547,7 @@
         <v>80</v>
       </c>
       <c r="P82" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16619,7 +16637,7 @@
         <v>1.56</v>
       </c>
       <c r="AT82">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU82">
         <v>1.81</v>
@@ -16720,7 +16738,7 @@
         <v>134</v>
       </c>
       <c r="P83" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17102,7 +17120,7 @@
         <v>112</v>
       </c>
       <c r="P85" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17383,7 +17401,7 @@
         <v>2.22</v>
       </c>
       <c r="AT86">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU86">
         <v>1.54</v>
@@ -17484,7 +17502,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17574,7 +17592,7 @@
         <v>1.56</v>
       </c>
       <c r="AT87">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU87">
         <v>1.85</v>
@@ -17675,7 +17693,7 @@
         <v>80</v>
       </c>
       <c r="P88" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17762,7 +17780,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT88">
         <v>1.4</v>
@@ -17866,7 +17884,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17953,7 +17971,7 @@
         <v>1.14</v>
       </c>
       <c r="AS89">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT89">
         <v>1.56</v>
@@ -18057,7 +18075,7 @@
         <v>137</v>
       </c>
       <c r="P90" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18144,7 +18162,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT90">
         <v>0.78</v>
@@ -18248,7 +18266,7 @@
         <v>138</v>
       </c>
       <c r="P91" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18439,7 +18457,7 @@
         <v>139</v>
       </c>
       <c r="P92" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>8</v>
@@ -18529,7 +18547,7 @@
         <v>2</v>
       </c>
       <c r="AT92">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU92">
         <v>1.47</v>
@@ -18630,7 +18648,7 @@
         <v>140</v>
       </c>
       <c r="P93" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18908,7 +18926,7 @@
         <v>1.25</v>
       </c>
       <c r="AS94">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT94">
         <v>1.4</v>
@@ -19203,7 +19221,7 @@
         <v>126</v>
       </c>
       <c r="P96" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19290,7 +19308,7 @@
         <v>1.14</v>
       </c>
       <c r="AS96">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT96">
         <v>1.13</v>
@@ -19484,7 +19502,7 @@
         <v>1</v>
       </c>
       <c r="AT97">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU97">
         <v>2.09</v>
@@ -19585,7 +19603,7 @@
         <v>80</v>
       </c>
       <c r="P98" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19672,7 +19690,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT98">
         <v>0.5600000000000001</v>
@@ -19776,7 +19794,7 @@
         <v>80</v>
       </c>
       <c r="P99" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19866,7 +19884,7 @@
         <v>1.38</v>
       </c>
       <c r="AT99">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU99">
         <v>1.58</v>
@@ -19967,7 +19985,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20158,7 +20176,7 @@
         <v>80</v>
       </c>
       <c r="P101" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20245,7 +20263,7 @@
         <v>1.38</v>
       </c>
       <c r="AS101">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT101">
         <v>1.56</v>
@@ -20349,7 +20367,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20630,7 +20648,7 @@
         <v>1.56</v>
       </c>
       <c r="AT103">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU103">
         <v>1.85</v>
@@ -20731,7 +20749,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -20873,6 +20891,961 @@
       </c>
       <c r="BK104">
         <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>2365282</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>44976.41666666666</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>70</v>
+      </c>
+      <c r="H105" t="s">
+        <v>72</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105" t="s">
+        <v>80</v>
+      </c>
+      <c r="P105" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q105">
+        <v>4</v>
+      </c>
+      <c r="R105">
+        <v>4</v>
+      </c>
+      <c r="S105">
+        <v>8</v>
+      </c>
+      <c r="T105">
+        <v>2.88</v>
+      </c>
+      <c r="U105">
+        <v>2.25</v>
+      </c>
+      <c r="V105">
+        <v>3.5</v>
+      </c>
+      <c r="W105">
+        <v>1.36</v>
+      </c>
+      <c r="X105">
+        <v>3</v>
+      </c>
+      <c r="Y105">
+        <v>2.63</v>
+      </c>
+      <c r="Z105">
+        <v>1.44</v>
+      </c>
+      <c r="AA105">
+        <v>7</v>
+      </c>
+      <c r="AB105">
+        <v>1.1</v>
+      </c>
+      <c r="AC105">
+        <v>2.25</v>
+      </c>
+      <c r="AD105">
+        <v>3.3</v>
+      </c>
+      <c r="AE105">
+        <v>2.9</v>
+      </c>
+      <c r="AF105">
+        <v>1.01</v>
+      </c>
+      <c r="AG105">
+        <v>10</v>
+      </c>
+      <c r="AH105">
+        <v>1.23</v>
+      </c>
+      <c r="AI105">
+        <v>3.64</v>
+      </c>
+      <c r="AJ105">
+        <v>1.67</v>
+      </c>
+      <c r="AK105">
+        <v>2</v>
+      </c>
+      <c r="AL105">
+        <v>1.62</v>
+      </c>
+      <c r="AM105">
+        <v>2.2</v>
+      </c>
+      <c r="AN105">
+        <v>1.37</v>
+      </c>
+      <c r="AO105">
+        <v>1.35</v>
+      </c>
+      <c r="AP105">
+        <v>1.61</v>
+      </c>
+      <c r="AQ105">
+        <v>1.22</v>
+      </c>
+      <c r="AR105">
+        <v>1.25</v>
+      </c>
+      <c r="AS105">
+        <v>1.2</v>
+      </c>
+      <c r="AT105">
+        <v>1.22</v>
+      </c>
+      <c r="AU105">
+        <v>1.44</v>
+      </c>
+      <c r="AV105">
+        <v>1.47</v>
+      </c>
+      <c r="AW105">
+        <v>2.91</v>
+      </c>
+      <c r="AX105">
+        <v>2.08</v>
+      </c>
+      <c r="AY105">
+        <v>7</v>
+      </c>
+      <c r="AZ105">
+        <v>2.08</v>
+      </c>
+      <c r="BA105">
+        <v>1.18</v>
+      </c>
+      <c r="BB105">
+        <v>1.35</v>
+      </c>
+      <c r="BC105">
+        <v>1.63</v>
+      </c>
+      <c r="BD105">
+        <v>2.1</v>
+      </c>
+      <c r="BE105">
+        <v>2.8</v>
+      </c>
+      <c r="BF105">
+        <v>3</v>
+      </c>
+      <c r="BG105">
+        <v>2</v>
+      </c>
+      <c r="BH105">
+        <v>2</v>
+      </c>
+      <c r="BI105">
+        <v>3</v>
+      </c>
+      <c r="BJ105">
+        <v>5</v>
+      </c>
+      <c r="BK105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>2365283</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>44976.41666666666</v>
+      </c>
+      <c r="F106">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>67</v>
+      </c>
+      <c r="H106" t="s">
+        <v>76</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>144</v>
+      </c>
+      <c r="P106" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q106">
+        <v>4</v>
+      </c>
+      <c r="R106">
+        <v>8</v>
+      </c>
+      <c r="S106">
+        <v>12</v>
+      </c>
+      <c r="T106">
+        <v>5</v>
+      </c>
+      <c r="U106">
+        <v>2.3</v>
+      </c>
+      <c r="V106">
+        <v>2.3</v>
+      </c>
+      <c r="W106">
+        <v>1.33</v>
+      </c>
+      <c r="X106">
+        <v>3.25</v>
+      </c>
+      <c r="Y106">
+        <v>2.63</v>
+      </c>
+      <c r="Z106">
+        <v>1.44</v>
+      </c>
+      <c r="AA106">
+        <v>7</v>
+      </c>
+      <c r="AB106">
+        <v>1.1</v>
+      </c>
+      <c r="AC106">
+        <v>4.6</v>
+      </c>
+      <c r="AD106">
+        <v>3.6</v>
+      </c>
+      <c r="AE106">
+        <v>1.7</v>
+      </c>
+      <c r="AF106">
+        <v>1.03</v>
+      </c>
+      <c r="AG106">
+        <v>12.5</v>
+      </c>
+      <c r="AH106">
+        <v>1.25</v>
+      </c>
+      <c r="AI106">
+        <v>3.95</v>
+      </c>
+      <c r="AJ106">
+        <v>1.75</v>
+      </c>
+      <c r="AK106">
+        <v>1.91</v>
+      </c>
+      <c r="AL106">
+        <v>1.75</v>
+      </c>
+      <c r="AM106">
+        <v>2</v>
+      </c>
+      <c r="AN106">
+        <v>2.15</v>
+      </c>
+      <c r="AO106">
+        <v>1.22</v>
+      </c>
+      <c r="AP106">
+        <v>1.19</v>
+      </c>
+      <c r="AQ106">
+        <v>0.38</v>
+      </c>
+      <c r="AR106">
+        <v>1.88</v>
+      </c>
+      <c r="AS106">
+        <v>0.44</v>
+      </c>
+      <c r="AT106">
+        <v>1.78</v>
+      </c>
+      <c r="AU106">
+        <v>1.61</v>
+      </c>
+      <c r="AV106">
+        <v>1.66</v>
+      </c>
+      <c r="AW106">
+        <v>3.27</v>
+      </c>
+      <c r="AX106">
+        <v>2.75</v>
+      </c>
+      <c r="AY106">
+        <v>7.5</v>
+      </c>
+      <c r="AZ106">
+        <v>1.67</v>
+      </c>
+      <c r="BA106">
+        <v>1.24</v>
+      </c>
+      <c r="BB106">
+        <v>1.46</v>
+      </c>
+      <c r="BC106">
+        <v>1.95</v>
+      </c>
+      <c r="BD106">
+        <v>2.4</v>
+      </c>
+      <c r="BE106">
+        <v>3.3</v>
+      </c>
+      <c r="BF106">
+        <v>4</v>
+      </c>
+      <c r="BG106">
+        <v>4</v>
+      </c>
+      <c r="BH106">
+        <v>5</v>
+      </c>
+      <c r="BI106">
+        <v>8</v>
+      </c>
+      <c r="BJ106">
+        <v>9</v>
+      </c>
+      <c r="BK106">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>2365285</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>44976.5</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>75</v>
+      </c>
+      <c r="H107" t="s">
+        <v>68</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>3</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>80</v>
+      </c>
+      <c r="P107" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q107">
+        <v>6</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>8</v>
+      </c>
+      <c r="T107">
+        <v>3.75</v>
+      </c>
+      <c r="U107">
+        <v>2.2</v>
+      </c>
+      <c r="V107">
+        <v>2.75</v>
+      </c>
+      <c r="W107">
+        <v>1.36</v>
+      </c>
+      <c r="X107">
+        <v>3</v>
+      </c>
+      <c r="Y107">
+        <v>2.75</v>
+      </c>
+      <c r="Z107">
+        <v>1.4</v>
+      </c>
+      <c r="AA107">
+        <v>7</v>
+      </c>
+      <c r="AB107">
+        <v>1.1</v>
+      </c>
+      <c r="AC107">
+        <v>3.74</v>
+      </c>
+      <c r="AD107">
+        <v>3.74</v>
+      </c>
+      <c r="AE107">
+        <v>2.07</v>
+      </c>
+      <c r="AF107">
+        <v>1.05</v>
+      </c>
+      <c r="AG107">
+        <v>12.5</v>
+      </c>
+      <c r="AH107">
+        <v>1.27</v>
+      </c>
+      <c r="AI107">
+        <v>3.85</v>
+      </c>
+      <c r="AJ107">
+        <v>1.75</v>
+      </c>
+      <c r="AK107">
+        <v>1.91</v>
+      </c>
+      <c r="AL107">
+        <v>1.67</v>
+      </c>
+      <c r="AM107">
+        <v>2.1</v>
+      </c>
+      <c r="AN107">
+        <v>1.72</v>
+      </c>
+      <c r="AO107">
+        <v>1.29</v>
+      </c>
+      <c r="AP107">
+        <v>1.3</v>
+      </c>
+      <c r="AQ107">
+        <v>1.63</v>
+      </c>
+      <c r="AR107">
+        <v>1.44</v>
+      </c>
+      <c r="AS107">
+        <v>1.44</v>
+      </c>
+      <c r="AT107">
+        <v>1.6</v>
+      </c>
+      <c r="AU107">
+        <v>1.69</v>
+      </c>
+      <c r="AV107">
+        <v>1.72</v>
+      </c>
+      <c r="AW107">
+        <v>3.41</v>
+      </c>
+      <c r="AX107">
+        <v>2.32</v>
+      </c>
+      <c r="AY107">
+        <v>7</v>
+      </c>
+      <c r="AZ107">
+        <v>1.91</v>
+      </c>
+      <c r="BA107">
+        <v>1.26</v>
+      </c>
+      <c r="BB107">
+        <v>1.5</v>
+      </c>
+      <c r="BC107">
+        <v>1.98</v>
+      </c>
+      <c r="BD107">
+        <v>2.5</v>
+      </c>
+      <c r="BE107">
+        <v>3.5</v>
+      </c>
+      <c r="BF107">
+        <v>6</v>
+      </c>
+      <c r="BG107">
+        <v>8</v>
+      </c>
+      <c r="BH107">
+        <v>2</v>
+      </c>
+      <c r="BI107">
+        <v>1</v>
+      </c>
+      <c r="BJ107">
+        <v>8</v>
+      </c>
+      <c r="BK107">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>2365280</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>44976.58333333334</v>
+      </c>
+      <c r="F108">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s">
+        <v>69</v>
+      </c>
+      <c r="H108" t="s">
+        <v>74</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>2</v>
+      </c>
+      <c r="K108">
+        <v>3</v>
+      </c>
+      <c r="L108">
+        <v>5</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>7</v>
+      </c>
+      <c r="O108" t="s">
+        <v>145</v>
+      </c>
+      <c r="P108" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q108">
+        <v>6</v>
+      </c>
+      <c r="R108">
+        <v>4</v>
+      </c>
+      <c r="S108">
+        <v>10</v>
+      </c>
+      <c r="T108">
+        <v>2.2</v>
+      </c>
+      <c r="U108">
+        <v>2.25</v>
+      </c>
+      <c r="V108">
+        <v>5</v>
+      </c>
+      <c r="W108">
+        <v>1.36</v>
+      </c>
+      <c r="X108">
+        <v>3</v>
+      </c>
+      <c r="Y108">
+        <v>2.63</v>
+      </c>
+      <c r="Z108">
+        <v>1.44</v>
+      </c>
+      <c r="AA108">
+        <v>7</v>
+      </c>
+      <c r="AB108">
+        <v>1.1</v>
+      </c>
+      <c r="AC108">
+        <v>1.69</v>
+      </c>
+      <c r="AD108">
+        <v>3.6</v>
+      </c>
+      <c r="AE108">
+        <v>4.35</v>
+      </c>
+      <c r="AF108">
+        <v>1.03</v>
+      </c>
+      <c r="AG108">
+        <v>11.5</v>
+      </c>
+      <c r="AH108">
+        <v>1.25</v>
+      </c>
+      <c r="AI108">
+        <v>3.95</v>
+      </c>
+      <c r="AJ108">
+        <v>1.85</v>
+      </c>
+      <c r="AK108">
+        <v>2</v>
+      </c>
+      <c r="AL108">
+        <v>1.8</v>
+      </c>
+      <c r="AM108">
+        <v>1.95</v>
+      </c>
+      <c r="AN108">
+        <v>1.17</v>
+      </c>
+      <c r="AO108">
+        <v>1.26</v>
+      </c>
+      <c r="AP108">
+        <v>2.1</v>
+      </c>
+      <c r="AQ108">
+        <v>1.33</v>
+      </c>
+      <c r="AR108">
+        <v>0.5</v>
+      </c>
+      <c r="AS108">
+        <v>1.5</v>
+      </c>
+      <c r="AT108">
+        <v>0.44</v>
+      </c>
+      <c r="AU108">
+        <v>1.88</v>
+      </c>
+      <c r="AV108">
+        <v>1.29</v>
+      </c>
+      <c r="AW108">
+        <v>3.17</v>
+      </c>
+      <c r="AX108">
+        <v>1.32</v>
+      </c>
+      <c r="AY108">
+        <v>8.5</v>
+      </c>
+      <c r="AZ108">
+        <v>4.35</v>
+      </c>
+      <c r="BA108">
+        <v>1.26</v>
+      </c>
+      <c r="BB108">
+        <v>1.35</v>
+      </c>
+      <c r="BC108">
+        <v>1.61</v>
+      </c>
+      <c r="BD108">
+        <v>2.05</v>
+      </c>
+      <c r="BE108">
+        <v>2.75</v>
+      </c>
+      <c r="BF108">
+        <v>11</v>
+      </c>
+      <c r="BG108">
+        <v>4</v>
+      </c>
+      <c r="BH108">
+        <v>4</v>
+      </c>
+      <c r="BI108">
+        <v>5</v>
+      </c>
+      <c r="BJ108">
+        <v>15</v>
+      </c>
+      <c r="BK108">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>2365284</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>44977.625</v>
+      </c>
+      <c r="F109">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s">
+        <v>66</v>
+      </c>
+      <c r="H109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>80</v>
+      </c>
+      <c r="P109" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q109">
+        <v>6</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <v>7</v>
+      </c>
+      <c r="T109">
+        <v>3.1</v>
+      </c>
+      <c r="U109">
+        <v>2.1</v>
+      </c>
+      <c r="V109">
+        <v>3.6</v>
+      </c>
+      <c r="W109">
+        <v>1.4</v>
+      </c>
+      <c r="X109">
+        <v>2.75</v>
+      </c>
+      <c r="Y109">
+        <v>3</v>
+      </c>
+      <c r="Z109">
+        <v>1.36</v>
+      </c>
+      <c r="AA109">
+        <v>9</v>
+      </c>
+      <c r="AB109">
+        <v>1.07</v>
+      </c>
+      <c r="AC109">
+        <v>2.35</v>
+      </c>
+      <c r="AD109">
+        <v>3.45</v>
+      </c>
+      <c r="AE109">
+        <v>2.95</v>
+      </c>
+      <c r="AF109">
+        <v>1.06</v>
+      </c>
+      <c r="AG109">
+        <v>9.35</v>
+      </c>
+      <c r="AH109">
+        <v>1.33</v>
+      </c>
+      <c r="AI109">
+        <v>3.3</v>
+      </c>
+      <c r="AJ109">
+        <v>1.9</v>
+      </c>
+      <c r="AK109">
+        <v>1.9</v>
+      </c>
+      <c r="AL109">
+        <v>1.8</v>
+      </c>
+      <c r="AM109">
+        <v>1.95</v>
+      </c>
+      <c r="AN109">
+        <v>1.38</v>
+      </c>
+      <c r="AO109">
+        <v>1.33</v>
+      </c>
+      <c r="AP109">
+        <v>1.53</v>
+      </c>
+      <c r="AQ109">
+        <v>2.25</v>
+      </c>
+      <c r="AR109">
+        <v>1.75</v>
+      </c>
+      <c r="AS109">
+        <v>2</v>
+      </c>
+      <c r="AT109">
+        <v>1.89</v>
+      </c>
+      <c r="AU109">
+        <v>1.94</v>
+      </c>
+      <c r="AV109">
+        <v>1.37</v>
+      </c>
+      <c r="AW109">
+        <v>3.31</v>
+      </c>
+      <c r="AX109">
+        <v>1.87</v>
+      </c>
+      <c r="AY109">
+        <v>7.7</v>
+      </c>
+      <c r="AZ109">
+        <v>2.41</v>
+      </c>
+      <c r="BA109">
+        <v>1.22</v>
+      </c>
+      <c r="BB109">
+        <v>1.44</v>
+      </c>
+      <c r="BC109">
+        <v>1.81</v>
+      </c>
+      <c r="BD109">
+        <v>2.28</v>
+      </c>
+      <c r="BE109">
+        <v>3.04</v>
+      </c>
+      <c r="BF109">
+        <v>2</v>
+      </c>
+      <c r="BG109">
+        <v>10</v>
+      </c>
+      <c r="BH109">
+        <v>2</v>
+      </c>
+      <c r="BI109">
+        <v>5</v>
+      </c>
+      <c r="BJ109">
+        <v>4</v>
+      </c>
+      <c r="BK109">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,9 @@
     <t>['31', '54', '56', '75', '83']</t>
   </si>
   <si>
+    <t>['28', '63', '72', '80']</t>
+  </si>
+  <si>
     <t>['60']</t>
   </si>
   <si>
@@ -662,6 +665,9 @@
   </si>
   <si>
     <t>['5', '48', '67', '69']</t>
+  </si>
+  <si>
+    <t>['42', '86']</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK109"/>
+  <dimension ref="A1:BK110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1267,7 +1273,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -1458,7 +1464,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1649,7 +1655,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2222,7 +2228,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2413,7 +2419,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2604,7 +2610,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2795,7 +2801,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -2885,7 +2891,7 @@
         <v>1.56</v>
       </c>
       <c r="AT10">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2986,7 +2992,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3177,7 +3183,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3559,7 +3565,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4132,7 +4138,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4514,7 +4520,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4601,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT19">
         <v>0.5600000000000001</v>
@@ -4896,7 +4902,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5174,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT22">
         <v>1.56</v>
@@ -5278,7 +5284,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -5469,7 +5475,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5660,7 +5666,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5851,7 +5857,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6042,7 +6048,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6705,7 +6711,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU30">
         <v>1.9</v>
@@ -6997,7 +7003,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7188,7 +7194,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>13</v>
@@ -7379,7 +7385,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7466,7 +7472,7 @@
         <v>1.33</v>
       </c>
       <c r="AS34">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT34">
         <v>1.22</v>
@@ -7761,7 +7767,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8716,7 +8722,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8803,7 +8809,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT41">
         <v>1.6</v>
@@ -8907,7 +8913,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -8997,7 +9003,7 @@
         <v>1.44</v>
       </c>
       <c r="AT42">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU42">
         <v>2.09</v>
@@ -9098,7 +9104,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9480,7 +9486,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9671,7 +9677,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>10</v>
@@ -9862,7 +9868,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10053,7 +10059,7 @@
         <v>80</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10244,7 +10250,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10626,7 +10632,7 @@
         <v>98</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10817,7 +10823,7 @@
         <v>112</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -10904,7 +10910,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT52">
         <v>1.89</v>
@@ -11008,7 +11014,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11390,7 +11396,7 @@
         <v>115</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11772,7 +11778,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11963,7 +11969,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12053,7 +12059,7 @@
         <v>0.44</v>
       </c>
       <c r="AT58">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU58">
         <v>1.45</v>
@@ -12154,7 +12160,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12727,7 +12733,7 @@
         <v>112</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -12817,7 +12823,7 @@
         <v>0.78</v>
       </c>
       <c r="AT62">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU62">
         <v>1.5</v>
@@ -12918,7 +12924,7 @@
         <v>120</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13109,7 +13115,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13300,7 +13306,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13682,7 +13688,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13769,7 +13775,7 @@
         <v>1.8</v>
       </c>
       <c r="AS67">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT67">
         <v>1.22</v>
@@ -13873,7 +13879,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14064,7 +14070,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14255,7 +14261,7 @@
         <v>80</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14637,7 +14643,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15019,7 +15025,7 @@
         <v>80</v>
       </c>
       <c r="P74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15300,7 +15306,7 @@
         <v>2</v>
       </c>
       <c r="AT75">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU75">
         <v>1.92</v>
@@ -15401,7 +15407,7 @@
         <v>129</v>
       </c>
       <c r="P76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15592,7 +15598,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15679,7 +15685,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT77">
         <v>1.4</v>
@@ -15974,7 +15980,7 @@
         <v>132</v>
       </c>
       <c r="P79" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16165,7 +16171,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16356,7 +16362,7 @@
         <v>114</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16547,7 +16553,7 @@
         <v>80</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16738,7 +16744,7 @@
         <v>134</v>
       </c>
       <c r="P83" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17120,7 +17126,7 @@
         <v>112</v>
       </c>
       <c r="P85" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17398,7 +17404,7 @@
         <v>0.57</v>
       </c>
       <c r="AS86">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT86">
         <v>0.44</v>
@@ -17502,7 +17508,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17693,7 +17699,7 @@
         <v>80</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17884,7 +17890,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18075,7 +18081,7 @@
         <v>137</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18266,7 +18272,7 @@
         <v>138</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18356,7 +18362,7 @@
         <v>1</v>
       </c>
       <c r="AT91">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU91">
         <v>2.16</v>
@@ -18457,7 +18463,7 @@
         <v>139</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q92">
         <v>8</v>
@@ -18648,7 +18654,7 @@
         <v>140</v>
       </c>
       <c r="P93" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19221,7 +19227,7 @@
         <v>126</v>
       </c>
       <c r="P96" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19603,7 +19609,7 @@
         <v>80</v>
       </c>
       <c r="P98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19794,7 +19800,7 @@
         <v>80</v>
       </c>
       <c r="P99" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19985,7 +19991,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20075,7 +20081,7 @@
         <v>2</v>
       </c>
       <c r="AT100">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU100">
         <v>1.56</v>
@@ -20176,7 +20182,7 @@
         <v>80</v>
       </c>
       <c r="P101" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20367,7 +20373,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20454,7 +20460,7 @@
         <v>0.88</v>
       </c>
       <c r="AS102">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT102">
         <v>0.78</v>
@@ -20749,7 +20755,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21131,7 +21137,7 @@
         <v>144</v>
       </c>
       <c r="P106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21322,7 +21328,7 @@
         <v>80</v>
       </c>
       <c r="P107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21513,7 +21519,7 @@
         <v>145</v>
       </c>
       <c r="P108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21704,7 +21710,7 @@
         <v>80</v>
       </c>
       <c r="P109" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21846,6 +21852,197 @@
       </c>
       <c r="BK109">
         <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2365287</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44981.625</v>
+      </c>
+      <c r="F110">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>76</v>
+      </c>
+      <c r="H110" t="s">
+        <v>70</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>4</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>6</v>
+      </c>
+      <c r="O110" t="s">
+        <v>146</v>
+      </c>
+      <c r="P110" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q110">
+        <v>5</v>
+      </c>
+      <c r="R110">
+        <v>5</v>
+      </c>
+      <c r="S110">
+        <v>10</v>
+      </c>
+      <c r="T110">
+        <v>2.3</v>
+      </c>
+      <c r="U110">
+        <v>2.25</v>
+      </c>
+      <c r="V110">
+        <v>4</v>
+      </c>
+      <c r="W110">
+        <v>1.33</v>
+      </c>
+      <c r="X110">
+        <v>3.25</v>
+      </c>
+      <c r="Y110">
+        <v>2.38</v>
+      </c>
+      <c r="Z110">
+        <v>1.53</v>
+      </c>
+      <c r="AA110">
+        <v>5.5</v>
+      </c>
+      <c r="AB110">
+        <v>1.12</v>
+      </c>
+      <c r="AC110">
+        <v>1.8</v>
+      </c>
+      <c r="AD110">
+        <v>3.8</v>
+      </c>
+      <c r="AE110">
+        <v>4</v>
+      </c>
+      <c r="AF110">
+        <v>1.04</v>
+      </c>
+      <c r="AG110">
+        <v>10</v>
+      </c>
+      <c r="AH110">
+        <v>1.25</v>
+      </c>
+      <c r="AI110">
+        <v>3.75</v>
+      </c>
+      <c r="AJ110">
+        <v>1.63</v>
+      </c>
+      <c r="AK110">
+        <v>2.01</v>
+      </c>
+      <c r="AL110">
+        <v>1.7</v>
+      </c>
+      <c r="AM110">
+        <v>2.05</v>
+      </c>
+      <c r="AN110">
+        <v>1.23</v>
+      </c>
+      <c r="AO110">
+        <v>1.26</v>
+      </c>
+      <c r="AP110">
+        <v>2.03</v>
+      </c>
+      <c r="AQ110">
+        <v>2.22</v>
+      </c>
+      <c r="AR110">
+        <v>1.63</v>
+      </c>
+      <c r="AS110">
+        <v>2.3</v>
+      </c>
+      <c r="AT110">
+        <v>1.44</v>
+      </c>
+      <c r="AU110">
+        <v>1.65</v>
+      </c>
+      <c r="AV110">
+        <v>1.59</v>
+      </c>
+      <c r="AW110">
+        <v>3.24</v>
+      </c>
+      <c r="AX110">
+        <v>1.51</v>
+      </c>
+      <c r="AY110">
+        <v>8.5</v>
+      </c>
+      <c r="AZ110">
+        <v>3.16</v>
+      </c>
+      <c r="BA110">
+        <v>1.2</v>
+      </c>
+      <c r="BB110">
+        <v>1.39</v>
+      </c>
+      <c r="BC110">
+        <v>1.7</v>
+      </c>
+      <c r="BD110">
+        <v>2.2</v>
+      </c>
+      <c r="BE110">
+        <v>3</v>
+      </c>
+      <c r="BF110">
+        <v>10</v>
+      </c>
+      <c r="BG110">
+        <v>10</v>
+      </c>
+      <c r="BH110">
+        <v>13</v>
+      </c>
+      <c r="BI110">
+        <v>12</v>
+      </c>
+      <c r="BJ110">
+        <v>23</v>
+      </c>
+      <c r="BK110">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,15 @@
     <t>['28', '63', '72', '80']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['60']</t>
   </si>
   <si>
@@ -601,9 +610,6 @@
     <t>['8', '65', '90+1']</t>
   </si>
   <si>
-    <t>['62']</t>
-  </si>
-  <si>
     <t>['72']</t>
   </si>
   <si>
@@ -668,6 +674,12 @@
   </si>
   <si>
     <t>['42', '86']</t>
+  </si>
+  <si>
+    <t>['4', '16', '18']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK110"/>
+  <dimension ref="A1:BK114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1273,7 +1285,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -1464,7 +1476,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1554,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="AT3">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1655,7 +1667,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1745,7 +1757,7 @@
         <v>0.44</v>
       </c>
       <c r="AT4">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1933,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT5">
         <v>0.44</v>
@@ -2228,7 +2240,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2419,7 +2431,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2509,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="AT8">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU8">
         <v>2.54</v>
@@ -2610,7 +2622,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2697,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT9">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2801,7 +2813,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -2888,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT10">
         <v>1.44</v>
@@ -2992,7 +3004,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3183,7 +3195,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3461,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT13">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3565,7 +3577,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3843,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT15">
         <v>1.22</v>
@@ -4138,7 +4150,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4520,7 +4532,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4610,7 +4622,7 @@
         <v>2.3</v>
       </c>
       <c r="AT19">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4798,7 +4810,7 @@
         <v>2</v>
       </c>
       <c r="AS20">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT20">
         <v>0.44</v>
@@ -4902,7 +4914,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5183,7 +5195,7 @@
         <v>2.3</v>
       </c>
       <c r="AT22">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU22">
         <v>1.23</v>
@@ -5284,7 +5296,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -5371,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT23">
         <v>1.13</v>
@@ -5475,7 +5487,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5666,7 +5678,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5756,7 +5768,7 @@
         <v>1.44</v>
       </c>
       <c r="AT25">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU25">
         <v>1.74</v>
@@ -5857,7 +5869,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5944,7 +5956,7 @@
         <v>2</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT26">
         <v>1.89</v>
@@ -6048,7 +6060,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6135,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT27">
         <v>1.22</v>
@@ -6329,7 +6341,7 @@
         <v>2</v>
       </c>
       <c r="AT28">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU28">
         <v>1.99</v>
@@ -6899,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT31">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU31">
         <v>1.65</v>
@@ -7003,7 +7015,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7194,7 +7206,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>13</v>
@@ -7385,7 +7397,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7475,7 +7487,7 @@
         <v>2.3</v>
       </c>
       <c r="AT34">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU34">
         <v>1.19</v>
@@ -7663,10 +7675,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT35">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU35">
         <v>2.19</v>
@@ -7767,7 +7779,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8236,7 +8248,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT38">
         <v>1.4</v>
@@ -8427,10 +8439,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT39">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU39">
         <v>1.89</v>
@@ -8621,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="AT40">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU40">
         <v>1.71</v>
@@ -8722,7 +8734,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8913,7 +8925,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9104,7 +9116,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9382,10 +9394,10 @@
         <v>1.75</v>
       </c>
       <c r="AS44">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT44">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU44">
         <v>2.32</v>
@@ -9486,7 +9498,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9576,7 +9588,7 @@
         <v>1.2</v>
       </c>
       <c r="AT45">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU45">
         <v>1.45</v>
@@ -9677,7 +9689,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>10</v>
@@ -9868,7 +9880,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -9955,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT47">
         <v>1.13</v>
@@ -10059,7 +10071,7 @@
         <v>80</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10149,7 +10161,7 @@
         <v>1</v>
       </c>
       <c r="AT48">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU48">
         <v>2.17</v>
@@ -10250,7 +10262,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10337,7 +10349,7 @@
         <v>2.33</v>
       </c>
       <c r="AS49">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT49">
         <v>1.78</v>
@@ -10632,7 +10644,7 @@
         <v>98</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10722,7 +10734,7 @@
         <v>0.78</v>
       </c>
       <c r="AT51">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU51">
         <v>1.57</v>
@@ -10823,7 +10835,7 @@
         <v>112</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -11014,7 +11026,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11396,7 +11408,7 @@
         <v>115</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11674,7 +11686,7 @@
         <v>2.5</v>
       </c>
       <c r="AS56">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT56">
         <v>1.78</v>
@@ -11778,7 +11790,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11865,10 +11877,10 @@
         <v>0.75</v>
       </c>
       <c r="AS57">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT57">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU57">
         <v>1.6</v>
@@ -11969,7 +11981,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12160,7 +12172,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12247,10 +12259,10 @@
         <v>1.4</v>
       </c>
       <c r="AS59">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT59">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU59">
         <v>1.8</v>
@@ -12733,7 +12745,7 @@
         <v>112</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -12924,7 +12936,7 @@
         <v>120</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13115,7 +13127,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13205,7 +13217,7 @@
         <v>1</v>
       </c>
       <c r="AT64">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU64">
         <v>2.06</v>
@@ -13306,7 +13318,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13396,7 +13408,7 @@
         <v>1.5</v>
       </c>
       <c r="AT65">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU65">
         <v>1.8</v>
@@ -13584,7 +13596,7 @@
         <v>1.2</v>
       </c>
       <c r="AS66">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT66">
         <v>1.4</v>
@@ -13688,7 +13700,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13879,7 +13891,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -13969,7 +13981,7 @@
         <v>0.44</v>
       </c>
       <c r="AT68">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU68">
         <v>1.46</v>
@@ -14070,7 +14082,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14157,7 +14169,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT69">
         <v>1.78</v>
@@ -14261,7 +14273,7 @@
         <v>80</v>
       </c>
       <c r="P70" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14348,7 +14360,7 @@
         <v>1.8</v>
       </c>
       <c r="AS70">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT70">
         <v>1.89</v>
@@ -14542,7 +14554,7 @@
         <v>1.2</v>
       </c>
       <c r="AT71">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU71">
         <v>1.52</v>
@@ -14643,7 +14655,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14730,7 +14742,7 @@
         <v>0.8</v>
       </c>
       <c r="AS72">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT72">
         <v>1.13</v>
@@ -14921,10 +14933,10 @@
         <v>0.6</v>
       </c>
       <c r="AS73">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT73">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU73">
         <v>1.53</v>
@@ -15025,7 +15037,7 @@
         <v>80</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15115,7 +15127,7 @@
         <v>0.44</v>
       </c>
       <c r="AT74">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU74">
         <v>1.52</v>
@@ -15407,7 +15419,7 @@
         <v>129</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15598,7 +15610,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15980,7 +15992,7 @@
         <v>132</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16171,7 +16183,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16261,7 +16273,7 @@
         <v>1.2</v>
       </c>
       <c r="AT80">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU80">
         <v>1.46</v>
@@ -16362,7 +16374,7 @@
         <v>114</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16449,7 +16461,7 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT81">
         <v>1.89</v>
@@ -16553,7 +16565,7 @@
         <v>80</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16640,7 +16652,7 @@
         <v>1.83</v>
       </c>
       <c r="AS82">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT82">
         <v>1.78</v>
@@ -16744,7 +16756,7 @@
         <v>134</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16831,10 +16843,10 @@
         <v>1.14</v>
       </c>
       <c r="AS83">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT83">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU83">
         <v>1.44</v>
@@ -17022,7 +17034,7 @@
         <v>1.17</v>
       </c>
       <c r="AS84">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT84">
         <v>1.13</v>
@@ -17126,7 +17138,7 @@
         <v>112</v>
       </c>
       <c r="P85" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17216,7 +17228,7 @@
         <v>0.78</v>
       </c>
       <c r="AT85">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU85">
         <v>1.48</v>
@@ -17508,7 +17520,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17595,7 +17607,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT87">
         <v>1.6</v>
@@ -17699,7 +17711,7 @@
         <v>80</v>
       </c>
       <c r="P88" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17890,7 +17902,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17980,7 +17992,7 @@
         <v>1.44</v>
       </c>
       <c r="AT89">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU89">
         <v>1.68</v>
@@ -18081,7 +18093,7 @@
         <v>137</v>
       </c>
       <c r="P90" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18171,7 +18183,7 @@
         <v>1.5</v>
       </c>
       <c r="AT90">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU90">
         <v>1.94</v>
@@ -18272,7 +18284,7 @@
         <v>138</v>
       </c>
       <c r="P91" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18463,7 +18475,7 @@
         <v>139</v>
       </c>
       <c r="P92" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q92">
         <v>8</v>
@@ -18550,7 +18562,7 @@
         <v>1.43</v>
       </c>
       <c r="AS92">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT92">
         <v>1.22</v>
@@ -18654,7 +18666,7 @@
         <v>140</v>
       </c>
       <c r="P93" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18744,7 +18756,7 @@
         <v>0.78</v>
       </c>
       <c r="AT93">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU93">
         <v>1.38</v>
@@ -19123,10 +19135,10 @@
         <v>0.29</v>
       </c>
       <c r="AS95">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT95">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU95">
         <v>2.03</v>
@@ -19227,7 +19239,7 @@
         <v>126</v>
       </c>
       <c r="P96" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19609,7 +19621,7 @@
         <v>80</v>
       </c>
       <c r="P98" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19699,7 +19711,7 @@
         <v>1.44</v>
       </c>
       <c r="AT98">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU98">
         <v>1.63</v>
@@ -19800,7 +19812,7 @@
         <v>80</v>
       </c>
       <c r="P99" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19887,7 +19899,7 @@
         <v>1.25</v>
       </c>
       <c r="AS99">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT99">
         <v>1.6</v>
@@ -19991,7 +20003,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20078,7 +20090,7 @@
         <v>1.71</v>
       </c>
       <c r="AS100">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT100">
         <v>1.44</v>
@@ -20182,7 +20194,7 @@
         <v>80</v>
       </c>
       <c r="P101" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20272,7 +20284,7 @@
         <v>1.5</v>
       </c>
       <c r="AT101">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU101">
         <v>1.88</v>
@@ -20373,7 +20385,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20463,7 +20475,7 @@
         <v>2.3</v>
       </c>
       <c r="AT102">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU102">
         <v>1.63</v>
@@ -20651,7 +20663,7 @@
         <v>1.86</v>
       </c>
       <c r="AS103">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT103">
         <v>1.89</v>
@@ -20755,7 +20767,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21137,7 +21149,7 @@
         <v>144</v>
       </c>
       <c r="P106" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21328,7 +21340,7 @@
         <v>80</v>
       </c>
       <c r="P107" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21519,7 +21531,7 @@
         <v>145</v>
       </c>
       <c r="P108" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21710,7 +21722,7 @@
         <v>80</v>
       </c>
       <c r="P109" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21901,7 +21913,7 @@
         <v>146</v>
       </c>
       <c r="P110" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22043,6 +22055,770 @@
       </c>
       <c r="BK110">
         <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>2365291</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>44983.41666666666</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>72</v>
+      </c>
+      <c r="H111" t="s">
+        <v>67</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111" t="s">
+        <v>147</v>
+      </c>
+      <c r="P111" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q111">
+        <v>6</v>
+      </c>
+      <c r="R111">
+        <v>8</v>
+      </c>
+      <c r="S111">
+        <v>14</v>
+      </c>
+      <c r="T111">
+        <v>2.4</v>
+      </c>
+      <c r="U111">
+        <v>2.3</v>
+      </c>
+      <c r="V111">
+        <v>4.33</v>
+      </c>
+      <c r="W111">
+        <v>1.33</v>
+      </c>
+      <c r="X111">
+        <v>3.25</v>
+      </c>
+      <c r="Y111">
+        <v>2.63</v>
+      </c>
+      <c r="Z111">
+        <v>1.44</v>
+      </c>
+      <c r="AA111">
+        <v>6.5</v>
+      </c>
+      <c r="AB111">
+        <v>1.11</v>
+      </c>
+      <c r="AC111">
+        <v>1.8</v>
+      </c>
+      <c r="AD111">
+        <v>3.8</v>
+      </c>
+      <c r="AE111">
+        <v>4</v>
+      </c>
+      <c r="AF111">
+        <v>1.04</v>
+      </c>
+      <c r="AG111">
+        <v>8.5</v>
+      </c>
+      <c r="AH111">
+        <v>1.18</v>
+      </c>
+      <c r="AI111">
+        <v>4.2</v>
+      </c>
+      <c r="AJ111">
+        <v>1.72</v>
+      </c>
+      <c r="AK111">
+        <v>2.12</v>
+      </c>
+      <c r="AL111">
+        <v>1.7</v>
+      </c>
+      <c r="AM111">
+        <v>2.05</v>
+      </c>
+      <c r="AN111">
+        <v>1.15</v>
+      </c>
+      <c r="AO111">
+        <v>1.27</v>
+      </c>
+      <c r="AP111">
+        <v>1.95</v>
+      </c>
+      <c r="AQ111">
+        <v>1.56</v>
+      </c>
+      <c r="AR111">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS111">
+        <v>1.7</v>
+      </c>
+      <c r="AT111">
+        <v>0.5</v>
+      </c>
+      <c r="AU111">
+        <v>1.71</v>
+      </c>
+      <c r="AV111">
+        <v>1.6</v>
+      </c>
+      <c r="AW111">
+        <v>3.31</v>
+      </c>
+      <c r="AX111">
+        <v>1.69</v>
+      </c>
+      <c r="AY111">
+        <v>8</v>
+      </c>
+      <c r="AZ111">
+        <v>2.63</v>
+      </c>
+      <c r="BA111">
+        <v>1.22</v>
+      </c>
+      <c r="BB111">
+        <v>1.42</v>
+      </c>
+      <c r="BC111">
+        <v>1.8</v>
+      </c>
+      <c r="BD111">
+        <v>2.3</v>
+      </c>
+      <c r="BE111">
+        <v>3.1</v>
+      </c>
+      <c r="BF111">
+        <v>4</v>
+      </c>
+      <c r="BG111">
+        <v>4</v>
+      </c>
+      <c r="BH111">
+        <v>12</v>
+      </c>
+      <c r="BI111">
+        <v>8</v>
+      </c>
+      <c r="BJ111">
+        <v>16</v>
+      </c>
+      <c r="BK111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2365288</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44983.41666666666</v>
+      </c>
+      <c r="F112">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>74</v>
+      </c>
+      <c r="H112" t="s">
+        <v>66</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>3</v>
+      </c>
+      <c r="K112">
+        <v>3</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>80</v>
+      </c>
+      <c r="P112" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q112">
+        <v>5</v>
+      </c>
+      <c r="R112">
+        <v>3</v>
+      </c>
+      <c r="S112">
+        <v>8</v>
+      </c>
+      <c r="T112">
+        <v>4</v>
+      </c>
+      <c r="U112">
+        <v>2.2</v>
+      </c>
+      <c r="V112">
+        <v>2.6</v>
+      </c>
+      <c r="W112">
+        <v>1.36</v>
+      </c>
+      <c r="X112">
+        <v>3</v>
+      </c>
+      <c r="Y112">
+        <v>2.75</v>
+      </c>
+      <c r="Z112">
+        <v>1.4</v>
+      </c>
+      <c r="AA112">
+        <v>7</v>
+      </c>
+      <c r="AB112">
+        <v>1.1</v>
+      </c>
+      <c r="AC112">
+        <v>3.5</v>
+      </c>
+      <c r="AD112">
+        <v>3.6</v>
+      </c>
+      <c r="AE112">
+        <v>1.95</v>
+      </c>
+      <c r="AF112">
+        <v>1.02</v>
+      </c>
+      <c r="AG112">
+        <v>9.5</v>
+      </c>
+      <c r="AH112">
+        <v>1.22</v>
+      </c>
+      <c r="AI112">
+        <v>3.7</v>
+      </c>
+      <c r="AJ112">
+        <v>1.82</v>
+      </c>
+      <c r="AK112">
+        <v>2</v>
+      </c>
+      <c r="AL112">
+        <v>1.7</v>
+      </c>
+      <c r="AM112">
+        <v>2.05</v>
+      </c>
+      <c r="AN112">
+        <v>1.8</v>
+      </c>
+      <c r="AO112">
+        <v>1.27</v>
+      </c>
+      <c r="AP112">
+        <v>1.22</v>
+      </c>
+      <c r="AQ112">
+        <v>2</v>
+      </c>
+      <c r="AR112">
+        <v>1.56</v>
+      </c>
+      <c r="AS112">
+        <v>1.8</v>
+      </c>
+      <c r="AT112">
+        <v>1.7</v>
+      </c>
+      <c r="AU112">
+        <v>1.58</v>
+      </c>
+      <c r="AV112">
+        <v>1.59</v>
+      </c>
+      <c r="AW112">
+        <v>3.17</v>
+      </c>
+      <c r="AX112">
+        <v>2.76</v>
+      </c>
+      <c r="AY112">
+        <v>8.5</v>
+      </c>
+      <c r="AZ112">
+        <v>1.64</v>
+      </c>
+      <c r="BA112">
+        <v>1.2</v>
+      </c>
+      <c r="BB112">
+        <v>1.39</v>
+      </c>
+      <c r="BC112">
+        <v>1.7</v>
+      </c>
+      <c r="BD112">
+        <v>2.2</v>
+      </c>
+      <c r="BE112">
+        <v>2.95</v>
+      </c>
+      <c r="BF112">
+        <v>2</v>
+      </c>
+      <c r="BG112">
+        <v>8</v>
+      </c>
+      <c r="BH112">
+        <v>5</v>
+      </c>
+      <c r="BI112">
+        <v>3</v>
+      </c>
+      <c r="BJ112">
+        <v>7</v>
+      </c>
+      <c r="BK112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2365290</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44983.5</v>
+      </c>
+      <c r="F113">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>68</v>
+      </c>
+      <c r="H113" t="s">
+        <v>73</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>148</v>
+      </c>
+      <c r="P113" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q113">
+        <v>4</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>6</v>
+      </c>
+      <c r="T113">
+        <v>1.95</v>
+      </c>
+      <c r="U113">
+        <v>2.4</v>
+      </c>
+      <c r="V113">
+        <v>6.5</v>
+      </c>
+      <c r="W113">
+        <v>1.33</v>
+      </c>
+      <c r="X113">
+        <v>3.25</v>
+      </c>
+      <c r="Y113">
+        <v>2.63</v>
+      </c>
+      <c r="Z113">
+        <v>1.44</v>
+      </c>
+      <c r="AA113">
+        <v>6.5</v>
+      </c>
+      <c r="AB113">
+        <v>1.11</v>
+      </c>
+      <c r="AC113">
+        <v>1.44</v>
+      </c>
+      <c r="AD113">
+        <v>4.33</v>
+      </c>
+      <c r="AE113">
+        <v>6.5</v>
+      </c>
+      <c r="AF113">
+        <v>1.04</v>
+      </c>
+      <c r="AG113">
+        <v>14.5</v>
+      </c>
+      <c r="AH113">
+        <v>1.25</v>
+      </c>
+      <c r="AI113">
+        <v>4.02</v>
+      </c>
+      <c r="AJ113">
+        <v>1.79</v>
+      </c>
+      <c r="AK113">
+        <v>2.02</v>
+      </c>
+      <c r="AL113">
+        <v>1.95</v>
+      </c>
+      <c r="AM113">
+        <v>1.8</v>
+      </c>
+      <c r="AN113">
+        <v>1.1</v>
+      </c>
+      <c r="AO113">
+        <v>1.18</v>
+      </c>
+      <c r="AP113">
+        <v>2.88</v>
+      </c>
+      <c r="AQ113">
+        <v>1.75</v>
+      </c>
+      <c r="AR113">
+        <v>0.78</v>
+      </c>
+      <c r="AS113">
+        <v>1.89</v>
+      </c>
+      <c r="AT113">
+        <v>0.7</v>
+      </c>
+      <c r="AU113">
+        <v>2.02</v>
+      </c>
+      <c r="AV113">
+        <v>1.42</v>
+      </c>
+      <c r="AW113">
+        <v>3.44</v>
+      </c>
+      <c r="AX113">
+        <v>1.34</v>
+      </c>
+      <c r="AY113">
+        <v>9.5</v>
+      </c>
+      <c r="AZ113">
+        <v>4.06</v>
+      </c>
+      <c r="BA113">
+        <v>1.22</v>
+      </c>
+      <c r="BB113">
+        <v>1.43</v>
+      </c>
+      <c r="BC113">
+        <v>1.8</v>
+      </c>
+      <c r="BD113">
+        <v>2.3</v>
+      </c>
+      <c r="BE113">
+        <v>3.2</v>
+      </c>
+      <c r="BF113">
+        <v>7</v>
+      </c>
+      <c r="BG113">
+        <v>2</v>
+      </c>
+      <c r="BH113">
+        <v>20</v>
+      </c>
+      <c r="BI113">
+        <v>6</v>
+      </c>
+      <c r="BJ113">
+        <v>27</v>
+      </c>
+      <c r="BK113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2365286</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44983.58333333334</v>
+      </c>
+      <c r="F114">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>71</v>
+      </c>
+      <c r="H114" t="s">
+        <v>75</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>149</v>
+      </c>
+      <c r="P114" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q114">
+        <v>3</v>
+      </c>
+      <c r="R114">
+        <v>4</v>
+      </c>
+      <c r="S114">
+        <v>7</v>
+      </c>
+      <c r="T114">
+        <v>3</v>
+      </c>
+      <c r="U114">
+        <v>2.1</v>
+      </c>
+      <c r="V114">
+        <v>3.75</v>
+      </c>
+      <c r="W114">
+        <v>1.4</v>
+      </c>
+      <c r="X114">
+        <v>2.75</v>
+      </c>
+      <c r="Y114">
+        <v>3</v>
+      </c>
+      <c r="Z114">
+        <v>1.36</v>
+      </c>
+      <c r="AA114">
+        <v>8</v>
+      </c>
+      <c r="AB114">
+        <v>1.08</v>
+      </c>
+      <c r="AC114">
+        <v>2.34</v>
+      </c>
+      <c r="AD114">
+        <v>3.44</v>
+      </c>
+      <c r="AE114">
+        <v>3.01</v>
+      </c>
+      <c r="AF114">
+        <v>1.04</v>
+      </c>
+      <c r="AG114">
+        <v>8</v>
+      </c>
+      <c r="AH114">
+        <v>1.28</v>
+      </c>
+      <c r="AI114">
+        <v>3.3</v>
+      </c>
+      <c r="AJ114">
+        <v>2.03</v>
+      </c>
+      <c r="AK114">
+        <v>1.83</v>
+      </c>
+      <c r="AL114">
+        <v>1.75</v>
+      </c>
+      <c r="AM114">
+        <v>2</v>
+      </c>
+      <c r="AN114">
+        <v>1.27</v>
+      </c>
+      <c r="AO114">
+        <v>1.32</v>
+      </c>
+      <c r="AP114">
+        <v>1.6</v>
+      </c>
+      <c r="AQ114">
+        <v>1.38</v>
+      </c>
+      <c r="AR114">
+        <v>1.22</v>
+      </c>
+      <c r="AS114">
+        <v>1.33</v>
+      </c>
+      <c r="AT114">
+        <v>1.2</v>
+      </c>
+      <c r="AU114">
+        <v>1.54</v>
+      </c>
+      <c r="AV114">
+        <v>1.5</v>
+      </c>
+      <c r="AW114">
+        <v>3.04</v>
+      </c>
+      <c r="AX114">
+        <v>1.75</v>
+      </c>
+      <c r="AY114">
+        <v>8</v>
+      </c>
+      <c r="AZ114">
+        <v>2.44</v>
+      </c>
+      <c r="BA114">
+        <v>1.22</v>
+      </c>
+      <c r="BB114">
+        <v>1.42</v>
+      </c>
+      <c r="BC114">
+        <v>1.83</v>
+      </c>
+      <c r="BD114">
+        <v>2.3</v>
+      </c>
+      <c r="BE114">
+        <v>3.1</v>
+      </c>
+      <c r="BF114">
+        <v>3</v>
+      </c>
+      <c r="BG114">
+        <v>5</v>
+      </c>
+      <c r="BH114">
+        <v>1</v>
+      </c>
+      <c r="BI114">
+        <v>6</v>
+      </c>
+      <c r="BJ114">
+        <v>4</v>
+      </c>
+      <c r="BK114">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1041,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK114"/>
+  <dimension ref="A1:BK115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT2">
         <v>1.22</v>
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT8">
         <v>1.2</v>
@@ -4431,7 +4431,7 @@
         <v>1.44</v>
       </c>
       <c r="AT18">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5386,7 +5386,7 @@
         <v>1.89</v>
       </c>
       <c r="AT23">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>2.6</v>
@@ -7293,7 +7293,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT33">
         <v>1.4</v>
@@ -7869,7 +7869,7 @@
         <v>0.78</v>
       </c>
       <c r="AT36">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU36">
         <v>1.58</v>
@@ -9970,7 +9970,7 @@
         <v>1.8</v>
       </c>
       <c r="AT47">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU47">
         <v>1.81</v>
@@ -10158,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT48">
         <v>0.7</v>
@@ -12453,7 +12453,7 @@
         <v>2</v>
       </c>
       <c r="AT60">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU60">
         <v>1.86</v>
@@ -12641,7 +12641,7 @@
         <v>1.2</v>
       </c>
       <c r="AS61">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT61">
         <v>1.6</v>
@@ -13214,7 +13214,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT64">
         <v>1.7</v>
@@ -14745,7 +14745,7 @@
         <v>1.7</v>
       </c>
       <c r="AT72">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU72">
         <v>1.81</v>
@@ -15888,7 +15888,7 @@
         <v>0.67</v>
       </c>
       <c r="AS78">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT78">
         <v>0.44</v>
@@ -17037,7 +17037,7 @@
         <v>1.33</v>
       </c>
       <c r="AT84">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU84">
         <v>1.62</v>
@@ -18371,7 +18371,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT91">
         <v>1.44</v>
@@ -19329,7 +19329,7 @@
         <v>1.2</v>
       </c>
       <c r="AT96">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU96">
         <v>1.43</v>
@@ -19517,7 +19517,7 @@
         <v>2</v>
       </c>
       <c r="AS97">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT97">
         <v>1.78</v>
@@ -22819,6 +22819,197 @@
       </c>
       <c r="BK114">
         <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2365289</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44984.625</v>
+      </c>
+      <c r="F115">
+        <v>19</v>
+      </c>
+      <c r="G115" t="s">
+        <v>65</v>
+      </c>
+      <c r="H115" t="s">
+        <v>69</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>80</v>
+      </c>
+      <c r="P115" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q115">
+        <v>3</v>
+      </c>
+      <c r="R115">
+        <v>5</v>
+      </c>
+      <c r="S115">
+        <v>8</v>
+      </c>
+      <c r="T115">
+        <v>2.6</v>
+      </c>
+      <c r="U115">
+        <v>2.25</v>
+      </c>
+      <c r="V115">
+        <v>4</v>
+      </c>
+      <c r="W115">
+        <v>1.33</v>
+      </c>
+      <c r="X115">
+        <v>3.25</v>
+      </c>
+      <c r="Y115">
+        <v>2.63</v>
+      </c>
+      <c r="Z115">
+        <v>1.44</v>
+      </c>
+      <c r="AA115">
+        <v>6.5</v>
+      </c>
+      <c r="AB115">
+        <v>1.11</v>
+      </c>
+      <c r="AC115">
+        <v>2</v>
+      </c>
+      <c r="AD115">
+        <v>3.4</v>
+      </c>
+      <c r="AE115">
+        <v>3.4</v>
+      </c>
+      <c r="AF115">
+        <v>1.01</v>
+      </c>
+      <c r="AG115">
+        <v>10.5</v>
+      </c>
+      <c r="AH115">
+        <v>1.25</v>
+      </c>
+      <c r="AI115">
+        <v>3.78</v>
+      </c>
+      <c r="AJ115">
+        <v>1.67</v>
+      </c>
+      <c r="AK115">
+        <v>2.08</v>
+      </c>
+      <c r="AL115">
+        <v>1.62</v>
+      </c>
+      <c r="AM115">
+        <v>2.2</v>
+      </c>
+      <c r="AN115">
+        <v>1.31</v>
+      </c>
+      <c r="AO115">
+        <v>1.29</v>
+      </c>
+      <c r="AP115">
+        <v>1.79</v>
+      </c>
+      <c r="AQ115">
+        <v>1</v>
+      </c>
+      <c r="AR115">
+        <v>1.13</v>
+      </c>
+      <c r="AS115">
+        <v>0.9</v>
+      </c>
+      <c r="AT115">
+        <v>1.33</v>
+      </c>
+      <c r="AU115">
+        <v>1.97</v>
+      </c>
+      <c r="AV115">
+        <v>1.65</v>
+      </c>
+      <c r="AW115">
+        <v>3.62</v>
+      </c>
+      <c r="AX115">
+        <v>1.82</v>
+      </c>
+      <c r="AY115">
+        <v>8</v>
+      </c>
+      <c r="AZ115">
+        <v>2.39</v>
+      </c>
+      <c r="BA115">
+        <v>1.2</v>
+      </c>
+      <c r="BB115">
+        <v>1.39</v>
+      </c>
+      <c r="BC115">
+        <v>1.68</v>
+      </c>
+      <c r="BD115">
+        <v>2.2</v>
+      </c>
+      <c r="BE115">
+        <v>2.95</v>
+      </c>
+      <c r="BF115">
+        <v>12</v>
+      </c>
+      <c r="BG115">
+        <v>4</v>
+      </c>
+      <c r="BH115">
+        <v>11</v>
+      </c>
+      <c r="BI115">
+        <v>8</v>
+      </c>
+      <c r="BJ115">
+        <v>23</v>
+      </c>
+      <c r="BK115">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="223">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['27', '60']</t>
   </si>
   <si>
     <t>['60']</t>
@@ -1041,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK115"/>
+  <dimension ref="A1:BK116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,7 +1288,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -1476,7 +1479,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1667,7 +1670,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1948,7 +1951,7 @@
         <v>1.89</v>
       </c>
       <c r="AT5">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2240,7 +2243,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2431,7 +2434,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2622,7 +2625,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2709,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT9">
         <v>1.7</v>
@@ -2813,7 +2816,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3004,7 +3007,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3195,7 +3198,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3577,7 +3580,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3855,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
         <v>1.22</v>
@@ -4049,7 +4052,7 @@
         <v>0.78</v>
       </c>
       <c r="AT16">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU16">
         <v>1.33</v>
@@ -4150,7 +4153,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4532,7 +4535,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4813,7 +4816,7 @@
         <v>1.7</v>
       </c>
       <c r="AT20">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU20">
         <v>2.93</v>
@@ -4914,7 +4917,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5296,7 +5299,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -5487,7 +5490,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5678,7 +5681,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5869,7 +5872,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6060,7 +6063,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6911,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT31">
         <v>0.5</v>
@@ -7015,7 +7018,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7206,7 +7209,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>13</v>
@@ -7397,7 +7400,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7779,7 +7782,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8060,7 +8063,7 @@
         <v>1.2</v>
       </c>
       <c r="AT37">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU37">
         <v>1.42</v>
@@ -8734,7 +8737,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8925,7 +8928,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9116,7 +9119,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9498,7 +9501,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9689,7 +9692,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>10</v>
@@ -9880,7 +9883,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10071,7 +10074,7 @@
         <v>80</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10262,7 +10265,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10349,7 +10352,7 @@
         <v>2.33</v>
       </c>
       <c r="AS49">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT49">
         <v>1.78</v>
@@ -10644,7 +10647,7 @@
         <v>98</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10835,7 +10838,7 @@
         <v>112</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -11026,7 +11029,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11408,7 +11411,7 @@
         <v>115</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11498,7 +11501,7 @@
         <v>2</v>
       </c>
       <c r="AT55">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU55">
         <v>1.74</v>
@@ -11790,7 +11793,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11877,7 +11880,7 @@
         <v>0.75</v>
       </c>
       <c r="AS57">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT57">
         <v>0.7</v>
@@ -11981,7 +11984,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12172,7 +12175,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12745,7 +12748,7 @@
         <v>112</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -12936,7 +12939,7 @@
         <v>120</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13026,7 +13029,7 @@
         <v>1.44</v>
       </c>
       <c r="AT63">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU63">
         <v>1.84</v>
@@ -13127,7 +13130,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13318,7 +13321,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13700,7 +13703,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13891,7 +13894,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14082,7 +14085,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14273,7 +14276,7 @@
         <v>80</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14360,7 +14363,7 @@
         <v>1.8</v>
       </c>
       <c r="AS70">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT70">
         <v>1.89</v>
@@ -14655,7 +14658,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15037,7 +15040,7 @@
         <v>80</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15419,7 +15422,7 @@
         <v>129</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15610,7 +15613,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15891,7 +15894,7 @@
         <v>0.9</v>
       </c>
       <c r="AT78">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU78">
         <v>2.05</v>
@@ -15992,7 +15995,7 @@
         <v>132</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16374,7 +16377,7 @@
         <v>114</v>
       </c>
       <c r="P81" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16565,7 +16568,7 @@
         <v>80</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16756,7 +16759,7 @@
         <v>134</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17034,7 +17037,7 @@
         <v>1.17</v>
       </c>
       <c r="AS84">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT84">
         <v>1.33</v>
@@ -17138,7 +17141,7 @@
         <v>112</v>
       </c>
       <c r="P85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17419,7 +17422,7 @@
         <v>2.3</v>
       </c>
       <c r="AT86">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU86">
         <v>1.54</v>
@@ -17520,7 +17523,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17711,7 +17714,7 @@
         <v>80</v>
       </c>
       <c r="P88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17902,7 +17905,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18093,7 +18096,7 @@
         <v>137</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18284,7 +18287,7 @@
         <v>138</v>
       </c>
       <c r="P91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18475,7 +18478,7 @@
         <v>139</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>8</v>
@@ -18666,7 +18669,7 @@
         <v>140</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19239,7 +19242,7 @@
         <v>126</v>
       </c>
       <c r="P96" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19621,7 +19624,7 @@
         <v>80</v>
       </c>
       <c r="P98" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19812,7 +19815,7 @@
         <v>80</v>
       </c>
       <c r="P99" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19899,7 +19902,7 @@
         <v>1.25</v>
       </c>
       <c r="AS99">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT99">
         <v>1.6</v>
@@ -20003,7 +20006,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20194,7 +20197,7 @@
         <v>80</v>
       </c>
       <c r="P101" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20385,7 +20388,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20767,7 +20770,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21149,7 +21152,7 @@
         <v>144</v>
       </c>
       <c r="P106" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21340,7 +21343,7 @@
         <v>80</v>
       </c>
       <c r="P107" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21531,7 +21534,7 @@
         <v>145</v>
       </c>
       <c r="P108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21621,7 +21624,7 @@
         <v>1.5</v>
       </c>
       <c r="AT108">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU108">
         <v>1.88</v>
@@ -21722,7 +21725,7 @@
         <v>80</v>
       </c>
       <c r="P109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21913,7 +21916,7 @@
         <v>146</v>
       </c>
       <c r="P110" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22295,7 +22298,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22677,7 +22680,7 @@
         <v>149</v>
       </c>
       <c r="P114" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22764,7 +22767,7 @@
         <v>1.22</v>
       </c>
       <c r="AS114">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT114">
         <v>1.2</v>
@@ -22868,7 +22871,7 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23010,6 +23013,197 @@
       </c>
       <c r="BK115">
         <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2365292</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44988.625</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>71</v>
+      </c>
+      <c r="H116" t="s">
+        <v>74</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>150</v>
+      </c>
+      <c r="P116" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q116">
+        <v>9</v>
+      </c>
+      <c r="R116">
+        <v>3</v>
+      </c>
+      <c r="S116">
+        <v>12</v>
+      </c>
+      <c r="T116">
+        <v>2.38</v>
+      </c>
+      <c r="U116">
+        <v>2.2</v>
+      </c>
+      <c r="V116">
+        <v>5</v>
+      </c>
+      <c r="W116">
+        <v>1.4</v>
+      </c>
+      <c r="X116">
+        <v>2.75</v>
+      </c>
+      <c r="Y116">
+        <v>3</v>
+      </c>
+      <c r="Z116">
+        <v>1.36</v>
+      </c>
+      <c r="AA116">
+        <v>8</v>
+      </c>
+      <c r="AB116">
+        <v>1.08</v>
+      </c>
+      <c r="AC116">
+        <v>1.81</v>
+      </c>
+      <c r="AD116">
+        <v>3.72</v>
+      </c>
+      <c r="AE116">
+        <v>4.32</v>
+      </c>
+      <c r="AF116">
+        <v>1.05</v>
+      </c>
+      <c r="AG116">
+        <v>9.9</v>
+      </c>
+      <c r="AH116">
+        <v>1.35</v>
+      </c>
+      <c r="AI116">
+        <v>3.15</v>
+      </c>
+      <c r="AJ116">
+        <v>1.93</v>
+      </c>
+      <c r="AK116">
+        <v>1.87</v>
+      </c>
+      <c r="AL116">
+        <v>1.95</v>
+      </c>
+      <c r="AM116">
+        <v>1.8</v>
+      </c>
+      <c r="AN116">
+        <v>1.2</v>
+      </c>
+      <c r="AO116">
+        <v>1.24</v>
+      </c>
+      <c r="AP116">
+        <v>2.1</v>
+      </c>
+      <c r="AQ116">
+        <v>1.33</v>
+      </c>
+      <c r="AR116">
+        <v>0.44</v>
+      </c>
+      <c r="AS116">
+        <v>1.5</v>
+      </c>
+      <c r="AT116">
+        <v>0.4</v>
+      </c>
+      <c r="AU116">
+        <v>1.46</v>
+      </c>
+      <c r="AV116">
+        <v>1.28</v>
+      </c>
+      <c r="AW116">
+        <v>2.74</v>
+      </c>
+      <c r="AX116">
+        <v>1.45</v>
+      </c>
+      <c r="AY116">
+        <v>8.5</v>
+      </c>
+      <c r="AZ116">
+        <v>3.2</v>
+      </c>
+      <c r="BA116">
+        <v>1.25</v>
+      </c>
+      <c r="BB116">
+        <v>1.47</v>
+      </c>
+      <c r="BC116">
+        <v>1.8</v>
+      </c>
+      <c r="BD116">
+        <v>2.38</v>
+      </c>
+      <c r="BE116">
+        <v>3.25</v>
+      </c>
+      <c r="BF116">
+        <v>4</v>
+      </c>
+      <c r="BG116">
+        <v>2</v>
+      </c>
+      <c r="BH116">
+        <v>10</v>
+      </c>
+      <c r="BI116">
+        <v>3</v>
+      </c>
+      <c r="BJ116">
+        <v>14</v>
+      </c>
+      <c r="BK116">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,6 +469,18 @@
     <t>['27', '60']</t>
   </si>
   <si>
+    <t>['65', '90+4']</t>
+  </si>
+  <si>
+    <t>['9', '14']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['29', '43', '47', '52', '55', '83', '87']</t>
+  </si>
+  <si>
     <t>['60']</t>
   </si>
   <si>
@@ -683,6 +695,9 @@
   </si>
   <si>
     <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['64', '71']</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK116"/>
+  <dimension ref="A1:BK120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1288,7 +1303,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -1378,7 +1393,7 @@
         <v>0.9</v>
       </c>
       <c r="AT2">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1479,7 +1494,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1566,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT3">
         <v>0.7</v>
@@ -1670,7 +1685,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1757,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT4">
         <v>1.2</v>
@@ -1948,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT5">
         <v>0.4</v>
@@ -2243,7 +2258,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2333,7 +2348,7 @@
         <v>1.2</v>
       </c>
       <c r="AT7">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2434,7 +2449,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2625,7 +2640,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2816,7 +2831,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -2906,7 +2921,7 @@
         <v>1.7</v>
       </c>
       <c r="AT10">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3007,7 +3022,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3097,7 +3112,7 @@
         <v>1.5</v>
       </c>
       <c r="AT11">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU11">
         <v>2.05</v>
@@ -3198,7 +3213,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3580,7 +3595,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3861,7 +3876,7 @@
         <v>1.5</v>
       </c>
       <c r="AT15">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU15">
         <v>1.41</v>
@@ -4153,7 +4168,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4240,7 +4255,7 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT17">
         <v>1.6</v>
@@ -4431,10 +4446,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT18">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4535,7 +4550,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4917,7 +4932,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5004,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT21">
         <v>1.89</v>
@@ -5299,7 +5314,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -5386,10 +5401,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT23">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU23">
         <v>2.6</v>
@@ -5490,7 +5505,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5681,7 +5696,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5768,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT25">
         <v>0.7</v>
@@ -5872,7 +5887,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6063,7 +6078,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6150,10 +6165,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT27">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU27">
         <v>2.44</v>
@@ -6341,7 +6356,7 @@
         <v>2</v>
       </c>
       <c r="AS28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT28">
         <v>1.2</v>
@@ -6535,7 +6550,7 @@
         <v>0.78</v>
       </c>
       <c r="AT29">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU29">
         <v>1.87</v>
@@ -6726,7 +6741,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU30">
         <v>1.9</v>
@@ -7018,7 +7033,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7105,7 +7120,7 @@
         <v>1.5</v>
       </c>
       <c r="AS32">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT32">
         <v>1.6</v>
@@ -7209,7 +7224,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q33">
         <v>13</v>
@@ -7400,7 +7415,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7782,7 +7797,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7872,7 +7887,7 @@
         <v>0.78</v>
       </c>
       <c r="AT36">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU36">
         <v>1.58</v>
@@ -8633,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT40">
         <v>0.5</v>
@@ -8737,7 +8752,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8928,7 +8943,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9015,10 +9030,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT42">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU42">
         <v>2.09</v>
@@ -9119,7 +9134,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9397,7 +9412,7 @@
         <v>1.75</v>
       </c>
       <c r="AS44">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT44">
         <v>1.2</v>
@@ -9501,7 +9516,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9692,7 +9707,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>10</v>
@@ -9779,10 +9794,10 @@
         <v>1.67</v>
       </c>
       <c r="AS46">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT46">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU46">
         <v>1.24</v>
@@ -9883,7 +9898,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -9973,7 +9988,7 @@
         <v>1.8</v>
       </c>
       <c r="AT47">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU47">
         <v>1.81</v>
@@ -10074,7 +10089,7 @@
         <v>80</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10265,7 +10280,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10355,7 +10370,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU49">
         <v>1.52</v>
@@ -10647,7 +10662,7 @@
         <v>98</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10838,7 +10853,7 @@
         <v>112</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -11029,7 +11044,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11119,7 +11134,7 @@
         <v>1.5</v>
       </c>
       <c r="AT53">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU53">
         <v>1.68</v>
@@ -11307,7 +11322,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT54">
         <v>1.4</v>
@@ -11411,7 +11426,7 @@
         <v>115</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11498,7 +11513,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT55">
         <v>0.4</v>
@@ -11692,7 +11707,7 @@
         <v>1.8</v>
       </c>
       <c r="AT56">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU56">
         <v>1.7</v>
@@ -11793,7 +11808,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11984,7 +11999,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12071,10 +12086,10 @@
         <v>1.33</v>
       </c>
       <c r="AS58">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT58">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU58">
         <v>1.45</v>
@@ -12175,7 +12190,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12453,10 +12468,10 @@
         <v>0.75</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT60">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU60">
         <v>1.86</v>
@@ -12748,7 +12763,7 @@
         <v>112</v>
       </c>
       <c r="P62" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -12838,7 +12853,7 @@
         <v>0.78</v>
       </c>
       <c r="AT62">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU62">
         <v>1.5</v>
@@ -12939,7 +12954,7 @@
         <v>120</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13026,7 +13041,7 @@
         <v>0.8</v>
       </c>
       <c r="AS63">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT63">
         <v>0.4</v>
@@ -13130,7 +13145,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13321,7 +13336,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13599,7 +13614,7 @@
         <v>1.2</v>
       </c>
       <c r="AS66">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT66">
         <v>1.4</v>
@@ -13703,7 +13718,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13793,7 +13808,7 @@
         <v>2.3</v>
       </c>
       <c r="AT67">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU67">
         <v>1.44</v>
@@ -13894,7 +13909,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -13981,7 +13996,7 @@
         <v>0.8</v>
       </c>
       <c r="AS68">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT68">
         <v>1.7</v>
@@ -14085,7 +14100,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14172,10 +14187,10 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT69">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU69">
         <v>2.16</v>
@@ -14276,7 +14291,7 @@
         <v>80</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14658,7 +14673,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14748,7 +14763,7 @@
         <v>1.7</v>
       </c>
       <c r="AT72">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU72">
         <v>1.81</v>
@@ -15040,7 +15055,7 @@
         <v>80</v>
       </c>
       <c r="P74" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15127,7 +15142,7 @@
         <v>0.67</v>
       </c>
       <c r="AS74">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT74">
         <v>0.7</v>
@@ -15318,10 +15333,10 @@
         <v>1.6</v>
       </c>
       <c r="AS75">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT75">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU75">
         <v>1.92</v>
@@ -15422,7 +15437,7 @@
         <v>129</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15613,7 +15628,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15995,7 +16010,7 @@
         <v>132</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16082,10 +16097,10 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT79">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU79">
         <v>1.78</v>
@@ -16377,7 +16392,7 @@
         <v>114</v>
       </c>
       <c r="P81" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16464,7 +16479,7 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT81">
         <v>1.89</v>
@@ -16568,7 +16583,7 @@
         <v>80</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16658,7 +16673,7 @@
         <v>1.7</v>
       </c>
       <c r="AT82">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU82">
         <v>1.81</v>
@@ -16759,7 +16774,7 @@
         <v>134</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17040,7 +17055,7 @@
         <v>1.5</v>
       </c>
       <c r="AT84">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU84">
         <v>1.62</v>
@@ -17141,7 +17156,7 @@
         <v>112</v>
       </c>
       <c r="P85" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17523,7 +17538,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17714,7 +17729,7 @@
         <v>80</v>
       </c>
       <c r="P88" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17801,7 +17816,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT88">
         <v>1.4</v>
@@ -17905,7 +17920,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17992,7 +18007,7 @@
         <v>1.14</v>
       </c>
       <c r="AS89">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT89">
         <v>1.7</v>
@@ -18096,7 +18111,7 @@
         <v>137</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18287,7 +18302,7 @@
         <v>138</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18377,7 +18392,7 @@
         <v>0.9</v>
       </c>
       <c r="AT91">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU91">
         <v>2.16</v>
@@ -18478,7 +18493,7 @@
         <v>139</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>8</v>
@@ -18568,7 +18583,7 @@
         <v>1.8</v>
       </c>
       <c r="AT92">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU92">
         <v>1.47</v>
@@ -18669,7 +18684,7 @@
         <v>140</v>
       </c>
       <c r="P93" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18947,7 +18962,7 @@
         <v>1.25</v>
       </c>
       <c r="AS94">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT94">
         <v>1.4</v>
@@ -19138,7 +19153,7 @@
         <v>0.29</v>
       </c>
       <c r="AS95">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT95">
         <v>0.5</v>
@@ -19242,7 +19257,7 @@
         <v>126</v>
       </c>
       <c r="P96" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19332,7 +19347,7 @@
         <v>1.2</v>
       </c>
       <c r="AT96">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU96">
         <v>1.43</v>
@@ -19523,7 +19538,7 @@
         <v>0.9</v>
       </c>
       <c r="AT97">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU97">
         <v>2.09</v>
@@ -19624,7 +19639,7 @@
         <v>80</v>
       </c>
       <c r="P98" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19711,7 +19726,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT98">
         <v>0.5</v>
@@ -19815,7 +19830,7 @@
         <v>80</v>
       </c>
       <c r="P99" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20006,7 +20021,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20096,7 +20111,7 @@
         <v>1.8</v>
       </c>
       <c r="AT100">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU100">
         <v>1.56</v>
@@ -20197,7 +20212,7 @@
         <v>80</v>
       </c>
       <c r="P101" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20388,7 +20403,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20770,7 +20785,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21051,7 +21066,7 @@
         <v>1.2</v>
       </c>
       <c r="AT105">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU105">
         <v>1.44</v>
@@ -21152,7 +21167,7 @@
         <v>144</v>
       </c>
       <c r="P106" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21239,10 +21254,10 @@
         <v>1.88</v>
       </c>
       <c r="AS106">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT106">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU106">
         <v>1.61</v>
@@ -21343,7 +21358,7 @@
         <v>80</v>
       </c>
       <c r="P107" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21430,7 +21445,7 @@
         <v>1.44</v>
       </c>
       <c r="AS107">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT107">
         <v>1.6</v>
@@ -21534,7 +21549,7 @@
         <v>145</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21725,7 +21740,7 @@
         <v>80</v>
       </c>
       <c r="P109" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21812,7 +21827,7 @@
         <v>1.75</v>
       </c>
       <c r="AS109">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT109">
         <v>1.89</v>
@@ -21916,7 +21931,7 @@
         <v>146</v>
       </c>
       <c r="P110" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22006,7 +22021,7 @@
         <v>2.3</v>
       </c>
       <c r="AT110">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU110">
         <v>1.65</v>
@@ -22298,7 +22313,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22576,7 +22591,7 @@
         <v>0.78</v>
       </c>
       <c r="AS113">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT113">
         <v>0.7</v>
@@ -22680,7 +22695,7 @@
         <v>149</v>
       </c>
       <c r="P114" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22871,7 +22886,7 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -22961,7 +22976,7 @@
         <v>0.9</v>
       </c>
       <c r="AT115">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU115">
         <v>1.97</v>
@@ -23204,6 +23219,770 @@
       </c>
       <c r="BK116">
         <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2365296</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44990.41666666666</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>75</v>
+      </c>
+      <c r="H117" t="s">
+        <v>76</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>151</v>
+      </c>
+      <c r="P117" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q117">
+        <v>2</v>
+      </c>
+      <c r="R117">
+        <v>5</v>
+      </c>
+      <c r="S117">
+        <v>7</v>
+      </c>
+      <c r="T117">
+        <v>3.1</v>
+      </c>
+      <c r="U117">
+        <v>2.25</v>
+      </c>
+      <c r="V117">
+        <v>3.2</v>
+      </c>
+      <c r="W117">
+        <v>1.33</v>
+      </c>
+      <c r="X117">
+        <v>3.25</v>
+      </c>
+      <c r="Y117">
+        <v>2.63</v>
+      </c>
+      <c r="Z117">
+        <v>1.44</v>
+      </c>
+      <c r="AA117">
+        <v>6.5</v>
+      </c>
+      <c r="AB117">
+        <v>1.11</v>
+      </c>
+      <c r="AC117">
+        <v>2.65</v>
+      </c>
+      <c r="AD117">
+        <v>3.47</v>
+      </c>
+      <c r="AE117">
+        <v>2.22</v>
+      </c>
+      <c r="AF117">
+        <v>1.03</v>
+      </c>
+      <c r="AG117">
+        <v>12.5</v>
+      </c>
+      <c r="AH117">
+        <v>1.25</v>
+      </c>
+      <c r="AI117">
+        <v>3.95</v>
+      </c>
+      <c r="AJ117">
+        <v>1.67</v>
+      </c>
+      <c r="AK117">
+        <v>2</v>
+      </c>
+      <c r="AL117">
+        <v>1.62</v>
+      </c>
+      <c r="AM117">
+        <v>2.2</v>
+      </c>
+      <c r="AN117">
+        <v>1.52</v>
+      </c>
+      <c r="AO117">
+        <v>1.26</v>
+      </c>
+      <c r="AP117">
+        <v>1.52</v>
+      </c>
+      <c r="AQ117">
+        <v>1.44</v>
+      </c>
+      <c r="AR117">
+        <v>1.78</v>
+      </c>
+      <c r="AS117">
+        <v>1.6</v>
+      </c>
+      <c r="AT117">
+        <v>1.6</v>
+      </c>
+      <c r="AU117">
+        <v>1.67</v>
+      </c>
+      <c r="AV117">
+        <v>1.64</v>
+      </c>
+      <c r="AW117">
+        <v>3.31</v>
+      </c>
+      <c r="AX117">
+        <v>2.38</v>
+      </c>
+      <c r="AY117">
+        <v>7.6</v>
+      </c>
+      <c r="AZ117">
+        <v>1.89</v>
+      </c>
+      <c r="BA117">
+        <v>1.27</v>
+      </c>
+      <c r="BB117">
+        <v>1.52</v>
+      </c>
+      <c r="BC117">
+        <v>1.93</v>
+      </c>
+      <c r="BD117">
+        <v>2.5</v>
+      </c>
+      <c r="BE117">
+        <v>3.42</v>
+      </c>
+      <c r="BF117">
+        <v>4</v>
+      </c>
+      <c r="BG117">
+        <v>7</v>
+      </c>
+      <c r="BH117">
+        <v>2</v>
+      </c>
+      <c r="BI117">
+        <v>5</v>
+      </c>
+      <c r="BJ117">
+        <v>6</v>
+      </c>
+      <c r="BK117">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2365297</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44990.41666666666</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>66</v>
+      </c>
+      <c r="H118" t="s">
+        <v>72</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118" t="s">
+        <v>152</v>
+      </c>
+      <c r="P118" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q118">
+        <v>2</v>
+      </c>
+      <c r="R118">
+        <v>7</v>
+      </c>
+      <c r="S118">
+        <v>9</v>
+      </c>
+      <c r="T118">
+        <v>2.6</v>
+      </c>
+      <c r="U118">
+        <v>2.2</v>
+      </c>
+      <c r="V118">
+        <v>4.33</v>
+      </c>
+      <c r="W118">
+        <v>1.36</v>
+      </c>
+      <c r="X118">
+        <v>3</v>
+      </c>
+      <c r="Y118">
+        <v>2.75</v>
+      </c>
+      <c r="Z118">
+        <v>1.4</v>
+      </c>
+      <c r="AA118">
+        <v>8</v>
+      </c>
+      <c r="AB118">
+        <v>1.08</v>
+      </c>
+      <c r="AC118">
+        <v>1.75</v>
+      </c>
+      <c r="AD118">
+        <v>3.5</v>
+      </c>
+      <c r="AE118">
+        <v>3.89</v>
+      </c>
+      <c r="AF118">
+        <v>1.03</v>
+      </c>
+      <c r="AG118">
+        <v>11.5</v>
+      </c>
+      <c r="AH118">
+        <v>1.27</v>
+      </c>
+      <c r="AI118">
+        <v>3.7</v>
+      </c>
+      <c r="AJ118">
+        <v>1.86</v>
+      </c>
+      <c r="AK118">
+        <v>2</v>
+      </c>
+      <c r="AL118">
+        <v>1.75</v>
+      </c>
+      <c r="AM118">
+        <v>2</v>
+      </c>
+      <c r="AN118">
+        <v>1.26</v>
+      </c>
+      <c r="AO118">
+        <v>1.25</v>
+      </c>
+      <c r="AP118">
+        <v>1.88</v>
+      </c>
+      <c r="AQ118">
+        <v>2</v>
+      </c>
+      <c r="AR118">
+        <v>1.22</v>
+      </c>
+      <c r="AS118">
+        <v>1.9</v>
+      </c>
+      <c r="AT118">
+        <v>1.2</v>
+      </c>
+      <c r="AU118">
+        <v>1.8</v>
+      </c>
+      <c r="AV118">
+        <v>1.41</v>
+      </c>
+      <c r="AW118">
+        <v>3.21</v>
+      </c>
+      <c r="AX118">
+        <v>1.56</v>
+      </c>
+      <c r="AY118">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ118">
+        <v>3.14</v>
+      </c>
+      <c r="BA118">
+        <v>1.21</v>
+      </c>
+      <c r="BB118">
+        <v>1.42</v>
+      </c>
+      <c r="BC118">
+        <v>1.76</v>
+      </c>
+      <c r="BD118">
+        <v>2.22</v>
+      </c>
+      <c r="BE118">
+        <v>2.93</v>
+      </c>
+      <c r="BF118">
+        <v>7</v>
+      </c>
+      <c r="BG118">
+        <v>5</v>
+      </c>
+      <c r="BH118">
+        <v>3</v>
+      </c>
+      <c r="BI118">
+        <v>8</v>
+      </c>
+      <c r="BJ118">
+        <v>10</v>
+      </c>
+      <c r="BK118">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2365295</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44990.5</v>
+      </c>
+      <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>67</v>
+      </c>
+      <c r="H119" t="s">
+        <v>69</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>153</v>
+      </c>
+      <c r="P119" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q119">
+        <v>2</v>
+      </c>
+      <c r="R119">
+        <v>9</v>
+      </c>
+      <c r="S119">
+        <v>11</v>
+      </c>
+      <c r="T119">
+        <v>4</v>
+      </c>
+      <c r="U119">
+        <v>2.25</v>
+      </c>
+      <c r="V119">
+        <v>2.5</v>
+      </c>
+      <c r="W119">
+        <v>1.36</v>
+      </c>
+      <c r="X119">
+        <v>3</v>
+      </c>
+      <c r="Y119">
+        <v>2.63</v>
+      </c>
+      <c r="Z119">
+        <v>1.44</v>
+      </c>
+      <c r="AA119">
+        <v>7</v>
+      </c>
+      <c r="AB119">
+        <v>1.1</v>
+      </c>
+      <c r="AC119">
+        <v>3.32</v>
+      </c>
+      <c r="AD119">
+        <v>3.32</v>
+      </c>
+      <c r="AE119">
+        <v>1.95</v>
+      </c>
+      <c r="AF119">
+        <v>1.04</v>
+      </c>
+      <c r="AG119">
+        <v>13.75</v>
+      </c>
+      <c r="AH119">
+        <v>1.26</v>
+      </c>
+      <c r="AI119">
+        <v>3.9</v>
+      </c>
+      <c r="AJ119">
+        <v>1.89</v>
+      </c>
+      <c r="AK119">
+        <v>1.97</v>
+      </c>
+      <c r="AL119">
+        <v>1.75</v>
+      </c>
+      <c r="AM119">
+        <v>2</v>
+      </c>
+      <c r="AN119">
+        <v>1.85</v>
+      </c>
+      <c r="AO119">
+        <v>1.28</v>
+      </c>
+      <c r="AP119">
+        <v>1.3</v>
+      </c>
+      <c r="AQ119">
+        <v>0.44</v>
+      </c>
+      <c r="AR119">
+        <v>1.33</v>
+      </c>
+      <c r="AS119">
+        <v>0.7</v>
+      </c>
+      <c r="AT119">
+        <v>1.2</v>
+      </c>
+      <c r="AU119">
+        <v>1.56</v>
+      </c>
+      <c r="AV119">
+        <v>1.61</v>
+      </c>
+      <c r="AW119">
+        <v>3.17</v>
+      </c>
+      <c r="AX119">
+        <v>2.44</v>
+      </c>
+      <c r="AY119">
+        <v>7.7</v>
+      </c>
+      <c r="AZ119">
+        <v>1.85</v>
+      </c>
+      <c r="BA119">
+        <v>1.22</v>
+      </c>
+      <c r="BB119">
+        <v>1.42</v>
+      </c>
+      <c r="BC119">
+        <v>1.74</v>
+      </c>
+      <c r="BD119">
+        <v>2.23</v>
+      </c>
+      <c r="BE119">
+        <v>3</v>
+      </c>
+      <c r="BF119">
+        <v>3</v>
+      </c>
+      <c r="BG119">
+        <v>6</v>
+      </c>
+      <c r="BH119">
+        <v>2</v>
+      </c>
+      <c r="BI119">
+        <v>4</v>
+      </c>
+      <c r="BJ119">
+        <v>5</v>
+      </c>
+      <c r="BK119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2365293</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44990.60416666666</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" t="s">
+        <v>70</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>7</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>7</v>
+      </c>
+      <c r="O120" t="s">
+        <v>154</v>
+      </c>
+      <c r="P120" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q120">
+        <v>10</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>10</v>
+      </c>
+      <c r="T120">
+        <v>1.95</v>
+      </c>
+      <c r="U120">
+        <v>2.4</v>
+      </c>
+      <c r="V120">
+        <v>6.5</v>
+      </c>
+      <c r="W120">
+        <v>1.33</v>
+      </c>
+      <c r="X120">
+        <v>3.25</v>
+      </c>
+      <c r="Y120">
+        <v>2.63</v>
+      </c>
+      <c r="Z120">
+        <v>1.44</v>
+      </c>
+      <c r="AA120">
+        <v>6.5</v>
+      </c>
+      <c r="AB120">
+        <v>1.11</v>
+      </c>
+      <c r="AC120">
+        <v>1.52</v>
+      </c>
+      <c r="AD120">
+        <v>4.25</v>
+      </c>
+      <c r="AE120">
+        <v>6</v>
+      </c>
+      <c r="AF120">
+        <v>1.03</v>
+      </c>
+      <c r="AG120">
+        <v>12.5</v>
+      </c>
+      <c r="AH120">
+        <v>1.25</v>
+      </c>
+      <c r="AI120">
+        <v>3.95</v>
+      </c>
+      <c r="AJ120">
+        <v>1.76</v>
+      </c>
+      <c r="AK120">
+        <v>2.07</v>
+      </c>
+      <c r="AL120">
+        <v>1.95</v>
+      </c>
+      <c r="AM120">
+        <v>1.8</v>
+      </c>
+      <c r="AN120">
+        <v>1.12</v>
+      </c>
+      <c r="AO120">
+        <v>1.21</v>
+      </c>
+      <c r="AP120">
+        <v>2.55</v>
+      </c>
+      <c r="AQ120">
+        <v>1.89</v>
+      </c>
+      <c r="AR120">
+        <v>1.44</v>
+      </c>
+      <c r="AS120">
+        <v>2</v>
+      </c>
+      <c r="AT120">
+        <v>1.3</v>
+      </c>
+      <c r="AU120">
+        <v>2.11</v>
+      </c>
+      <c r="AV120">
+        <v>1.68</v>
+      </c>
+      <c r="AW120">
+        <v>3.79</v>
+      </c>
+      <c r="AX120">
+        <v>1.32</v>
+      </c>
+      <c r="AY120">
+        <v>9.4</v>
+      </c>
+      <c r="AZ120">
+        <v>4.62</v>
+      </c>
+      <c r="BA120">
+        <v>1.2</v>
+      </c>
+      <c r="BB120">
+        <v>1.41</v>
+      </c>
+      <c r="BC120">
+        <v>1.76</v>
+      </c>
+      <c r="BD120">
+        <v>2.22</v>
+      </c>
+      <c r="BE120">
+        <v>2.93</v>
+      </c>
+      <c r="BF120">
+        <v>15</v>
+      </c>
+      <c r="BG120">
+        <v>2</v>
+      </c>
+      <c r="BH120">
+        <v>6</v>
+      </c>
+      <c r="BI120">
+        <v>2</v>
+      </c>
+      <c r="BJ120">
+        <v>21</v>
+      </c>
+      <c r="BK120">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1059,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK120"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT12">
         <v>1.6</v>
@@ -3685,7 +3685,7 @@
         <v>1.2</v>
       </c>
       <c r="AT14">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU14">
         <v>1.59</v>
@@ -4064,7 +4064,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT16">
         <v>0.4</v>
@@ -5022,7 +5022,7 @@
         <v>0.7</v>
       </c>
       <c r="AT21">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU21">
         <v>1.24</v>
@@ -5977,7 +5977,7 @@
         <v>1.8</v>
       </c>
       <c r="AT26">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU26">
         <v>1.23</v>
@@ -6547,7 +6547,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT29">
         <v>1.6</v>
@@ -7884,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT36">
         <v>1.2</v>
@@ -9224,7 +9224,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU43">
         <v>1.77</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT51">
         <v>0.5</v>
@@ -10943,7 +10943,7 @@
         <v>2.3</v>
       </c>
       <c r="AT52">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU52">
         <v>1.4</v>
@@ -12850,7 +12850,7 @@
         <v>1.75</v>
       </c>
       <c r="AS62">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT62">
         <v>1.3</v>
@@ -14381,7 +14381,7 @@
         <v>1.5</v>
       </c>
       <c r="AT70">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU70">
         <v>1.7</v>
@@ -16482,7 +16482,7 @@
         <v>2</v>
       </c>
       <c r="AT81">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU81">
         <v>2.08</v>
@@ -17243,7 +17243,7 @@
         <v>0.83</v>
       </c>
       <c r="AS85">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT85">
         <v>1.7</v>
@@ -18771,7 +18771,7 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT93">
         <v>1.2</v>
@@ -20684,7 +20684,7 @@
         <v>1.7</v>
       </c>
       <c r="AT103">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU103">
         <v>1.85</v>
@@ -20872,7 +20872,7 @@
         <v>1.22</v>
       </c>
       <c r="AS104">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT104">
         <v>1.4</v>
@@ -21830,7 +21830,7 @@
         <v>1.9</v>
       </c>
       <c r="AT109">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU109">
         <v>1.94</v>
@@ -23983,6 +23983,197 @@
       </c>
       <c r="BK120">
         <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2365294</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44991.625</v>
+      </c>
+      <c r="F121">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>73</v>
+      </c>
+      <c r="H121" t="s">
+        <v>65</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121" t="s">
+        <v>80</v>
+      </c>
+      <c r="P121" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+      <c r="R121">
+        <v>3</v>
+      </c>
+      <c r="S121">
+        <v>4</v>
+      </c>
+      <c r="T121">
+        <v>4.33</v>
+      </c>
+      <c r="U121">
+        <v>2.2</v>
+      </c>
+      <c r="V121">
+        <v>2.6</v>
+      </c>
+      <c r="W121">
+        <v>1.4</v>
+      </c>
+      <c r="X121">
+        <v>2.75</v>
+      </c>
+      <c r="Y121">
+        <v>2.75</v>
+      </c>
+      <c r="Z121">
+        <v>1.4</v>
+      </c>
+      <c r="AA121">
+        <v>8</v>
+      </c>
+      <c r="AB121">
+        <v>1.08</v>
+      </c>
+      <c r="AC121">
+        <v>3.1</v>
+      </c>
+      <c r="AD121">
+        <v>3.65</v>
+      </c>
+      <c r="AE121">
+        <v>2.08</v>
+      </c>
+      <c r="AF121">
+        <v>1.06</v>
+      </c>
+      <c r="AG121">
+        <v>11</v>
+      </c>
+      <c r="AH121">
+        <v>1.3</v>
+      </c>
+      <c r="AI121">
+        <v>3.5</v>
+      </c>
+      <c r="AJ121">
+        <v>1.99</v>
+      </c>
+      <c r="AK121">
+        <v>1.78</v>
+      </c>
+      <c r="AL121">
+        <v>1.8</v>
+      </c>
+      <c r="AM121">
+        <v>1.95</v>
+      </c>
+      <c r="AN121">
+        <v>1.9</v>
+      </c>
+      <c r="AO121">
+        <v>1.25</v>
+      </c>
+      <c r="AP121">
+        <v>1.26</v>
+      </c>
+      <c r="AQ121">
+        <v>0.78</v>
+      </c>
+      <c r="AR121">
+        <v>1.89</v>
+      </c>
+      <c r="AS121">
+        <v>0.8</v>
+      </c>
+      <c r="AT121">
+        <v>1.8</v>
+      </c>
+      <c r="AU121">
+        <v>1.31</v>
+      </c>
+      <c r="AV121">
+        <v>1.43</v>
+      </c>
+      <c r="AW121">
+        <v>2.74</v>
+      </c>
+      <c r="AX121">
+        <v>2.46</v>
+      </c>
+      <c r="AY121">
+        <v>7.7</v>
+      </c>
+      <c r="AZ121">
+        <v>1.84</v>
+      </c>
+      <c r="BA121">
+        <v>1.2</v>
+      </c>
+      <c r="BB121">
+        <v>1.41</v>
+      </c>
+      <c r="BC121">
+        <v>1.75</v>
+      </c>
+      <c r="BD121">
+        <v>2.2</v>
+      </c>
+      <c r="BE121">
+        <v>2.91</v>
+      </c>
+      <c r="BF121">
+        <v>8</v>
+      </c>
+      <c r="BG121">
+        <v>5</v>
+      </c>
+      <c r="BH121">
+        <v>2</v>
+      </c>
+      <c r="BI121">
+        <v>6</v>
+      </c>
+      <c r="BJ121">
+        <v>10</v>
+      </c>
+      <c r="BK121">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="229">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>['29', '43', '47', '52', '55', '83', '87']</t>
+  </si>
+  <si>
+    <t>['33', '50']</t>
   </si>
   <si>
     <t>['60']</t>
@@ -1059,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1303,7 +1306,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -1494,7 +1497,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1584,7 +1587,7 @@
         <v>1.9</v>
       </c>
       <c r="AT3">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1685,7 +1688,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2258,7 +2261,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2345,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT7">
         <v>1.6</v>
@@ -2449,7 +2452,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2640,7 +2643,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2831,7 +2834,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3022,7 +3025,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3213,7 +3216,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3595,7 +3598,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3682,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT14">
         <v>1.8</v>
@@ -4168,7 +4171,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4550,7 +4553,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4932,7 +4935,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5314,7 +5317,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -5505,7 +5508,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5592,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT24">
         <v>1.4</v>
@@ -5696,7 +5699,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5786,7 +5789,7 @@
         <v>1.6</v>
       </c>
       <c r="AT25">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU25">
         <v>1.74</v>
@@ -5887,7 +5890,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6078,7 +6081,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -7033,7 +7036,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7224,7 +7227,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>13</v>
@@ -7415,7 +7418,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7797,7 +7800,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8075,7 +8078,7 @@
         <v>1.33</v>
       </c>
       <c r="AS37">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT37">
         <v>0.4</v>
@@ -8460,7 +8463,7 @@
         <v>1.7</v>
       </c>
       <c r="AT39">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU39">
         <v>1.89</v>
@@ -8752,7 +8755,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8943,7 +8946,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9134,7 +9137,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9516,7 +9519,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9603,7 +9606,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT45">
         <v>1.7</v>
@@ -9707,7 +9710,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>10</v>
@@ -9898,7 +9901,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10089,7 +10092,7 @@
         <v>80</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10179,7 +10182,7 @@
         <v>0.9</v>
       </c>
       <c r="AT48">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU48">
         <v>2.17</v>
@@ -10280,7 +10283,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10558,7 +10561,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT50">
         <v>1.6</v>
@@ -10662,7 +10665,7 @@
         <v>98</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10853,7 +10856,7 @@
         <v>112</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -11044,7 +11047,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11426,7 +11429,7 @@
         <v>115</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11808,7 +11811,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11898,7 +11901,7 @@
         <v>1.5</v>
       </c>
       <c r="AT57">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU57">
         <v>1.6</v>
@@ -11999,7 +12002,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12190,7 +12193,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12763,7 +12766,7 @@
         <v>112</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -12954,7 +12957,7 @@
         <v>120</v>
       </c>
       <c r="P63" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13145,7 +13148,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13336,7 +13339,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13718,7 +13721,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13909,7 +13912,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14100,7 +14103,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14291,7 +14294,7 @@
         <v>80</v>
       </c>
       <c r="P70" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14569,7 +14572,7 @@
         <v>1.17</v>
       </c>
       <c r="AS71">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT71">
         <v>1.2</v>
@@ -14673,7 +14676,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14954,7 +14957,7 @@
         <v>1.8</v>
       </c>
       <c r="AT73">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU73">
         <v>1.53</v>
@@ -15055,7 +15058,7 @@
         <v>80</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15145,7 +15148,7 @@
         <v>0.7</v>
       </c>
       <c r="AT74">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU74">
         <v>1.52</v>
@@ -15437,7 +15440,7 @@
         <v>129</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15628,7 +15631,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -16010,7 +16013,7 @@
         <v>132</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16288,7 +16291,7 @@
         <v>0.33</v>
       </c>
       <c r="AS80">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT80">
         <v>0.5</v>
@@ -16392,7 +16395,7 @@
         <v>114</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16583,7 +16586,7 @@
         <v>80</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16774,7 +16777,7 @@
         <v>134</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17156,7 +17159,7 @@
         <v>112</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17538,7 +17541,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17729,7 +17732,7 @@
         <v>80</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17920,7 +17923,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18111,7 +18114,7 @@
         <v>137</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18201,7 +18204,7 @@
         <v>1.5</v>
       </c>
       <c r="AT90">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU90">
         <v>1.94</v>
@@ -18302,7 +18305,7 @@
         <v>138</v>
       </c>
       <c r="P91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18493,7 +18496,7 @@
         <v>139</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q92">
         <v>8</v>
@@ -18684,7 +18687,7 @@
         <v>140</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19257,7 +19260,7 @@
         <v>126</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19344,7 +19347,7 @@
         <v>1.14</v>
       </c>
       <c r="AS96">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT96">
         <v>1.2</v>
@@ -19639,7 +19642,7 @@
         <v>80</v>
       </c>
       <c r="P98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19830,7 +19833,7 @@
         <v>80</v>
       </c>
       <c r="P99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20021,7 +20024,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20212,7 +20215,7 @@
         <v>80</v>
       </c>
       <c r="P101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20403,7 +20406,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20493,7 +20496,7 @@
         <v>2.3</v>
       </c>
       <c r="AT102">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU102">
         <v>1.63</v>
@@ -20785,7 +20788,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21063,7 +21066,7 @@
         <v>1.25</v>
       </c>
       <c r="AS105">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT105">
         <v>1.2</v>
@@ -21167,7 +21170,7 @@
         <v>144</v>
       </c>
       <c r="P106" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21358,7 +21361,7 @@
         <v>80</v>
       </c>
       <c r="P107" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21549,7 +21552,7 @@
         <v>145</v>
       </c>
       <c r="P108" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21740,7 +21743,7 @@
         <v>80</v>
       </c>
       <c r="P109" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21931,7 +21934,7 @@
         <v>146</v>
       </c>
       <c r="P110" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22313,7 +22316,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22594,7 +22597,7 @@
         <v>2</v>
       </c>
       <c r="AT113">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU113">
         <v>2.02</v>
@@ -22695,7 +22698,7 @@
         <v>149</v>
       </c>
       <c r="P114" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22886,7 +22889,7 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23459,7 +23462,7 @@
         <v>152</v>
       </c>
       <c r="P118" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -24174,6 +24177,197 @@
       </c>
       <c r="BK121">
         <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2365301</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44995.625</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>70</v>
+      </c>
+      <c r="H122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>155</v>
+      </c>
+      <c r="P122" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q122">
+        <v>3</v>
+      </c>
+      <c r="R122">
+        <v>6</v>
+      </c>
+      <c r="S122">
+        <v>9</v>
+      </c>
+      <c r="T122">
+        <v>2.88</v>
+      </c>
+      <c r="U122">
+        <v>2.2</v>
+      </c>
+      <c r="V122">
+        <v>3.6</v>
+      </c>
+      <c r="W122">
+        <v>1.36</v>
+      </c>
+      <c r="X122">
+        <v>3</v>
+      </c>
+      <c r="Y122">
+        <v>2.75</v>
+      </c>
+      <c r="Z122">
+        <v>1.4</v>
+      </c>
+      <c r="AA122">
+        <v>7</v>
+      </c>
+      <c r="AB122">
+        <v>1.1</v>
+      </c>
+      <c r="AC122">
+        <v>2.06</v>
+      </c>
+      <c r="AD122">
+        <v>3.6</v>
+      </c>
+      <c r="AE122">
+        <v>3.15</v>
+      </c>
+      <c r="AF122">
+        <v>1.05</v>
+      </c>
+      <c r="AG122">
+        <v>12.25</v>
+      </c>
+      <c r="AH122">
+        <v>1.28</v>
+      </c>
+      <c r="AI122">
+        <v>3.75</v>
+      </c>
+      <c r="AJ122">
+        <v>1.86</v>
+      </c>
+      <c r="AK122">
+        <v>2</v>
+      </c>
+      <c r="AL122">
+        <v>1.67</v>
+      </c>
+      <c r="AM122">
+        <v>2.1</v>
+      </c>
+      <c r="AN122">
+        <v>1.37</v>
+      </c>
+      <c r="AO122">
+        <v>1.3</v>
+      </c>
+      <c r="AP122">
+        <v>1.6</v>
+      </c>
+      <c r="AQ122">
+        <v>1.2</v>
+      </c>
+      <c r="AR122">
+        <v>0.7</v>
+      </c>
+      <c r="AS122">
+        <v>1.36</v>
+      </c>
+      <c r="AT122">
+        <v>0.64</v>
+      </c>
+      <c r="AU122">
+        <v>1.38</v>
+      </c>
+      <c r="AV122">
+        <v>1.36</v>
+      </c>
+      <c r="AW122">
+        <v>2.74</v>
+      </c>
+      <c r="AX122">
+        <v>1.87</v>
+      </c>
+      <c r="AY122">
+        <v>7.7</v>
+      </c>
+      <c r="AZ122">
+        <v>2.41</v>
+      </c>
+      <c r="BA122">
+        <v>1.21</v>
+      </c>
+      <c r="BB122">
+        <v>1.42</v>
+      </c>
+      <c r="BC122">
+        <v>1.76</v>
+      </c>
+      <c r="BD122">
+        <v>2.22</v>
+      </c>
+      <c r="BE122">
+        <v>2.93</v>
+      </c>
+      <c r="BF122">
+        <v>6</v>
+      </c>
+      <c r="BG122">
+        <v>5</v>
+      </c>
+      <c r="BH122">
+        <v>6</v>
+      </c>
+      <c r="BI122">
+        <v>3</v>
+      </c>
+      <c r="BJ122">
+        <v>12</v>
+      </c>
+      <c r="BK122">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -24229,13 +24229,13 @@
         <v>209</v>
       </c>
       <c r="Q122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R122">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S122">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T122">
         <v>2.88</v>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,18 @@
     <t>['33', '50']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['31', '79']</t>
+  </si>
+  <si>
     <t>['60']</t>
   </si>
   <si>
@@ -595,9 +607,6 @@
     <t>['32', '90+1']</t>
   </si>
   <si>
-    <t>['57']</t>
-  </si>
-  <si>
     <t>['69']</t>
   </si>
   <si>
@@ -701,6 +710,12 @@
   </si>
   <si>
     <t>['64', '71']</t>
+  </si>
+  <si>
+    <t>['16', '79', '86']</t>
+  </si>
+  <si>
+    <t>['48', '52', '54', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK122"/>
+  <dimension ref="A1:BK126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1321,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -1393,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT2">
         <v>1.2</v>
@@ -1497,7 +1512,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1584,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT3">
         <v>0.64</v>
@@ -1688,7 +1703,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1778,7 +1793,7 @@
         <v>0.7</v>
       </c>
       <c r="AT4">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2157,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT6">
         <v>1.4</v>
@@ -2261,7 +2276,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2351,7 +2366,7 @@
         <v>1.36</v>
       </c>
       <c r="AT7">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2452,7 +2467,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2539,10 +2554,10 @@
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT8">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU8">
         <v>2.54</v>
@@ -2643,7 +2658,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2834,7 +2849,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3025,7 +3040,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3112,10 +3127,10 @@
         <v>3</v>
       </c>
       <c r="AS11">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT11">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU11">
         <v>2.05</v>
@@ -3216,7 +3231,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3306,7 +3321,7 @@
         <v>0.8</v>
       </c>
       <c r="AT12">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3494,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT13">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3598,7 +3613,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4171,7 +4186,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4258,10 +4273,10 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT17">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU17">
         <v>2.27</v>
@@ -4553,7 +4568,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4643,7 +4658,7 @@
         <v>2.3</v>
       </c>
       <c r="AT19">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4935,7 +4950,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5317,7 +5332,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -5508,7 +5523,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5699,7 +5714,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5890,7 +5905,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5977,7 +5992,7 @@
         <v>2</v>
       </c>
       <c r="AS26">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT26">
         <v>1.8</v>
@@ -6081,7 +6096,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6359,10 +6374,10 @@
         <v>2</v>
       </c>
       <c r="AS28">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT28">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU28">
         <v>1.99</v>
@@ -6553,7 +6568,7 @@
         <v>0.8</v>
       </c>
       <c r="AT29">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU29">
         <v>1.87</v>
@@ -6741,7 +6756,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT30">
         <v>1.3</v>
@@ -6935,7 +6950,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU31">
         <v>1.65</v>
@@ -7036,7 +7051,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7126,7 +7141,7 @@
         <v>0.7</v>
       </c>
       <c r="AT32">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU32">
         <v>1.21</v>
@@ -7227,7 +7242,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q33">
         <v>13</v>
@@ -7314,7 +7329,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT33">
         <v>1.4</v>
@@ -7418,7 +7433,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7508,7 +7523,7 @@
         <v>2.3</v>
       </c>
       <c r="AT34">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU34">
         <v>1.19</v>
@@ -7800,7 +7815,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8269,7 +8284,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT38">
         <v>1.4</v>
@@ -8651,10 +8666,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT40">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU40">
         <v>1.71</v>
@@ -8755,7 +8770,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8845,7 +8860,7 @@
         <v>2.3</v>
       </c>
       <c r="AT41">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU41">
         <v>1.29</v>
@@ -8946,7 +8961,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9137,7 +9152,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9224,7 +9239,7 @@
         <v>1.67</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT43">
         <v>1.8</v>
@@ -9418,7 +9433,7 @@
         <v>2</v>
       </c>
       <c r="AT44">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU44">
         <v>2.32</v>
@@ -9519,7 +9534,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9710,7 +9725,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q46">
         <v>10</v>
@@ -9901,7 +9916,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -9988,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT47">
         <v>1.2</v>
@@ -10092,7 +10107,7 @@
         <v>80</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10179,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT48">
         <v>0.64</v>
@@ -10283,7 +10298,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10373,7 +10388,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU49">
         <v>1.52</v>
@@ -10564,7 +10579,7 @@
         <v>1.36</v>
       </c>
       <c r="AT50">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU50">
         <v>1.51</v>
@@ -10665,7 +10680,7 @@
         <v>98</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10755,7 +10770,7 @@
         <v>0.8</v>
       </c>
       <c r="AT51">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU51">
         <v>1.57</v>
@@ -10856,7 +10871,7 @@
         <v>112</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -11047,7 +11062,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11134,7 +11149,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT53">
         <v>1.2</v>
@@ -11429,7 +11444,7 @@
         <v>115</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11516,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT55">
         <v>0.4</v>
@@ -11707,10 +11722,10 @@
         <v>2.5</v>
       </c>
       <c r="AS56">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT56">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU56">
         <v>1.7</v>
@@ -11811,7 +11826,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12002,7 +12017,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12193,7 +12208,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12283,7 +12298,7 @@
         <v>1.7</v>
       </c>
       <c r="AT59">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU59">
         <v>1.8</v>
@@ -12471,7 +12486,7 @@
         <v>0.75</v>
       </c>
       <c r="AS60">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT60">
         <v>1.2</v>
@@ -12662,10 +12677,10 @@
         <v>1.2</v>
       </c>
       <c r="AS61">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT61">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU61">
         <v>2.16</v>
@@ -12766,7 +12781,7 @@
         <v>112</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -12957,7 +12972,7 @@
         <v>120</v>
       </c>
       <c r="P63" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13148,7 +13163,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13235,7 +13250,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT64">
         <v>1.7</v>
@@ -13339,7 +13354,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13426,10 +13441,10 @@
         <v>0.2</v>
       </c>
       <c r="AS65">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT65">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU65">
         <v>1.8</v>
@@ -13721,7 +13736,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13912,7 +13927,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14103,7 +14118,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14193,7 +14208,7 @@
         <v>2</v>
       </c>
       <c r="AT69">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU69">
         <v>2.16</v>
@@ -14294,7 +14309,7 @@
         <v>80</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14575,7 +14590,7 @@
         <v>1.36</v>
       </c>
       <c r="AT71">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU71">
         <v>1.52</v>
@@ -14676,7 +14691,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14954,7 +14969,7 @@
         <v>0.6</v>
       </c>
       <c r="AS73">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT73">
         <v>0.64</v>
@@ -15058,7 +15073,7 @@
         <v>80</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15336,7 +15351,7 @@
         <v>1.6</v>
       </c>
       <c r="AS75">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT75">
         <v>1.3</v>
@@ -15440,7 +15455,7 @@
         <v>129</v>
       </c>
       <c r="P76" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15527,10 +15542,10 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT76">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU76">
         <v>1.96</v>
@@ -15631,7 +15646,7 @@
         <v>130</v>
       </c>
       <c r="P77" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15909,7 +15924,7 @@
         <v>0.67</v>
       </c>
       <c r="AS78">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT78">
         <v>0.4</v>
@@ -16013,7 +16028,7 @@
         <v>132</v>
       </c>
       <c r="P79" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16294,7 +16309,7 @@
         <v>1.36</v>
       </c>
       <c r="AT80">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU80">
         <v>1.46</v>
@@ -16395,7 +16410,7 @@
         <v>114</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16586,7 +16601,7 @@
         <v>80</v>
       </c>
       <c r="P82" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16676,7 +16691,7 @@
         <v>1.7</v>
       </c>
       <c r="AT82">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU82">
         <v>1.81</v>
@@ -16777,7 +16792,7 @@
         <v>134</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16864,10 +16879,10 @@
         <v>1.14</v>
       </c>
       <c r="AS83">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT83">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU83">
         <v>1.44</v>
@@ -17159,7 +17174,7 @@
         <v>112</v>
       </c>
       <c r="P85" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17541,7 +17556,7 @@
         <v>80</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17631,7 +17646,7 @@
         <v>1.7</v>
       </c>
       <c r="AT87">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU87">
         <v>1.85</v>
@@ -17732,7 +17747,7 @@
         <v>80</v>
       </c>
       <c r="P88" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17923,7 +17938,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18114,7 +18129,7 @@
         <v>137</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18201,7 +18216,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT90">
         <v>0.64</v>
@@ -18305,7 +18320,7 @@
         <v>138</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18392,7 +18407,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT91">
         <v>1.3</v>
@@ -18496,7 +18511,7 @@
         <v>139</v>
       </c>
       <c r="P92" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q92">
         <v>8</v>
@@ -18583,7 +18598,7 @@
         <v>1.43</v>
       </c>
       <c r="AS92">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT92">
         <v>1.2</v>
@@ -18687,7 +18702,7 @@
         <v>140</v>
       </c>
       <c r="P93" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18777,7 +18792,7 @@
         <v>0.8</v>
       </c>
       <c r="AT93">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU93">
         <v>1.38</v>
@@ -18965,7 +18980,7 @@
         <v>1.25</v>
       </c>
       <c r="AS94">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT94">
         <v>1.4</v>
@@ -19159,7 +19174,7 @@
         <v>2</v>
       </c>
       <c r="AT95">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU95">
         <v>2.03</v>
@@ -19260,7 +19275,7 @@
         <v>126</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19538,10 +19553,10 @@
         <v>2</v>
       </c>
       <c r="AS97">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT97">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU97">
         <v>2.09</v>
@@ -19642,7 +19657,7 @@
         <v>80</v>
       </c>
       <c r="P98" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19732,7 +19747,7 @@
         <v>1.6</v>
       </c>
       <c r="AT98">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU98">
         <v>1.63</v>
@@ -19833,7 +19848,7 @@
         <v>80</v>
       </c>
       <c r="P99" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19923,7 +19938,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU99">
         <v>1.58</v>
@@ -20024,7 +20039,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20111,7 +20126,7 @@
         <v>1.71</v>
       </c>
       <c r="AS100">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT100">
         <v>1.3</v>
@@ -20215,7 +20230,7 @@
         <v>80</v>
       </c>
       <c r="P101" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20302,7 +20317,7 @@
         <v>1.38</v>
       </c>
       <c r="AS101">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT101">
         <v>1.7</v>
@@ -20406,7 +20421,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20788,7 +20803,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21170,7 +21185,7 @@
         <v>144</v>
       </c>
       <c r="P106" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21260,7 +21275,7 @@
         <v>0.7</v>
       </c>
       <c r="AT106">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU106">
         <v>1.61</v>
@@ -21361,7 +21376,7 @@
         <v>80</v>
       </c>
       <c r="P107" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21451,7 +21466,7 @@
         <v>1.6</v>
       </c>
       <c r="AT107">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU107">
         <v>1.69</v>
@@ -21552,7 +21567,7 @@
         <v>145</v>
       </c>
       <c r="P108" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21639,7 +21654,7 @@
         <v>0.5</v>
       </c>
       <c r="AS108">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT108">
         <v>0.4</v>
@@ -21743,7 +21758,7 @@
         <v>80</v>
       </c>
       <c r="P109" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21830,7 +21845,7 @@
         <v>1.75</v>
       </c>
       <c r="AS109">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT109">
         <v>1.8</v>
@@ -21934,7 +21949,7 @@
         <v>146</v>
       </c>
       <c r="P110" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22215,7 +22230,7 @@
         <v>1.7</v>
       </c>
       <c r="AT111">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU111">
         <v>1.71</v>
@@ -22316,7 +22331,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22403,7 +22418,7 @@
         <v>1.56</v>
       </c>
       <c r="AS112">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT112">
         <v>1.7</v>
@@ -22698,7 +22713,7 @@
         <v>149</v>
       </c>
       <c r="P114" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22788,7 +22803,7 @@
         <v>1.5</v>
       </c>
       <c r="AT114">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU114">
         <v>1.54</v>
@@ -22889,7 +22904,7 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -22976,7 +22991,7 @@
         <v>1.13</v>
       </c>
       <c r="AS115">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT115">
         <v>1.2</v>
@@ -23361,7 +23376,7 @@
         <v>1.6</v>
       </c>
       <c r="AT117">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU117">
         <v>1.67</v>
@@ -23462,7 +23477,7 @@
         <v>152</v>
       </c>
       <c r="P118" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23549,7 +23564,7 @@
         <v>1.22</v>
       </c>
       <c r="AS118">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT118">
         <v>1.2</v>
@@ -24226,7 +24241,7 @@
         <v>155</v>
       </c>
       <c r="P122" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24367,6 +24382,770 @@
         <v>12</v>
       </c>
       <c r="BK122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2365302</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>66</v>
+      </c>
+      <c r="H123" t="s">
+        <v>76</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>156</v>
+      </c>
+      <c r="P123" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q123">
+        <v>3</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>5</v>
+      </c>
+      <c r="T123">
+        <v>3.1</v>
+      </c>
+      <c r="U123">
+        <v>2.2</v>
+      </c>
+      <c r="V123">
+        <v>3.4</v>
+      </c>
+      <c r="W123">
+        <v>1.4</v>
+      </c>
+      <c r="X123">
+        <v>2.75</v>
+      </c>
+      <c r="Y123">
+        <v>2.75</v>
+      </c>
+      <c r="Z123">
+        <v>1.4</v>
+      </c>
+      <c r="AA123">
+        <v>8</v>
+      </c>
+      <c r="AB123">
+        <v>1.08</v>
+      </c>
+      <c r="AC123">
+        <v>2.31</v>
+      </c>
+      <c r="AD123">
+        <v>3.6</v>
+      </c>
+      <c r="AE123">
+        <v>2.71</v>
+      </c>
+      <c r="AF123">
+        <v>1.04</v>
+      </c>
+      <c r="AG123">
+        <v>10.5</v>
+      </c>
+      <c r="AH123">
+        <v>1.29</v>
+      </c>
+      <c r="AI123">
+        <v>3.55</v>
+      </c>
+      <c r="AJ123">
+        <v>1.95</v>
+      </c>
+      <c r="AK123">
+        <v>1.85</v>
+      </c>
+      <c r="AL123">
+        <v>1.7</v>
+      </c>
+      <c r="AM123">
+        <v>2.05</v>
+      </c>
+      <c r="AN123">
+        <v>1.4</v>
+      </c>
+      <c r="AO123">
+        <v>1.3</v>
+      </c>
+      <c r="AP123">
+        <v>1.55</v>
+      </c>
+      <c r="AQ123">
+        <v>1.9</v>
+      </c>
+      <c r="AR123">
+        <v>1.6</v>
+      </c>
+      <c r="AS123">
+        <v>1.82</v>
+      </c>
+      <c r="AT123">
+        <v>1.55</v>
+      </c>
+      <c r="AU123">
+        <v>1.76</v>
+      </c>
+      <c r="AV123">
+        <v>1.66</v>
+      </c>
+      <c r="AW123">
+        <v>3.42</v>
+      </c>
+      <c r="AX123">
+        <v>2.06</v>
+      </c>
+      <c r="AY123">
+        <v>7.6</v>
+      </c>
+      <c r="AZ123">
+        <v>2.13</v>
+      </c>
+      <c r="BA123">
+        <v>1.24</v>
+      </c>
+      <c r="BB123">
+        <v>1.48</v>
+      </c>
+      <c r="BC123">
+        <v>1.87</v>
+      </c>
+      <c r="BD123">
+        <v>2.39</v>
+      </c>
+      <c r="BE123">
+        <v>3.2</v>
+      </c>
+      <c r="BF123">
+        <v>3</v>
+      </c>
+      <c r="BG123">
+        <v>5</v>
+      </c>
+      <c r="BH123">
+        <v>7</v>
+      </c>
+      <c r="BI123">
+        <v>4</v>
+      </c>
+      <c r="BJ123">
+        <v>10</v>
+      </c>
+      <c r="BK123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2365303</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>65</v>
+      </c>
+      <c r="H124" t="s">
+        <v>67</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124">
+        <v>4</v>
+      </c>
+      <c r="O124" t="s">
+        <v>157</v>
+      </c>
+      <c r="P124" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q124">
+        <v>4</v>
+      </c>
+      <c r="R124">
+        <v>4</v>
+      </c>
+      <c r="S124">
+        <v>8</v>
+      </c>
+      <c r="T124">
+        <v>2.2</v>
+      </c>
+      <c r="U124">
+        <v>2.3</v>
+      </c>
+      <c r="V124">
+        <v>5.5</v>
+      </c>
+      <c r="W124">
+        <v>1.33</v>
+      </c>
+      <c r="X124">
+        <v>3.25</v>
+      </c>
+      <c r="Y124">
+        <v>2.63</v>
+      </c>
+      <c r="Z124">
+        <v>1.44</v>
+      </c>
+      <c r="AA124">
+        <v>7</v>
+      </c>
+      <c r="AB124">
+        <v>1.1</v>
+      </c>
+      <c r="AC124">
+        <v>1.48</v>
+      </c>
+      <c r="AD124">
+        <v>4.35</v>
+      </c>
+      <c r="AE124">
+        <v>5.7</v>
+      </c>
+      <c r="AF124">
+        <v>1.03</v>
+      </c>
+      <c r="AG124">
+        <v>12.5</v>
+      </c>
+      <c r="AH124">
+        <v>1.25</v>
+      </c>
+      <c r="AI124">
+        <v>3.95</v>
+      </c>
+      <c r="AJ124">
+        <v>1.79</v>
+      </c>
+      <c r="AK124">
+        <v>2.02</v>
+      </c>
+      <c r="AL124">
+        <v>1.8</v>
+      </c>
+      <c r="AM124">
+        <v>1.95</v>
+      </c>
+      <c r="AN124">
+        <v>1.12</v>
+      </c>
+      <c r="AO124">
+        <v>1.21</v>
+      </c>
+      <c r="AP124">
+        <v>2.5</v>
+      </c>
+      <c r="AQ124">
+        <v>0.9</v>
+      </c>
+      <c r="AR124">
+        <v>0.5</v>
+      </c>
+      <c r="AS124">
+        <v>0.82</v>
+      </c>
+      <c r="AT124">
+        <v>0.73</v>
+      </c>
+      <c r="AU124">
+        <v>2.06</v>
+      </c>
+      <c r="AV124">
+        <v>1.58</v>
+      </c>
+      <c r="AW124">
+        <v>3.64</v>
+      </c>
+      <c r="AX124">
+        <v>1.36</v>
+      </c>
+      <c r="AY124">
+        <v>9</v>
+      </c>
+      <c r="AZ124">
+        <v>4.26</v>
+      </c>
+      <c r="BA124">
+        <v>1.2</v>
+      </c>
+      <c r="BB124">
+        <v>1.41</v>
+      </c>
+      <c r="BC124">
+        <v>1.76</v>
+      </c>
+      <c r="BD124">
+        <v>2.22</v>
+      </c>
+      <c r="BE124">
+        <v>2.93</v>
+      </c>
+      <c r="BF124">
+        <v>4</v>
+      </c>
+      <c r="BG124">
+        <v>7</v>
+      </c>
+      <c r="BH124">
+        <v>7</v>
+      </c>
+      <c r="BI124">
+        <v>1</v>
+      </c>
+      <c r="BJ124">
+        <v>11</v>
+      </c>
+      <c r="BK124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2365299</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44997.5</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>74</v>
+      </c>
+      <c r="H125" t="s">
+        <v>68</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>4</v>
+      </c>
+      <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125" t="s">
+        <v>158</v>
+      </c>
+      <c r="P125" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+      <c r="R125">
+        <v>5</v>
+      </c>
+      <c r="S125">
+        <v>10</v>
+      </c>
+      <c r="T125">
+        <v>6</v>
+      </c>
+      <c r="U125">
+        <v>2.25</v>
+      </c>
+      <c r="V125">
+        <v>2.1</v>
+      </c>
+      <c r="W125">
+        <v>1.36</v>
+      </c>
+      <c r="X125">
+        <v>3</v>
+      </c>
+      <c r="Y125">
+        <v>2.75</v>
+      </c>
+      <c r="Z125">
+        <v>1.4</v>
+      </c>
+      <c r="AA125">
+        <v>8</v>
+      </c>
+      <c r="AB125">
+        <v>1.08</v>
+      </c>
+      <c r="AC125">
+        <v>4.45</v>
+      </c>
+      <c r="AD125">
+        <v>3.85</v>
+      </c>
+      <c r="AE125">
+        <v>1.68</v>
+      </c>
+      <c r="AF125">
+        <v>1.03</v>
+      </c>
+      <c r="AG125">
+        <v>12.5</v>
+      </c>
+      <c r="AH125">
+        <v>1.25</v>
+      </c>
+      <c r="AI125">
+        <v>3.95</v>
+      </c>
+      <c r="AJ125">
+        <v>1.86</v>
+      </c>
+      <c r="AK125">
+        <v>2</v>
+      </c>
+      <c r="AL125">
+        <v>1.95</v>
+      </c>
+      <c r="AM125">
+        <v>1.8</v>
+      </c>
+      <c r="AN125">
+        <v>2.4</v>
+      </c>
+      <c r="AO125">
+        <v>1.21</v>
+      </c>
+      <c r="AP125">
+        <v>1.14</v>
+      </c>
+      <c r="AQ125">
+        <v>1.8</v>
+      </c>
+      <c r="AR125">
+        <v>1.6</v>
+      </c>
+      <c r="AS125">
+        <v>1.64</v>
+      </c>
+      <c r="AT125">
+        <v>1.73</v>
+      </c>
+      <c r="AU125">
+        <v>1.52</v>
+      </c>
+      <c r="AV125">
+        <v>1.7</v>
+      </c>
+      <c r="AW125">
+        <v>3.22</v>
+      </c>
+      <c r="AX125">
+        <v>5.05</v>
+      </c>
+      <c r="AY125">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ125">
+        <v>1.27</v>
+      </c>
+      <c r="BA125">
+        <v>1.2</v>
+      </c>
+      <c r="BB125">
+        <v>1.41</v>
+      </c>
+      <c r="BC125">
+        <v>1.76</v>
+      </c>
+      <c r="BD125">
+        <v>2.22</v>
+      </c>
+      <c r="BE125">
+        <v>2.93</v>
+      </c>
+      <c r="BF125">
+        <v>3</v>
+      </c>
+      <c r="BG125">
+        <v>7</v>
+      </c>
+      <c r="BH125">
+        <v>6</v>
+      </c>
+      <c r="BI125">
+        <v>5</v>
+      </c>
+      <c r="BJ125">
+        <v>9</v>
+      </c>
+      <c r="BK125">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2365298</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44997.58333333334</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>69</v>
+      </c>
+      <c r="H126" t="s">
+        <v>75</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>159</v>
+      </c>
+      <c r="P126" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q126">
+        <v>6</v>
+      </c>
+      <c r="R126">
+        <v>8</v>
+      </c>
+      <c r="S126">
+        <v>14</v>
+      </c>
+      <c r="T126">
+        <v>2.5</v>
+      </c>
+      <c r="U126">
+        <v>2.3</v>
+      </c>
+      <c r="V126">
+        <v>4</v>
+      </c>
+      <c r="W126">
+        <v>1.33</v>
+      </c>
+      <c r="X126">
+        <v>3.25</v>
+      </c>
+      <c r="Y126">
+        <v>2.63</v>
+      </c>
+      <c r="Z126">
+        <v>1.44</v>
+      </c>
+      <c r="AA126">
+        <v>6.5</v>
+      </c>
+      <c r="AB126">
+        <v>1.11</v>
+      </c>
+      <c r="AC126">
+        <v>1.98</v>
+      </c>
+      <c r="AD126">
+        <v>3.7</v>
+      </c>
+      <c r="AE126">
+        <v>3.55</v>
+      </c>
+      <c r="AF126">
+        <v>1.03</v>
+      </c>
+      <c r="AG126">
+        <v>12.5</v>
+      </c>
+      <c r="AH126">
+        <v>1.25</v>
+      </c>
+      <c r="AI126">
+        <v>3.95</v>
+      </c>
+      <c r="AJ126">
+        <v>1.82</v>
+      </c>
+      <c r="AK126">
+        <v>1.99</v>
+      </c>
+      <c r="AL126">
+        <v>1.67</v>
+      </c>
+      <c r="AM126">
+        <v>2.1</v>
+      </c>
+      <c r="AN126">
+        <v>1.27</v>
+      </c>
+      <c r="AO126">
+        <v>1.26</v>
+      </c>
+      <c r="AP126">
+        <v>1.83</v>
+      </c>
+      <c r="AQ126">
+        <v>1.5</v>
+      </c>
+      <c r="AR126">
+        <v>1.2</v>
+      </c>
+      <c r="AS126">
+        <v>1.64</v>
+      </c>
+      <c r="AT126">
+        <v>1.09</v>
+      </c>
+      <c r="AU126">
+        <v>1.9</v>
+      </c>
+      <c r="AV126">
+        <v>1.5</v>
+      </c>
+      <c r="AW126">
+        <v>3.4</v>
+      </c>
+      <c r="AX126">
+        <v>1.5</v>
+      </c>
+      <c r="AY126">
+        <v>8.4</v>
+      </c>
+      <c r="AZ126">
+        <v>3.32</v>
+      </c>
+      <c r="BA126">
+        <v>1.2</v>
+      </c>
+      <c r="BB126">
+        <v>1.41</v>
+      </c>
+      <c r="BC126">
+        <v>1.76</v>
+      </c>
+      <c r="BD126">
+        <v>2.2</v>
+      </c>
+      <c r="BE126">
+        <v>2.93</v>
+      </c>
+      <c r="BF126">
+        <v>10</v>
+      </c>
+      <c r="BG126">
+        <v>4</v>
+      </c>
+      <c r="BH126">
+        <v>4</v>
+      </c>
+      <c r="BI126">
+        <v>4</v>
+      </c>
+      <c r="BJ126">
+        <v>14</v>
+      </c>
+      <c r="BK126">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,9 @@
     <t>['31', '79']</t>
   </si>
   <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['60']</t>
   </si>
   <si>
@@ -616,9 +619,6 @@
     <t>['8', '60', '88']</t>
   </si>
   <si>
-    <t>['87']</t>
-  </si>
-  <si>
     <t>['8']</t>
   </si>
   <si>
@@ -716,6 +716,9 @@
   </si>
   <si>
     <t>['48', '52', '54', '90+5']</t>
+  </si>
+  <si>
+    <t>['45+2', '53']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1321,7 +1324,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -1512,7 +1515,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1703,7 +1706,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2175,7 +2178,7 @@
         <v>1.64</v>
       </c>
       <c r="AT6">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2276,7 +2279,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2467,7 +2470,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2658,7 +2661,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2849,7 +2852,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -2936,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT10">
         <v>1.3</v>
@@ -3040,7 +3043,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3231,7 +3234,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3613,7 +3616,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4186,7 +4189,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4568,7 +4571,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4846,7 +4849,7 @@
         <v>2</v>
       </c>
       <c r="AS20">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT20">
         <v>0.4</v>
@@ -4950,7 +4953,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5332,7 +5335,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -5523,7 +5526,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5613,7 +5616,7 @@
         <v>1.36</v>
       </c>
       <c r="AT24">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU24">
         <v>1.32</v>
@@ -5714,7 +5717,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5905,7 +5908,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6096,7 +6099,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -7051,7 +7054,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7242,7 +7245,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q33">
         <v>13</v>
@@ -7332,7 +7335,7 @@
         <v>0.82</v>
       </c>
       <c r="AT33">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU33">
         <v>2.14</v>
@@ -7433,7 +7436,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7711,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT35">
         <v>1.7</v>
@@ -7815,7 +7818,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8287,7 +8290,7 @@
         <v>1.64</v>
       </c>
       <c r="AT38">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU38">
         <v>2.08</v>
@@ -8475,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT39">
         <v>0.64</v>
@@ -8770,7 +8773,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8961,7 +8964,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9152,7 +9155,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9534,7 +9537,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9725,7 +9728,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>10</v>
@@ -9916,7 +9919,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10107,7 +10110,7 @@
         <v>80</v>
       </c>
       <c r="P48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>9</v>
@@ -10298,7 +10301,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10680,7 +10683,7 @@
         <v>98</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10871,7 +10874,7 @@
         <v>112</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -11062,7 +11065,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11343,7 +11346,7 @@
         <v>1.6</v>
       </c>
       <c r="AT54">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU54">
         <v>2.02</v>
@@ -11444,7 +11447,7 @@
         <v>115</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11826,7 +11829,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12017,7 +12020,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12208,7 +12211,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12295,7 +12298,7 @@
         <v>1.4</v>
       </c>
       <c r="AS59">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT59">
         <v>1.09</v>
@@ -12972,7 +12975,7 @@
         <v>120</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13163,7 +13166,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13354,7 +13357,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13635,7 +13638,7 @@
         <v>2</v>
       </c>
       <c r="AT66">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU66">
         <v>2.29</v>
@@ -13736,7 +13739,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14118,7 +14121,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14309,7 +14312,7 @@
         <v>80</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14778,7 +14781,7 @@
         <v>0.8</v>
       </c>
       <c r="AS72">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT72">
         <v>1.2</v>
@@ -15736,7 +15739,7 @@
         <v>2.3</v>
       </c>
       <c r="AT77">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU77">
         <v>1.54</v>
@@ -16688,7 +16691,7 @@
         <v>1.83</v>
       </c>
       <c r="AS82">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT82">
         <v>1.55</v>
@@ -17643,7 +17646,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT87">
         <v>1.73</v>
@@ -17837,7 +17840,7 @@
         <v>0.7</v>
       </c>
       <c r="AT88">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU88">
         <v>1.67</v>
@@ -18983,7 +18986,7 @@
         <v>1.82</v>
       </c>
       <c r="AT94">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU94">
         <v>1.91</v>
@@ -20421,7 +20424,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20699,7 +20702,7 @@
         <v>1.86</v>
       </c>
       <c r="AS103">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT103">
         <v>1.8</v>
@@ -20893,7 +20896,7 @@
         <v>0.8</v>
       </c>
       <c r="AT104">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU104">
         <v>1.42</v>
@@ -22227,7 +22230,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS111">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT111">
         <v>0.73</v>
@@ -25147,6 +25150,197 @@
       </c>
       <c r="BK126">
         <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2365300</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44998.625</v>
+      </c>
+      <c r="F127">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>72</v>
+      </c>
+      <c r="H127" t="s">
+        <v>71</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>160</v>
+      </c>
+      <c r="P127" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q127">
+        <v>3</v>
+      </c>
+      <c r="R127">
+        <v>9</v>
+      </c>
+      <c r="S127">
+        <v>12</v>
+      </c>
+      <c r="T127">
+        <v>3.25</v>
+      </c>
+      <c r="U127">
+        <v>2</v>
+      </c>
+      <c r="V127">
+        <v>3.5</v>
+      </c>
+      <c r="W127">
+        <v>1.5</v>
+      </c>
+      <c r="X127">
+        <v>2.5</v>
+      </c>
+      <c r="Y127">
+        <v>3.4</v>
+      </c>
+      <c r="Z127">
+        <v>1.3</v>
+      </c>
+      <c r="AA127">
+        <v>10</v>
+      </c>
+      <c r="AB127">
+        <v>1.06</v>
+      </c>
+      <c r="AC127">
+        <v>2.4</v>
+      </c>
+      <c r="AD127">
+        <v>3.3</v>
+      </c>
+      <c r="AE127">
+        <v>2.95</v>
+      </c>
+      <c r="AF127">
+        <v>1.08</v>
+      </c>
+      <c r="AG127">
+        <v>7.9</v>
+      </c>
+      <c r="AH127">
+        <v>1.44</v>
+      </c>
+      <c r="AI127">
+        <v>2.75</v>
+      </c>
+      <c r="AJ127">
+        <v>2.01</v>
+      </c>
+      <c r="AK127">
+        <v>1.81</v>
+      </c>
+      <c r="AL127">
+        <v>1.95</v>
+      </c>
+      <c r="AM127">
+        <v>1.8</v>
+      </c>
+      <c r="AN127">
+        <v>1.38</v>
+      </c>
+      <c r="AO127">
+        <v>1.35</v>
+      </c>
+      <c r="AP127">
+        <v>1.52</v>
+      </c>
+      <c r="AQ127">
+        <v>1.7</v>
+      </c>
+      <c r="AR127">
+        <v>1.4</v>
+      </c>
+      <c r="AS127">
+        <v>1.55</v>
+      </c>
+      <c r="AT127">
+        <v>1.55</v>
+      </c>
+      <c r="AU127">
+        <v>1.72</v>
+      </c>
+      <c r="AV127">
+        <v>1.5</v>
+      </c>
+      <c r="AW127">
+        <v>3.22</v>
+      </c>
+      <c r="AX127">
+        <v>1.84</v>
+      </c>
+      <c r="AY127">
+        <v>7.8</v>
+      </c>
+      <c r="AZ127">
+        <v>2.45</v>
+      </c>
+      <c r="BA127">
+        <v>1.21</v>
+      </c>
+      <c r="BB127">
+        <v>1.42</v>
+      </c>
+      <c r="BC127">
+        <v>1.76</v>
+      </c>
+      <c r="BD127">
+        <v>2.22</v>
+      </c>
+      <c r="BE127">
+        <v>2.93</v>
+      </c>
+      <c r="BF127">
+        <v>4</v>
+      </c>
+      <c r="BG127">
+        <v>5</v>
+      </c>
+      <c r="BH127">
+        <v>5</v>
+      </c>
+      <c r="BI127">
+        <v>7</v>
+      </c>
+      <c r="BJ127">
+        <v>9</v>
+      </c>
+      <c r="BK127">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -376,10 +376,10 @@
     <t>['18', '36']</t>
   </si>
   <si>
-    <t>['37', '50']</t>
+    <t>['44']</t>
   </si>
   <si>
-    <t>['44']</t>
+    <t>['37', '50']</t>
   </si>
   <si>
     <t>['16', '18', '75']</t>
@@ -469,10 +469,10 @@
     <t>['27', '60']</t>
   </si>
   <si>
-    <t>['65', '90+4']</t>
+    <t>['9', '14']</t>
   </si>
   <si>
-    <t>['9', '14']</t>
+    <t>['65', '90+4']</t>
   </si>
   <si>
     <t>['63']</t>
@@ -499,16 +499,16 @@
     <t>['87']</t>
   </si>
   <si>
-    <t>['30', '60', '86']</t>
+    <t>['24']</t>
   </si>
   <si>
-    <t>['13', '66']</t>
+    <t>['30', '60', '86']</t>
   </si>
   <si>
     <t>['52', '90+1']</t>
   </si>
   <si>
-    <t>['24']</t>
+    <t>['13', '66']</t>
   </si>
   <si>
     <t>['60']</t>
@@ -616,16 +616,16 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['32', '90+1']</t>
+  </si>
+  <si>
     <t>['13', '62']</t>
   </si>
   <si>
-    <t>['32', '90+1']</t>
+    <t>['43']</t>
   </si>
   <si>
     <t>['69']</t>
-  </si>
-  <si>
-    <t>['43']</t>
   </si>
   <si>
     <t>['8', '60', '88']</t>
@@ -736,10 +736,10 @@
     <t>['14', '45+3', '76']</t>
   </si>
   <si>
-    <t>['70']</t>
+    <t>['39']</t>
   </si>
   <si>
-    <t>['39']</t>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -11999,7 +11999,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2365232</v>
+        <v>2365233</v>
       </c>
       <c r="C58" t="s">
         <v>63</v>
@@ -12014,52 +12014,52 @@
         <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H58" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>1</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M58">
         <v>2</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O58" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="P58" t="s">
         <v>200</v>
       </c>
       <c r="Q58">
+        <v>6</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
         <v>8</v>
       </c>
-      <c r="R58">
-        <v>2</v>
-      </c>
-      <c r="S58">
-        <v>10</v>
-      </c>
       <c r="T58">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="U58">
         <v>2.25</v>
       </c>
       <c r="V58">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="W58">
         <v>1.33</v>
@@ -12074,19 +12074,19 @@
         <v>1.44</v>
       </c>
       <c r="AA58">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB58">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC58">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="AD58">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AE58">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="AF58">
         <v>1.03</v>
@@ -12101,88 +12101,88 @@
         <v>3.95</v>
       </c>
       <c r="AJ58">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AK58">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AL58">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AM58">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AN58">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AO58">
         <v>1.3</v>
       </c>
       <c r="AP58">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="AR58">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AS58">
-        <v>0.73</v>
+        <v>1.55</v>
       </c>
       <c r="AT58">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="AU58">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="AV58">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AW58">
-        <v>2.68</v>
+        <v>3.16</v>
       </c>
       <c r="AX58">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="AY58">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AZ58">
-        <v>3.05</v>
+        <v>2.52</v>
       </c>
       <c r="BA58">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="BB58">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="BC58">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="BD58">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="BE58">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="BF58">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG58">
         <v>3</v>
       </c>
       <c r="BH58">
+        <v>6</v>
+      </c>
+      <c r="BI58">
         <v>11</v>
-      </c>
-      <c r="BI58">
-        <v>7</v>
       </c>
       <c r="BJ58">
         <v>14</v>
       </c>
       <c r="BK58">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:63">
@@ -12190,7 +12190,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2365233</v>
+        <v>2365232</v>
       </c>
       <c r="C59" t="s">
         <v>63</v>
@@ -12205,52 +12205,52 @@
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H59" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <v>2</v>
       </c>
       <c r="N59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O59" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="P59" t="s">
         <v>201</v>
       </c>
       <c r="Q59">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R59">
         <v>2</v>
       </c>
       <c r="S59">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="U59">
         <v>2.25</v>
       </c>
       <c r="V59">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="W59">
         <v>1.33</v>
@@ -12265,19 +12265,19 @@
         <v>1.44</v>
       </c>
       <c r="AA59">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB59">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC59">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="AD59">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AE59">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="AF59">
         <v>1.03</v>
@@ -12292,88 +12292,88 @@
         <v>3.95</v>
       </c>
       <c r="AJ59">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AK59">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AL59">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AM59">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AN59">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AO59">
         <v>1.3</v>
       </c>
       <c r="AP59">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ59">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="AR59">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.55</v>
+        <v>0.73</v>
       </c>
       <c r="AT59">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AU59">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="AV59">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AW59">
-        <v>3.16</v>
+        <v>2.68</v>
       </c>
       <c r="AX59">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="AY59">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AZ59">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="BA59">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="BB59">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="BC59">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="BD59">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="BE59">
-        <v>3.08</v>
+        <v>3.14</v>
       </c>
       <c r="BF59">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BG59">
         <v>3</v>
       </c>
       <c r="BH59">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BI59">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BJ59">
         <v>14</v>
       </c>
       <c r="BK59">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:63">
@@ -12954,7 +12954,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2365243</v>
+        <v>2365239</v>
       </c>
       <c r="C63" t="s">
         <v>63</v>
@@ -12969,28 +12969,28 @@
         <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H63" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O63" t="s">
         <v>120</v>
@@ -12999,142 +12999,142 @@
         <v>202</v>
       </c>
       <c r="Q63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S63">
         <v>8</v>
       </c>
       <c r="T63">
+        <v>2.25</v>
+      </c>
+      <c r="U63">
         <v>2.38</v>
       </c>
-      <c r="U63">
-        <v>2.25</v>
-      </c>
       <c r="V63">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="W63">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X63">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y63">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z63">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AA63">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB63">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC63">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="AD63">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AE63">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AF63">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AG63">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH63">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AI63">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="AJ63">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="AK63">
+        <v>2.28</v>
+      </c>
+      <c r="AL63">
+        <v>1.7</v>
+      </c>
+      <c r="AM63">
         <v>2.05</v>
-      </c>
-      <c r="AL63">
-        <v>1.8</v>
-      </c>
-      <c r="AM63">
-        <v>1.95</v>
       </c>
       <c r="AN63">
         <v>1.19</v>
       </c>
       <c r="AO63">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AP63">
         <v>2.05</v>
       </c>
       <c r="AQ63">
-        <v>2.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR63">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AS63">
+        <v>0.82</v>
+      </c>
+      <c r="AT63">
         <v>1.55</v>
       </c>
-      <c r="AT63">
-        <v>0.45</v>
-      </c>
       <c r="AU63">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="AV63">
-        <v>1.51</v>
+        <v>1.76</v>
       </c>
       <c r="AW63">
-        <v>3.35</v>
+        <v>3.82</v>
       </c>
       <c r="AX63">
-        <v>1.37</v>
+        <v>1.61</v>
       </c>
       <c r="AY63">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ63">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="BA63">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BB63">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="BC63">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="BD63">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="BE63">
-        <v>3.28</v>
+        <v>3.04</v>
       </c>
       <c r="BF63">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH63">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BI63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ63">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BK63">
         <v>9</v>
@@ -13145,7 +13145,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2365239</v>
+        <v>2365243</v>
       </c>
       <c r="C64" t="s">
         <v>63</v>
@@ -13160,28 +13160,28 @@
         <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H64" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M64">
         <v>1</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O64" t="s">
         <v>121</v>
@@ -13190,142 +13190,142 @@
         <v>203</v>
       </c>
       <c r="Q64">
+        <v>2</v>
+      </c>
+      <c r="R64">
         <v>6</v>
-      </c>
-      <c r="R64">
-        <v>2</v>
       </c>
       <c r="S64">
         <v>8</v>
       </c>
       <c r="T64">
+        <v>2.38</v>
+      </c>
+      <c r="U64">
         <v>2.25</v>
       </c>
-      <c r="U64">
-        <v>2.38</v>
-      </c>
       <c r="V64">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="W64">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X64">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y64">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Z64">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA64">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB64">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC64">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AD64">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AE64">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AF64">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG64">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH64">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AI64">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="AJ64">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="AK64">
-        <v>2.28</v>
+        <v>2.05</v>
       </c>
       <c r="AL64">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AM64">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AN64">
         <v>1.19</v>
       </c>
       <c r="AO64">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AP64">
         <v>2.05</v>
       </c>
       <c r="AQ64">
+        <v>2.25</v>
+      </c>
+      <c r="AR64">
         <v>0.8</v>
       </c>
-      <c r="AR64">
-        <v>0.75</v>
-      </c>
       <c r="AS64">
-        <v>0.82</v>
+        <v>1.55</v>
       </c>
       <c r="AT64">
-        <v>1.55</v>
+        <v>0.45</v>
       </c>
       <c r="AU64">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="AV64">
-        <v>1.76</v>
+        <v>1.51</v>
       </c>
       <c r="AW64">
-        <v>3.82</v>
+        <v>3.35</v>
       </c>
       <c r="AX64">
-        <v>1.61</v>
+        <v>1.37</v>
       </c>
       <c r="AY64">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ64">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="BA64">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BB64">
-        <v>1.46</v>
+        <v>1.68</v>
       </c>
       <c r="BC64">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="BD64">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="BE64">
-        <v>3.04</v>
+        <v>3.28</v>
       </c>
       <c r="BF64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH64">
+        <v>8</v>
+      </c>
+      <c r="BI64">
+        <v>4</v>
+      </c>
+      <c r="BJ64">
         <v>13</v>
-      </c>
-      <c r="BI64">
-        <v>6</v>
-      </c>
-      <c r="BJ64">
-        <v>20</v>
       </c>
       <c r="BK64">
         <v>9</v>
@@ -15246,7 +15246,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2365253</v>
+        <v>2365250</v>
       </c>
       <c r="C75" t="s">
         <v>63</v>
@@ -15261,175 +15261,175 @@
         <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O75" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="P75" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="Q75">
+        <v>5</v>
+      </c>
+      <c r="R75">
         <v>7</v>
       </c>
-      <c r="R75">
-        <v>4</v>
-      </c>
       <c r="S75">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T75">
-        <v>2.35</v>
+        <v>3.4</v>
       </c>
       <c r="U75">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V75">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="W75">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="X75">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Y75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Z75">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="AA75">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="AB75">
         <v>1.1</v>
       </c>
       <c r="AC75">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="AD75">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AE75">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="AF75">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AG75">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH75">
+        <v>1.24</v>
+      </c>
+      <c r="AI75">
+        <v>3.6</v>
+      </c>
+      <c r="AJ75">
+        <v>1.73</v>
+      </c>
+      <c r="AK75">
+        <v>2</v>
+      </c>
+      <c r="AL75">
+        <v>1.67</v>
+      </c>
+      <c r="AM75">
+        <v>2.1</v>
+      </c>
+      <c r="AN75">
+        <v>1.6</v>
+      </c>
+      <c r="AO75">
+        <v>1.29</v>
+      </c>
+      <c r="AP75">
+        <v>1.38</v>
+      </c>
+      <c r="AQ75">
+        <v>1.33</v>
+      </c>
+      <c r="AR75">
+        <v>1</v>
+      </c>
+      <c r="AS75">
+        <v>1.64</v>
+      </c>
+      <c r="AT75">
+        <v>1.73</v>
+      </c>
+      <c r="AU75">
+        <v>1.96</v>
+      </c>
+      <c r="AV75">
+        <v>1.82</v>
+      </c>
+      <c r="AW75">
+        <v>3.78</v>
+      </c>
+      <c r="AX75">
+        <v>2.01</v>
+      </c>
+      <c r="AY75">
+        <v>7.6</v>
+      </c>
+      <c r="AZ75">
+        <v>2.18</v>
+      </c>
+      <c r="BA75">
         <v>1.22</v>
       </c>
-      <c r="AI75">
-        <v>3.9</v>
-      </c>
-      <c r="AJ75">
-        <v>1.67</v>
-      </c>
-      <c r="AK75">
-        <v>2.1</v>
-      </c>
-      <c r="AL75">
-        <v>1.71</v>
-      </c>
-      <c r="AM75">
-        <v>2.09</v>
-      </c>
-      <c r="AN75">
-        <v>1.2</v>
-      </c>
-      <c r="AO75">
-        <v>1.22</v>
-      </c>
-      <c r="AP75">
-        <v>2.1</v>
-      </c>
-      <c r="AQ75">
-        <v>2.67</v>
-      </c>
-      <c r="AR75">
-        <v>1.6</v>
-      </c>
-      <c r="AS75">
-        <v>1.82</v>
-      </c>
-      <c r="AT75">
-        <v>1.18</v>
-      </c>
-      <c r="AU75">
-        <v>1.92</v>
-      </c>
-      <c r="AV75">
-        <v>1.39</v>
-      </c>
-      <c r="AW75">
-        <v>3.31</v>
-      </c>
-      <c r="AX75">
-        <v>1.67</v>
-      </c>
-      <c r="AY75">
-        <v>8.1</v>
-      </c>
-      <c r="AZ75">
-        <v>2.74</v>
-      </c>
-      <c r="BA75">
-        <v>1.18</v>
-      </c>
       <c r="BB75">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="BC75">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="BD75">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="BE75">
-        <v>2.84</v>
+        <v>3.08</v>
       </c>
       <c r="BF75">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG75">
         <v>4</v>
       </c>
       <c r="BH75">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BI75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BJ75">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BK75">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:63">
@@ -15437,7 +15437,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2365250</v>
+        <v>2365253</v>
       </c>
       <c r="C76" t="s">
         <v>63</v>
@@ -15452,175 +15452,175 @@
         <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H76" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Q76">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R76">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S76">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T76">
-        <v>3.4</v>
+        <v>2.35</v>
       </c>
       <c r="U76">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V76">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="W76">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="X76">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Y76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z76">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="AA76">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AB76">
         <v>1.1</v>
       </c>
       <c r="AC76">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="AD76">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AE76">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="AF76">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AG76">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH76">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AI76">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AJ76">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AK76">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AL76">
+        <v>1.71</v>
+      </c>
+      <c r="AM76">
+        <v>2.09</v>
+      </c>
+      <c r="AN76">
+        <v>1.2</v>
+      </c>
+      <c r="AO76">
+        <v>1.22</v>
+      </c>
+      <c r="AP76">
+        <v>2.1</v>
+      </c>
+      <c r="AQ76">
+        <v>2.67</v>
+      </c>
+      <c r="AR76">
+        <v>1.6</v>
+      </c>
+      <c r="AS76">
+        <v>1.82</v>
+      </c>
+      <c r="AT76">
+        <v>1.18</v>
+      </c>
+      <c r="AU76">
+        <v>1.92</v>
+      </c>
+      <c r="AV76">
+        <v>1.39</v>
+      </c>
+      <c r="AW76">
+        <v>3.31</v>
+      </c>
+      <c r="AX76">
         <v>1.67</v>
       </c>
-      <c r="AM76">
-        <v>2.1</v>
-      </c>
-      <c r="AN76">
-        <v>1.6</v>
-      </c>
-      <c r="AO76">
-        <v>1.29</v>
-      </c>
-      <c r="AP76">
-        <v>1.38</v>
-      </c>
-      <c r="AQ76">
-        <v>1.33</v>
-      </c>
-      <c r="AR76">
-        <v>1</v>
-      </c>
-      <c r="AS76">
-        <v>1.64</v>
-      </c>
-      <c r="AT76">
-        <v>1.73</v>
-      </c>
-      <c r="AU76">
-        <v>1.96</v>
-      </c>
-      <c r="AV76">
-        <v>1.82</v>
-      </c>
-      <c r="AW76">
-        <v>3.78</v>
-      </c>
-      <c r="AX76">
-        <v>2.01</v>
-      </c>
       <c r="AY76">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="AZ76">
-        <v>2.18</v>
+        <v>2.74</v>
       </c>
       <c r="BA76">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BB76">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="BC76">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="BD76">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="BE76">
-        <v>3.08</v>
+        <v>2.84</v>
       </c>
       <c r="BF76">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BG76">
         <v>4</v>
       </c>
       <c r="BH76">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BJ76">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BK76">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:63">
@@ -20976,7 +20976,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>2365282</v>
+        <v>2365283</v>
       </c>
       <c r="C105" t="s">
         <v>63</v>
@@ -20991,10 +20991,10 @@
         <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H105" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -21006,43 +21006,43 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O105" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="P105" t="s">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="Q105">
         <v>4</v>
       </c>
       <c r="R105">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S105">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T105">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="U105">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="V105">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="W105">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X105">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y105">
         <v>2.63</v>
@@ -21057,109 +21057,109 @@
         <v>1.1</v>
       </c>
       <c r="AC105">
-        <v>2.25</v>
+        <v>4.6</v>
       </c>
       <c r="AD105">
+        <v>3.6</v>
+      </c>
+      <c r="AE105">
+        <v>1.7</v>
+      </c>
+      <c r="AF105">
+        <v>1.03</v>
+      </c>
+      <c r="AG105">
+        <v>12.5</v>
+      </c>
+      <c r="AH105">
+        <v>1.25</v>
+      </c>
+      <c r="AI105">
+        <v>3.95</v>
+      </c>
+      <c r="AJ105">
+        <v>1.75</v>
+      </c>
+      <c r="AK105">
+        <v>1.91</v>
+      </c>
+      <c r="AL105">
+        <v>1.75</v>
+      </c>
+      <c r="AM105">
+        <v>2</v>
+      </c>
+      <c r="AN105">
+        <v>2.15</v>
+      </c>
+      <c r="AO105">
+        <v>1.22</v>
+      </c>
+      <c r="AP105">
+        <v>1.19</v>
+      </c>
+      <c r="AQ105">
+        <v>0.38</v>
+      </c>
+      <c r="AR105">
+        <v>1.88</v>
+      </c>
+      <c r="AS105">
+        <v>0.73</v>
+      </c>
+      <c r="AT105">
+        <v>1.55</v>
+      </c>
+      <c r="AU105">
+        <v>1.61</v>
+      </c>
+      <c r="AV105">
+        <v>1.66</v>
+      </c>
+      <c r="AW105">
+        <v>3.27</v>
+      </c>
+      <c r="AX105">
+        <v>2.75</v>
+      </c>
+      <c r="AY105">
+        <v>7.5</v>
+      </c>
+      <c r="AZ105">
+        <v>1.67</v>
+      </c>
+      <c r="BA105">
+        <v>1.24</v>
+      </c>
+      <c r="BB105">
+        <v>1.46</v>
+      </c>
+      <c r="BC105">
+        <v>1.95</v>
+      </c>
+      <c r="BD105">
+        <v>2.4</v>
+      </c>
+      <c r="BE105">
         <v>3.3</v>
       </c>
-      <c r="AE105">
-        <v>2.9</v>
-      </c>
-      <c r="AF105">
-        <v>1.01</v>
-      </c>
-      <c r="AG105">
-        <v>10</v>
-      </c>
-      <c r="AH105">
-        <v>1.23</v>
-      </c>
-      <c r="AI105">
-        <v>3.64</v>
-      </c>
-      <c r="AJ105">
-        <v>1.67</v>
-      </c>
-      <c r="AK105">
-        <v>2</v>
-      </c>
-      <c r="AL105">
-        <v>1.62</v>
-      </c>
-      <c r="AM105">
-        <v>2.2</v>
-      </c>
-      <c r="AN105">
-        <v>1.37</v>
-      </c>
-      <c r="AO105">
-        <v>1.35</v>
-      </c>
-      <c r="AP105">
-        <v>1.61</v>
-      </c>
-      <c r="AQ105">
-        <v>1.22</v>
-      </c>
-      <c r="AR105">
-        <v>1.25</v>
-      </c>
-      <c r="AS105">
-        <v>1.36</v>
-      </c>
-      <c r="AT105">
-        <v>1.36</v>
-      </c>
-      <c r="AU105">
-        <v>1.44</v>
-      </c>
-      <c r="AV105">
-        <v>1.47</v>
-      </c>
-      <c r="AW105">
-        <v>2.91</v>
-      </c>
-      <c r="AX105">
-        <v>2.08</v>
-      </c>
-      <c r="AY105">
-        <v>7</v>
-      </c>
-      <c r="AZ105">
-        <v>2.08</v>
-      </c>
-      <c r="BA105">
-        <v>1.18</v>
-      </c>
-      <c r="BB105">
-        <v>1.35</v>
-      </c>
-      <c r="BC105">
-        <v>1.63</v>
-      </c>
-      <c r="BD105">
-        <v>2.1</v>
-      </c>
-      <c r="BE105">
-        <v>2.8</v>
-      </c>
       <c r="BF105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI105">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BJ105">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BK105">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:63">
@@ -21167,7 +21167,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>2365283</v>
+        <v>2365282</v>
       </c>
       <c r="C106" t="s">
         <v>63</v>
@@ -21182,10 +21182,10 @@
         <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H106" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -21197,43 +21197,43 @@
         <v>0</v>
       </c>
       <c r="L106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O106" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="Q106">
         <v>4</v>
       </c>
       <c r="R106">
+        <v>4</v>
+      </c>
+      <c r="S106">
         <v>8</v>
       </c>
-      <c r="S106">
-        <v>12</v>
-      </c>
       <c r="T106">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="U106">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="V106">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="W106">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X106">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y106">
         <v>2.63</v>
@@ -21248,109 +21248,109 @@
         <v>1.1</v>
       </c>
       <c r="AC106">
-        <v>4.6</v>
+        <v>2.25</v>
       </c>
       <c r="AD106">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AE106">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="AF106">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AG106">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AH106">
+        <v>1.23</v>
+      </c>
+      <c r="AI106">
+        <v>3.64</v>
+      </c>
+      <c r="AJ106">
+        <v>1.67</v>
+      </c>
+      <c r="AK106">
+        <v>2</v>
+      </c>
+      <c r="AL106">
+        <v>1.62</v>
+      </c>
+      <c r="AM106">
+        <v>2.2</v>
+      </c>
+      <c r="AN106">
+        <v>1.37</v>
+      </c>
+      <c r="AO106">
+        <v>1.35</v>
+      </c>
+      <c r="AP106">
+        <v>1.61</v>
+      </c>
+      <c r="AQ106">
+        <v>1.22</v>
+      </c>
+      <c r="AR106">
         <v>1.25</v>
       </c>
-      <c r="AI106">
-        <v>3.95</v>
-      </c>
-      <c r="AJ106">
-        <v>1.75</v>
-      </c>
-      <c r="AK106">
-        <v>1.91</v>
-      </c>
-      <c r="AL106">
-        <v>1.75</v>
-      </c>
-      <c r="AM106">
-        <v>2</v>
-      </c>
-      <c r="AN106">
-        <v>2.15</v>
-      </c>
-      <c r="AO106">
-        <v>1.22</v>
-      </c>
-      <c r="AP106">
-        <v>1.19</v>
-      </c>
-      <c r="AQ106">
-        <v>0.38</v>
-      </c>
-      <c r="AR106">
-        <v>1.88</v>
-      </c>
       <c r="AS106">
-        <v>0.73</v>
+        <v>1.36</v>
       </c>
       <c r="AT106">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="AU106">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="AV106">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AW106">
-        <v>3.27</v>
+        <v>2.91</v>
       </c>
       <c r="AX106">
-        <v>2.75</v>
+        <v>2.08</v>
       </c>
       <c r="AY106">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ106">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="BA106">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="BB106">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="BC106">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="BD106">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="BE106">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="BF106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH106">
+        <v>2</v>
+      </c>
+      <c r="BI106">
+        <v>3</v>
+      </c>
+      <c r="BJ106">
         <v>5</v>
       </c>
-      <c r="BI106">
-        <v>8</v>
-      </c>
-      <c r="BJ106">
-        <v>9</v>
-      </c>
       <c r="BK106">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:63">
@@ -22122,7 +22122,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>2365291</v>
+        <v>2365288</v>
       </c>
       <c r="C111" t="s">
         <v>63</v>
@@ -22137,97 +22137,97 @@
         <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O111" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="P111" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Q111">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R111">
+        <v>3</v>
+      </c>
+      <c r="S111">
         <v>8</v>
       </c>
-      <c r="S111">
-        <v>14</v>
-      </c>
       <c r="T111">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="U111">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V111">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="W111">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X111">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y111">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z111">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA111">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB111">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC111">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="AD111">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AE111">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="AF111">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AG111">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH111">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AI111">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AJ111">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="AK111">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AL111">
         <v>1.7</v>
@@ -22236,76 +22236,76 @@
         <v>2.05</v>
       </c>
       <c r="AN111">
-        <v>1.15</v>
+        <v>1.8</v>
       </c>
       <c r="AO111">
         <v>1.27</v>
       </c>
       <c r="AP111">
-        <v>1.95</v>
+        <v>1.22</v>
       </c>
       <c r="AQ111">
+        <v>2</v>
+      </c>
+      <c r="AR111">
         <v>1.56</v>
       </c>
-      <c r="AR111">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="AS111">
+        <v>1.64</v>
+      </c>
+      <c r="AT111">
         <v>1.55</v>
       </c>
-      <c r="AT111">
-        <v>0.73</v>
-      </c>
       <c r="AU111">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="AV111">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AW111">
-        <v>3.31</v>
+        <v>3.17</v>
       </c>
       <c r="AX111">
-        <v>1.69</v>
+        <v>2.76</v>
       </c>
       <c r="AY111">
+        <v>8.5</v>
+      </c>
+      <c r="AZ111">
+        <v>1.64</v>
+      </c>
+      <c r="BA111">
+        <v>1.2</v>
+      </c>
+      <c r="BB111">
+        <v>1.39</v>
+      </c>
+      <c r="BC111">
+        <v>1.7</v>
+      </c>
+      <c r="BD111">
+        <v>2.2</v>
+      </c>
+      <c r="BE111">
+        <v>2.95</v>
+      </c>
+      <c r="BF111">
+        <v>2</v>
+      </c>
+      <c r="BG111">
         <v>8</v>
       </c>
-      <c r="AZ111">
-        <v>2.63</v>
-      </c>
-      <c r="BA111">
-        <v>1.22</v>
-      </c>
-      <c r="BB111">
-        <v>1.42</v>
-      </c>
-      <c r="BC111">
-        <v>1.8</v>
-      </c>
-      <c r="BD111">
-        <v>2.3</v>
-      </c>
-      <c r="BE111">
-        <v>3.1</v>
-      </c>
-      <c r="BF111">
-        <v>4</v>
-      </c>
-      <c r="BG111">
-        <v>4</v>
-      </c>
       <c r="BH111">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BI111">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BJ111">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BK111">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:63">
@@ -22313,7 +22313,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>2365288</v>
+        <v>2365291</v>
       </c>
       <c r="C112" t="s">
         <v>63</v>
@@ -22328,97 +22328,97 @@
         <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H112" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O112" t="s">
+        <v>147</v>
+      </c>
+      <c r="P112" t="s">
         <v>80</v>
       </c>
-      <c r="P112" t="s">
-        <v>233</v>
-      </c>
       <c r="Q112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R112">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S112">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T112">
+        <v>2.4</v>
+      </c>
+      <c r="U112">
+        <v>2.3</v>
+      </c>
+      <c r="V112">
+        <v>4.33</v>
+      </c>
+      <c r="W112">
+        <v>1.33</v>
+      </c>
+      <c r="X112">
+        <v>3.25</v>
+      </c>
+      <c r="Y112">
+        <v>2.63</v>
+      </c>
+      <c r="Z112">
+        <v>1.44</v>
+      </c>
+      <c r="AA112">
+        <v>6.5</v>
+      </c>
+      <c r="AB112">
+        <v>1.11</v>
+      </c>
+      <c r="AC112">
+        <v>1.8</v>
+      </c>
+      <c r="AD112">
+        <v>3.8</v>
+      </c>
+      <c r="AE112">
         <v>4</v>
       </c>
-      <c r="U112">
-        <v>2.2</v>
-      </c>
-      <c r="V112">
-        <v>2.6</v>
-      </c>
-      <c r="W112">
-        <v>1.36</v>
-      </c>
-      <c r="X112">
-        <v>3</v>
-      </c>
-      <c r="Y112">
-        <v>2.75</v>
-      </c>
-      <c r="Z112">
-        <v>1.4</v>
-      </c>
-      <c r="AA112">
-        <v>7</v>
-      </c>
-      <c r="AB112">
-        <v>1.1</v>
-      </c>
-      <c r="AC112">
-        <v>3.5</v>
-      </c>
-      <c r="AD112">
-        <v>3.6</v>
-      </c>
-      <c r="AE112">
-        <v>1.95</v>
-      </c>
       <c r="AF112">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG112">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH112">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AI112">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AJ112">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AK112">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AL112">
         <v>1.7</v>
@@ -22427,76 +22427,76 @@
         <v>2.05</v>
       </c>
       <c r="AN112">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="AO112">
         <v>1.27</v>
       </c>
       <c r="AP112">
+        <v>1.95</v>
+      </c>
+      <c r="AQ112">
+        <v>1.56</v>
+      </c>
+      <c r="AR112">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS112">
+        <v>1.55</v>
+      </c>
+      <c r="AT112">
+        <v>0.73</v>
+      </c>
+      <c r="AU112">
+        <v>1.71</v>
+      </c>
+      <c r="AV112">
+        <v>1.6</v>
+      </c>
+      <c r="AW112">
+        <v>3.31</v>
+      </c>
+      <c r="AX112">
+        <v>1.69</v>
+      </c>
+      <c r="AY112">
+        <v>8</v>
+      </c>
+      <c r="AZ112">
+        <v>2.63</v>
+      </c>
+      <c r="BA112">
         <v>1.22</v>
       </c>
-      <c r="AQ112">
-        <v>2</v>
-      </c>
-      <c r="AR112">
-        <v>1.56</v>
-      </c>
-      <c r="AS112">
-        <v>1.64</v>
-      </c>
-      <c r="AT112">
-        <v>1.55</v>
-      </c>
-      <c r="AU112">
-        <v>1.58</v>
-      </c>
-      <c r="AV112">
-        <v>1.59</v>
-      </c>
-      <c r="AW112">
-        <v>3.17</v>
-      </c>
-      <c r="AX112">
-        <v>2.76</v>
-      </c>
-      <c r="AY112">
-        <v>8.5</v>
-      </c>
-      <c r="AZ112">
-        <v>1.64</v>
-      </c>
-      <c r="BA112">
-        <v>1.2</v>
-      </c>
       <c r="BB112">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="BC112">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BD112">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="BE112">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="BF112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG112">
+        <v>4</v>
+      </c>
+      <c r="BH112">
+        <v>12</v>
+      </c>
+      <c r="BI112">
         <v>8</v>
       </c>
-      <c r="BH112">
-        <v>5</v>
-      </c>
-      <c r="BI112">
-        <v>3</v>
-      </c>
       <c r="BJ112">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BK112">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:63">
@@ -23268,7 +23268,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>2365296</v>
+        <v>2365297</v>
       </c>
       <c r="C117" t="s">
         <v>63</v>
@@ -23283,175 +23283,175 @@
         <v>20</v>
       </c>
       <c r="G117" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H117" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L117">
         <v>2</v>
       </c>
       <c r="M117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O117" t="s">
         <v>151</v>
       </c>
       <c r="P117" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="Q117">
         <v>2</v>
       </c>
       <c r="R117">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S117">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T117">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="U117">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V117">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="W117">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X117">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y117">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z117">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA117">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AB117">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AC117">
-        <v>2.65</v>
+        <v>1.75</v>
       </c>
       <c r="AD117">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="AE117">
-        <v>2.22</v>
+        <v>3.89</v>
       </c>
       <c r="AF117">
         <v>1.03</v>
       </c>
       <c r="AG117">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH117">
+        <v>1.27</v>
+      </c>
+      <c r="AI117">
+        <v>3.7</v>
+      </c>
+      <c r="AJ117">
+        <v>1.86</v>
+      </c>
+      <c r="AK117">
+        <v>2</v>
+      </c>
+      <c r="AL117">
+        <v>1.75</v>
+      </c>
+      <c r="AM117">
+        <v>2</v>
+      </c>
+      <c r="AN117">
+        <v>1.26</v>
+      </c>
+      <c r="AO117">
         <v>1.25</v>
       </c>
-      <c r="AI117">
-        <v>3.95</v>
-      </c>
-      <c r="AJ117">
-        <v>1.67</v>
-      </c>
-      <c r="AK117">
-        <v>2</v>
-      </c>
-      <c r="AL117">
-        <v>1.62</v>
-      </c>
-      <c r="AM117">
-        <v>2.2</v>
-      </c>
-      <c r="AN117">
-        <v>1.52</v>
-      </c>
-      <c r="AO117">
-        <v>1.26</v>
-      </c>
       <c r="AP117">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="AQ117">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="AR117">
-        <v>1.78</v>
+        <v>1.22</v>
       </c>
       <c r="AS117">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AT117">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="AU117">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AV117">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="AW117">
-        <v>3.31</v>
+        <v>3.21</v>
       </c>
       <c r="AX117">
-        <v>2.38</v>
+        <v>1.56</v>
       </c>
       <c r="AY117">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AZ117">
-        <v>1.89</v>
+        <v>3.14</v>
       </c>
       <c r="BA117">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="BB117">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="BC117">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="BD117">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="BE117">
-        <v>3.42</v>
+        <v>2.93</v>
       </c>
       <c r="BF117">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG117">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BH117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI117">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BJ117">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BK117">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:63">
@@ -23459,7 +23459,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2365297</v>
+        <v>2365296</v>
       </c>
       <c r="C118" t="s">
         <v>63</v>
@@ -23474,175 +23474,175 @@
         <v>20</v>
       </c>
       <c r="G118" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H118" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L118">
         <v>2</v>
       </c>
       <c r="M118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O118" t="s">
         <v>152</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="Q118">
         <v>2</v>
       </c>
       <c r="R118">
+        <v>5</v>
+      </c>
+      <c r="S118">
         <v>7</v>
       </c>
-      <c r="S118">
-        <v>9</v>
-      </c>
       <c r="T118">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="U118">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V118">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="W118">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y118">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Z118">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA118">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AB118">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AC118">
-        <v>1.75</v>
+        <v>2.65</v>
       </c>
       <c r="AD118">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="AE118">
-        <v>3.89</v>
+        <v>2.22</v>
       </c>
       <c r="AF118">
         <v>1.03</v>
       </c>
       <c r="AG118">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH118">
+        <v>1.25</v>
+      </c>
+      <c r="AI118">
+        <v>3.95</v>
+      </c>
+      <c r="AJ118">
+        <v>1.67</v>
+      </c>
+      <c r="AK118">
+        <v>2</v>
+      </c>
+      <c r="AL118">
+        <v>1.62</v>
+      </c>
+      <c r="AM118">
+        <v>2.2</v>
+      </c>
+      <c r="AN118">
+        <v>1.52</v>
+      </c>
+      <c r="AO118">
+        <v>1.26</v>
+      </c>
+      <c r="AP118">
+        <v>1.52</v>
+      </c>
+      <c r="AQ118">
+        <v>1.44</v>
+      </c>
+      <c r="AR118">
+        <v>1.78</v>
+      </c>
+      <c r="AS118">
+        <v>1.55</v>
+      </c>
+      <c r="AT118">
+        <v>1.55</v>
+      </c>
+      <c r="AU118">
+        <v>1.67</v>
+      </c>
+      <c r="AV118">
+        <v>1.64</v>
+      </c>
+      <c r="AW118">
+        <v>3.31</v>
+      </c>
+      <c r="AX118">
+        <v>2.38</v>
+      </c>
+      <c r="AY118">
+        <v>7.6</v>
+      </c>
+      <c r="AZ118">
+        <v>1.89</v>
+      </c>
+      <c r="BA118">
         <v>1.27</v>
       </c>
-      <c r="AI118">
-        <v>3.7</v>
-      </c>
-      <c r="AJ118">
-        <v>1.86</v>
-      </c>
-      <c r="AK118">
-        <v>2</v>
-      </c>
-      <c r="AL118">
-        <v>1.75</v>
-      </c>
-      <c r="AM118">
-        <v>2</v>
-      </c>
-      <c r="AN118">
-        <v>1.26</v>
-      </c>
-      <c r="AO118">
-        <v>1.25</v>
-      </c>
-      <c r="AP118">
-        <v>1.88</v>
-      </c>
-      <c r="AQ118">
-        <v>2</v>
-      </c>
-      <c r="AR118">
-        <v>1.22</v>
-      </c>
-      <c r="AS118">
-        <v>1.82</v>
-      </c>
-      <c r="AT118">
-        <v>1.36</v>
-      </c>
-      <c r="AU118">
-        <v>1.8</v>
-      </c>
-      <c r="AV118">
-        <v>1.41</v>
-      </c>
-      <c r="AW118">
-        <v>3.21</v>
-      </c>
-      <c r="AX118">
-        <v>1.56</v>
-      </c>
-      <c r="AY118">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AZ118">
-        <v>3.14</v>
-      </c>
-      <c r="BA118">
-        <v>1.21</v>
-      </c>
       <c r="BB118">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="BC118">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="BD118">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="BE118">
-        <v>2.93</v>
+        <v>3.42</v>
       </c>
       <c r="BF118">
+        <v>4</v>
+      </c>
+      <c r="BG118">
         <v>7</v>
       </c>
-      <c r="BG118">
+      <c r="BH118">
+        <v>2</v>
+      </c>
+      <c r="BI118">
         <v>5</v>
       </c>
-      <c r="BH118">
-        <v>3</v>
-      </c>
-      <c r="BI118">
-        <v>8</v>
-      </c>
       <c r="BJ118">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BK118">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:63">
@@ -25369,7 +25369,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>2365308</v>
+        <v>2365309</v>
       </c>
       <c r="C128" t="s">
         <v>63</v>
@@ -25384,175 +25384,175 @@
         <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H128" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N128">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O128" t="s">
         <v>161</v>
       </c>
       <c r="P128" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="Q128">
+        <v>6</v>
+      </c>
+      <c r="R128">
+        <v>9</v>
+      </c>
+      <c r="S128">
+        <v>15</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
+        <v>2.2</v>
+      </c>
+      <c r="V128">
+        <v>4</v>
+      </c>
+      <c r="W128">
+        <v>1.4</v>
+      </c>
+      <c r="X128">
+        <v>2.75</v>
+      </c>
+      <c r="Y128">
+        <v>2.75</v>
+      </c>
+      <c r="Z128">
+        <v>1.4</v>
+      </c>
+      <c r="AA128">
+        <v>8</v>
+      </c>
+      <c r="AB128">
+        <v>1.08</v>
+      </c>
+      <c r="AC128">
+        <v>2.05</v>
+      </c>
+      <c r="AD128">
+        <v>3.4</v>
+      </c>
+      <c r="AE128">
+        <v>3.6</v>
+      </c>
+      <c r="AF128">
+        <v>1.06</v>
+      </c>
+      <c r="AG128">
+        <v>9</v>
+      </c>
+      <c r="AH128">
+        <v>1.29</v>
+      </c>
+      <c r="AI128">
+        <v>3.3</v>
+      </c>
+      <c r="AJ128">
+        <v>1.93</v>
+      </c>
+      <c r="AK128">
+        <v>1.85</v>
+      </c>
+      <c r="AL128">
+        <v>1.75</v>
+      </c>
+      <c r="AM128">
+        <v>2</v>
+      </c>
+      <c r="AN128">
+        <v>1.34</v>
+      </c>
+      <c r="AO128">
+        <v>1.3</v>
+      </c>
+      <c r="AP128">
+        <v>1.63</v>
+      </c>
+      <c r="AQ128">
+        <v>0.7</v>
+      </c>
+      <c r="AR128">
+        <v>0.4</v>
+      </c>
+      <c r="AS128">
+        <v>0.73</v>
+      </c>
+      <c r="AT128">
+        <v>0.45</v>
+      </c>
+      <c r="AU128">
+        <v>1.49</v>
+      </c>
+      <c r="AV128">
+        <v>1.22</v>
+      </c>
+      <c r="AW128">
+        <v>2.71</v>
+      </c>
+      <c r="AX128">
+        <v>1.73</v>
+      </c>
+      <c r="AY128">
+        <v>7.5</v>
+      </c>
+      <c r="AZ128">
+        <v>2.6</v>
+      </c>
+      <c r="BA128">
+        <v>1.23</v>
+      </c>
+      <c r="BB128">
+        <v>1.42</v>
+      </c>
+      <c r="BC128">
+        <v>1.9</v>
+      </c>
+      <c r="BD128">
+        <v>2.23</v>
+      </c>
+      <c r="BE128">
+        <v>3.05</v>
+      </c>
+      <c r="BF128">
+        <v>9</v>
+      </c>
+      <c r="BG128">
+        <v>7</v>
+      </c>
+      <c r="BH128">
+        <v>2</v>
+      </c>
+      <c r="BI128">
+        <v>7</v>
+      </c>
+      <c r="BJ128">
         <v>11</v>
       </c>
-      <c r="R128">
-        <v>6</v>
-      </c>
-      <c r="S128">
-        <v>17</v>
-      </c>
-      <c r="T128">
-        <v>2.83</v>
-      </c>
-      <c r="U128">
-        <v>2.27</v>
-      </c>
-      <c r="V128">
-        <v>3.25</v>
-      </c>
-      <c r="W128">
-        <v>1.3</v>
-      </c>
-      <c r="X128">
-        <v>3.38</v>
-      </c>
-      <c r="Y128">
-        <v>2.4</v>
-      </c>
-      <c r="Z128">
-        <v>1.54</v>
-      </c>
-      <c r="AA128">
-        <v>5.6</v>
-      </c>
-      <c r="AB128">
-        <v>1.13</v>
-      </c>
-      <c r="AC128">
-        <v>2.3</v>
-      </c>
-      <c r="AD128">
-        <v>3.6</v>
-      </c>
-      <c r="AE128">
-        <v>2.9</v>
-      </c>
-      <c r="AF128">
-        <v>1</v>
-      </c>
-      <c r="AG128">
-        <v>10.5</v>
-      </c>
-      <c r="AH128">
-        <v>1.17</v>
-      </c>
-      <c r="AI128">
-        <v>4.25</v>
-      </c>
-      <c r="AJ128">
-        <v>1.75</v>
-      </c>
-      <c r="AK128">
-        <v>2.05</v>
-      </c>
-      <c r="AL128">
-        <v>1.57</v>
-      </c>
-      <c r="AM128">
-        <v>2.37</v>
-      </c>
-      <c r="AN128">
-        <v>1.41</v>
-      </c>
-      <c r="AO128">
-        <v>1.28</v>
-      </c>
-      <c r="AP128">
-        <v>1.64</v>
-      </c>
-      <c r="AQ128">
-        <v>1.6</v>
-      </c>
-      <c r="AR128">
-        <v>1.8</v>
-      </c>
-      <c r="AS128">
-        <v>1.55</v>
-      </c>
-      <c r="AT128">
-        <v>1.73</v>
-      </c>
-      <c r="AU128">
-        <v>1.59</v>
-      </c>
-      <c r="AV128">
-        <v>1.42</v>
-      </c>
-      <c r="AW128">
-        <v>3.01</v>
-      </c>
-      <c r="AX128">
-        <v>1.82</v>
-      </c>
-      <c r="AY128">
-        <v>7</v>
-      </c>
-      <c r="AZ128">
-        <v>2.43</v>
-      </c>
-      <c r="BA128">
-        <v>1.29</v>
-      </c>
-      <c r="BB128">
-        <v>1.53</v>
-      </c>
-      <c r="BC128">
-        <v>2</v>
-      </c>
-      <c r="BD128">
-        <v>2.55</v>
-      </c>
-      <c r="BE128">
-        <v>3.5</v>
-      </c>
-      <c r="BF128">
-        <v>6</v>
-      </c>
-      <c r="BG128">
-        <v>8</v>
-      </c>
-      <c r="BH128">
-        <v>3</v>
-      </c>
-      <c r="BI128">
-        <v>3</v>
-      </c>
-      <c r="BJ128">
-        <v>9</v>
-      </c>
       <c r="BK128">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:63">
@@ -25560,7 +25560,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>2365304</v>
+        <v>2365308</v>
       </c>
       <c r="C129" t="s">
         <v>63</v>
@@ -25575,175 +25575,175 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H129" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O129" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="P129" t="s">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Q129">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R129">
         <v>6</v>
       </c>
       <c r="S129">
+        <v>17</v>
+      </c>
+      <c r="T129">
+        <v>2.83</v>
+      </c>
+      <c r="U129">
+        <v>2.27</v>
+      </c>
+      <c r="V129">
+        <v>3.25</v>
+      </c>
+      <c r="W129">
+        <v>1.3</v>
+      </c>
+      <c r="X129">
+        <v>3.38</v>
+      </c>
+      <c r="Y129">
+        <v>2.4</v>
+      </c>
+      <c r="Z129">
+        <v>1.54</v>
+      </c>
+      <c r="AA129">
+        <v>5.6</v>
+      </c>
+      <c r="AB129">
+        <v>1.13</v>
+      </c>
+      <c r="AC129">
+        <v>2.3</v>
+      </c>
+      <c r="AD129">
+        <v>3.6</v>
+      </c>
+      <c r="AE129">
+        <v>2.9</v>
+      </c>
+      <c r="AF129">
+        <v>1</v>
+      </c>
+      <c r="AG129">
+        <v>10.5</v>
+      </c>
+      <c r="AH129">
+        <v>1.17</v>
+      </c>
+      <c r="AI129">
+        <v>4.25</v>
+      </c>
+      <c r="AJ129">
+        <v>1.75</v>
+      </c>
+      <c r="AK129">
+        <v>2.05</v>
+      </c>
+      <c r="AL129">
+        <v>1.57</v>
+      </c>
+      <c r="AM129">
+        <v>2.37</v>
+      </c>
+      <c r="AN129">
+        <v>1.41</v>
+      </c>
+      <c r="AO129">
+        <v>1.28</v>
+      </c>
+      <c r="AP129">
+        <v>1.64</v>
+      </c>
+      <c r="AQ129">
+        <v>1.6</v>
+      </c>
+      <c r="AR129">
+        <v>1.8</v>
+      </c>
+      <c r="AS129">
+        <v>1.55</v>
+      </c>
+      <c r="AT129">
+        <v>1.73</v>
+      </c>
+      <c r="AU129">
+        <v>1.59</v>
+      </c>
+      <c r="AV129">
+        <v>1.42</v>
+      </c>
+      <c r="AW129">
+        <v>3.01</v>
+      </c>
+      <c r="AX129">
+        <v>1.82</v>
+      </c>
+      <c r="AY129">
+        <v>7</v>
+      </c>
+      <c r="AZ129">
+        <v>2.43</v>
+      </c>
+      <c r="BA129">
+        <v>1.29</v>
+      </c>
+      <c r="BB129">
+        <v>1.53</v>
+      </c>
+      <c r="BC129">
+        <v>2</v>
+      </c>
+      <c r="BD129">
+        <v>2.55</v>
+      </c>
+      <c r="BE129">
+        <v>3.5</v>
+      </c>
+      <c r="BF129">
+        <v>6</v>
+      </c>
+      <c r="BG129">
+        <v>8</v>
+      </c>
+      <c r="BH129">
+        <v>3</v>
+      </c>
+      <c r="BI129">
+        <v>3</v>
+      </c>
+      <c r="BJ129">
+        <v>9</v>
+      </c>
+      <c r="BK129">
         <v>11</v>
-      </c>
-      <c r="T129">
-        <v>2.55</v>
-      </c>
-      <c r="U129">
-        <v>2.17</v>
-      </c>
-      <c r="V129">
-        <v>4.42</v>
-      </c>
-      <c r="W129">
-        <v>1.35</v>
-      </c>
-      <c r="X129">
-        <v>2.9</v>
-      </c>
-      <c r="Y129">
-        <v>2.7</v>
-      </c>
-      <c r="Z129">
-        <v>1.4</v>
-      </c>
-      <c r="AA129">
-        <v>6.5</v>
-      </c>
-      <c r="AB129">
-        <v>1.07</v>
-      </c>
-      <c r="AC129">
-        <v>1.9</v>
-      </c>
-      <c r="AD129">
-        <v>3.5</v>
-      </c>
-      <c r="AE129">
-        <v>4</v>
-      </c>
-      <c r="AF129">
-        <v>1.02</v>
-      </c>
-      <c r="AG129">
-        <v>9.5</v>
-      </c>
-      <c r="AH129">
-        <v>1.25</v>
-      </c>
-      <c r="AI129">
-        <v>3.5</v>
-      </c>
-      <c r="AJ129">
-        <v>1.95</v>
-      </c>
-      <c r="AK129">
-        <v>1.83</v>
-      </c>
-      <c r="AL129">
-        <v>1.79</v>
-      </c>
-      <c r="AM129">
-        <v>1.98</v>
-      </c>
-      <c r="AN129">
-        <v>1.27</v>
-      </c>
-      <c r="AO129">
-        <v>1.29</v>
-      </c>
-      <c r="AP129">
-        <v>1.86</v>
-      </c>
-      <c r="AQ129">
-        <v>1.5</v>
-      </c>
-      <c r="AR129">
-        <v>1.3</v>
-      </c>
-      <c r="AS129">
-        <v>1.64</v>
-      </c>
-      <c r="AT129">
-        <v>1.18</v>
-      </c>
-      <c r="AU129">
-        <v>1.46</v>
-      </c>
-      <c r="AV129">
-        <v>1.57</v>
-      </c>
-      <c r="AW129">
-        <v>3.03</v>
-      </c>
-      <c r="AX129">
-        <v>1.66</v>
-      </c>
-      <c r="AY129">
-        <v>7.5</v>
-      </c>
-      <c r="AZ129">
-        <v>2.75</v>
-      </c>
-      <c r="BA129">
-        <v>1.2</v>
-      </c>
-      <c r="BB129">
-        <v>1.38</v>
-      </c>
-      <c r="BC129">
-        <v>1.9</v>
-      </c>
-      <c r="BD129">
-        <v>2.12</v>
-      </c>
-      <c r="BE129">
-        <v>2.85</v>
-      </c>
-      <c r="BF129">
-        <v>7</v>
-      </c>
-      <c r="BG129">
-        <v>5</v>
-      </c>
-      <c r="BH129">
-        <v>5</v>
-      </c>
-      <c r="BI129">
-        <v>5</v>
-      </c>
-      <c r="BJ129">
-        <v>12</v>
-      </c>
-      <c r="BK129">
-        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:63">
@@ -25751,7 +25751,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2365305</v>
+        <v>2365307</v>
       </c>
       <c r="C130" t="s">
         <v>63</v>
@@ -25766,16 +25766,16 @@
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H130" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130">
         <v>1</v>
@@ -25790,28 +25790,28 @@
         <v>3</v>
       </c>
       <c r="O130" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P130" t="s">
         <v>240</v>
       </c>
       <c r="Q130">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R130">
         <v>3</v>
       </c>
       <c r="S130">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T130">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="U130">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="V130">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="W130">
         <v>1.33</v>
@@ -25832,13 +25832,13 @@
         <v>1.11</v>
       </c>
       <c r="AC130">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="AD130">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="AE130">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF130">
         <v>1.04</v>
@@ -25847,79 +25847,79 @@
         <v>11</v>
       </c>
       <c r="AH130">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AI130">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AJ130">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AK130">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AL130">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="AM130">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AN130">
+        <v>1.38</v>
+      </c>
+      <c r="AO130">
+        <v>1.28</v>
+      </c>
+      <c r="AP130">
+        <v>1.61</v>
+      </c>
+      <c r="AQ130">
+        <v>2.3</v>
+      </c>
+      <c r="AR130">
+        <v>1.2</v>
+      </c>
+      <c r="AS130">
+        <v>2.36</v>
+      </c>
+      <c r="AT130">
         <v>1.09</v>
       </c>
-      <c r="AO130">
-        <v>1.18</v>
-      </c>
-      <c r="AP130">
-        <v>2.85</v>
-      </c>
-      <c r="AQ130">
-        <v>2</v>
-      </c>
-      <c r="AR130">
-        <v>1.7</v>
-      </c>
-      <c r="AS130">
-        <v>2.09</v>
-      </c>
-      <c r="AT130">
-        <v>1.55</v>
-      </c>
       <c r="AU130">
-        <v>2.21</v>
+        <v>1.74</v>
       </c>
       <c r="AV130">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AW130">
-        <v>3.82</v>
+        <v>3.33</v>
       </c>
       <c r="AX130">
-        <v>1.26</v>
+        <v>1.81</v>
       </c>
       <c r="AY130">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ130">
-        <v>5</v>
+        <v>2.43</v>
       </c>
       <c r="BA130">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="BB130">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="BC130">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="BD130">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="BE130">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="BF130">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BG130">
         <v>4</v>
@@ -25928,13 +25928,13 @@
         <v>6</v>
       </c>
       <c r="BI130">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ130">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BK130">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:63">
@@ -25942,7 +25942,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2365306</v>
+        <v>2365305</v>
       </c>
       <c r="C131" t="s">
         <v>63</v>
@@ -25957,175 +25957,175 @@
         <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H131" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M131">
         <v>1</v>
       </c>
       <c r="N131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O131" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="Q131">
         <v>3</v>
       </c>
       <c r="R131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S131">
+        <v>6</v>
+      </c>
+      <c r="T131">
+        <v>1.91</v>
+      </c>
+      <c r="U131">
+        <v>2.4</v>
+      </c>
+      <c r="V131">
         <v>7</v>
       </c>
-      <c r="T131">
-        <v>3.11</v>
-      </c>
-      <c r="U131">
+      <c r="W131">
+        <v>1.33</v>
+      </c>
+      <c r="X131">
+        <v>3.25</v>
+      </c>
+      <c r="Y131">
+        <v>2.5</v>
+      </c>
+      <c r="Z131">
+        <v>1.5</v>
+      </c>
+      <c r="AA131">
+        <v>6.5</v>
+      </c>
+      <c r="AB131">
+        <v>1.11</v>
+      </c>
+      <c r="AC131">
+        <v>1.4</v>
+      </c>
+      <c r="AD131">
+        <v>4.6</v>
+      </c>
+      <c r="AE131">
+        <v>7.5</v>
+      </c>
+      <c r="AF131">
+        <v>1.04</v>
+      </c>
+      <c r="AG131">
+        <v>11</v>
+      </c>
+      <c r="AH131">
+        <v>1.23</v>
+      </c>
+      <c r="AI131">
+        <v>3.75</v>
+      </c>
+      <c r="AJ131">
+        <v>1.75</v>
+      </c>
+      <c r="AK131">
+        <v>2.05</v>
+      </c>
+      <c r="AL131">
+        <v>1.95</v>
+      </c>
+      <c r="AM131">
+        <v>1.8</v>
+      </c>
+      <c r="AN131">
+        <v>1.09</v>
+      </c>
+      <c r="AO131">
+        <v>1.18</v>
+      </c>
+      <c r="AP131">
+        <v>2.85</v>
+      </c>
+      <c r="AQ131">
+        <v>2</v>
+      </c>
+      <c r="AR131">
+        <v>1.7</v>
+      </c>
+      <c r="AS131">
+        <v>2.09</v>
+      </c>
+      <c r="AT131">
+        <v>1.55</v>
+      </c>
+      <c r="AU131">
+        <v>2.21</v>
+      </c>
+      <c r="AV131">
+        <v>1.61</v>
+      </c>
+      <c r="AW131">
+        <v>3.82</v>
+      </c>
+      <c r="AX131">
+        <v>1.26</v>
+      </c>
+      <c r="AY131">
+        <v>9</v>
+      </c>
+      <c r="AZ131">
+        <v>5</v>
+      </c>
+      <c r="BA131">
+        <v>1.27</v>
+      </c>
+      <c r="BB131">
+        <v>1.65</v>
+      </c>
+      <c r="BC131">
         <v>1.9</v>
       </c>
-      <c r="V131">
-        <v>3.3</v>
-      </c>
-      <c r="W131">
-        <v>1.43</v>
-      </c>
-      <c r="X131">
-        <v>2.6</v>
-      </c>
-      <c r="Y131">
-        <v>2.95</v>
-      </c>
-      <c r="Z131">
-        <v>1.35</v>
-      </c>
-      <c r="AA131">
-        <v>7.75</v>
-      </c>
-      <c r="AB131">
-        <v>1.07</v>
-      </c>
-      <c r="AC131">
-        <v>2.5</v>
-      </c>
-      <c r="AD131">
-        <v>3.3</v>
-      </c>
-      <c r="AE131">
-        <v>2.8</v>
-      </c>
-      <c r="AF131">
-        <v>1.06</v>
-      </c>
-      <c r="AG131">
-        <v>8</v>
-      </c>
-      <c r="AH131">
-        <v>1.33</v>
-      </c>
-      <c r="AI131">
-        <v>3.25</v>
-      </c>
-      <c r="AJ131">
-        <v>1.93</v>
-      </c>
-      <c r="AK131">
-        <v>1.85</v>
-      </c>
-      <c r="AL131">
-        <v>1.8</v>
-      </c>
-      <c r="AM131">
-        <v>1.88</v>
-      </c>
-      <c r="AN131">
-        <v>1.4</v>
-      </c>
-      <c r="AO131">
-        <v>1.35</v>
-      </c>
-      <c r="AP131">
-        <v>1.4</v>
-      </c>
-      <c r="AQ131">
-        <v>0.8</v>
-      </c>
-      <c r="AR131">
-        <v>1.2</v>
-      </c>
-      <c r="AS131">
-        <v>0.73</v>
-      </c>
-      <c r="AT131">
-        <v>1.36</v>
-      </c>
-      <c r="AU131">
-        <v>1.33</v>
-      </c>
-      <c r="AV131">
-        <v>1.44</v>
-      </c>
-      <c r="AW131">
-        <v>2.77</v>
-      </c>
-      <c r="AX131">
-        <v>1.89</v>
-      </c>
-      <c r="AY131">
+      <c r="BD131">
+        <v>2.45</v>
+      </c>
+      <c r="BE131">
+        <v>3.4</v>
+      </c>
+      <c r="BF131">
         <v>7</v>
-      </c>
-      <c r="AZ131">
-        <v>2.3</v>
-      </c>
-      <c r="BA131">
-        <v>1.23</v>
-      </c>
-      <c r="BB131">
-        <v>1.42</v>
-      </c>
-      <c r="BC131">
-        <v>1.85</v>
-      </c>
-      <c r="BD131">
-        <v>2.23</v>
-      </c>
-      <c r="BE131">
-        <v>3.05</v>
-      </c>
-      <c r="BF131">
-        <v>6</v>
       </c>
       <c r="BG131">
         <v>4</v>
       </c>
       <c r="BH131">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI131">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ131">
         <v>13</v>
       </c>
       <c r="BK131">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:63">
@@ -26133,7 +26133,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>2365307</v>
+        <v>2365304</v>
       </c>
       <c r="C132" t="s">
         <v>63</v>
@@ -26148,175 +26148,175 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H132" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132">
         <v>1</v>
       </c>
       <c r="L132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="P132" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="Q132">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R132">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S132">
         <v>11</v>
       </c>
       <c r="T132">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="U132">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="V132">
-        <v>3.4</v>
+        <v>4.42</v>
       </c>
       <c r="W132">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X132">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Y132">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Z132">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA132">
         <v>6.5</v>
       </c>
       <c r="AB132">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AC132">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="AD132">
         <v>3.5</v>
       </c>
       <c r="AE132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF132">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AG132">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH132">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI132">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AJ132">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AK132">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AL132">
+        <v>1.79</v>
+      </c>
+      <c r="AM132">
+        <v>1.98</v>
+      </c>
+      <c r="AN132">
+        <v>1.27</v>
+      </c>
+      <c r="AO132">
+        <v>1.29</v>
+      </c>
+      <c r="AP132">
+        <v>1.86</v>
+      </c>
+      <c r="AQ132">
+        <v>1.5</v>
+      </c>
+      <c r="AR132">
+        <v>1.3</v>
+      </c>
+      <c r="AS132">
+        <v>1.64</v>
+      </c>
+      <c r="AT132">
+        <v>1.18</v>
+      </c>
+      <c r="AU132">
+        <v>1.46</v>
+      </c>
+      <c r="AV132">
         <v>1.57</v>
       </c>
-      <c r="AM132">
-        <v>2.25</v>
-      </c>
-      <c r="AN132">
+      <c r="AW132">
+        <v>3.03</v>
+      </c>
+      <c r="AX132">
+        <v>1.66</v>
+      </c>
+      <c r="AY132">
+        <v>7.5</v>
+      </c>
+      <c r="AZ132">
+        <v>2.75</v>
+      </c>
+      <c r="BA132">
+        <v>1.2</v>
+      </c>
+      <c r="BB132">
         <v>1.38</v>
       </c>
-      <c r="AO132">
-        <v>1.28</v>
-      </c>
-      <c r="AP132">
-        <v>1.61</v>
-      </c>
-      <c r="AQ132">
-        <v>2.3</v>
-      </c>
-      <c r="AR132">
-        <v>1.2</v>
-      </c>
-      <c r="AS132">
-        <v>2.36</v>
-      </c>
-      <c r="AT132">
-        <v>1.09</v>
-      </c>
-      <c r="AU132">
-        <v>1.74</v>
-      </c>
-      <c r="AV132">
-        <v>1.59</v>
-      </c>
-      <c r="AW132">
-        <v>3.33</v>
-      </c>
-      <c r="AX132">
-        <v>1.81</v>
-      </c>
-      <c r="AY132">
+      <c r="BC132">
+        <v>1.9</v>
+      </c>
+      <c r="BD132">
+        <v>2.12</v>
+      </c>
+      <c r="BE132">
+        <v>2.85</v>
+      </c>
+      <c r="BF132">
         <v>7</v>
       </c>
-      <c r="AZ132">
-        <v>2.43</v>
-      </c>
-      <c r="BA132">
-        <v>1.25</v>
-      </c>
-      <c r="BB132">
-        <v>1.47</v>
-      </c>
-      <c r="BC132">
-        <v>1.83</v>
-      </c>
-      <c r="BD132">
-        <v>2.38</v>
-      </c>
-      <c r="BE132">
-        <v>3.25</v>
-      </c>
-      <c r="BF132">
-        <v>13</v>
-      </c>
       <c r="BG132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH132">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI132">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ132">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BK132">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:63">
@@ -26324,7 +26324,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>2365309</v>
+        <v>2365306</v>
       </c>
       <c r="C133" t="s">
         <v>63</v>
@@ -26339,91 +26339,91 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H133" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M133">
         <v>1</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O133" t="s">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="P133" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="Q133">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R133">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S133">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>3.11</v>
       </c>
       <c r="U133">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="W133">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X133">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y133">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="Z133">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AA133">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="AB133">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC133">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="AD133">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AE133">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="AF133">
         <v>1.06</v>
       </c>
       <c r="AG133">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH133">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AI133">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AJ133">
         <v>1.93</v>
@@ -26432,49 +26432,49 @@
         <v>1.85</v>
       </c>
       <c r="AL133">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AM133">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AN133">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AO133">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AP133">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="AQ133">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AR133">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AS133">
         <v>0.73</v>
       </c>
       <c r="AT133">
-        <v>0.45</v>
+        <v>1.36</v>
       </c>
       <c r="AU133">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AV133">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="AW133">
-        <v>2.71</v>
+        <v>2.77</v>
       </c>
       <c r="AX133">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="AY133">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ133">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="BA133">
         <v>1.23</v>
@@ -26483,7 +26483,7 @@
         <v>1.42</v>
       </c>
       <c r="BC133">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BD133">
         <v>2.23</v>
@@ -26492,22 +26492,22 @@
         <v>3.05</v>
       </c>
       <c r="BF133">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG133">
+        <v>4</v>
+      </c>
+      <c r="BH133">
         <v>7</v>
       </c>
-      <c r="BH133">
-        <v>2</v>
-      </c>
       <c r="BI133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ133">
+        <v>13</v>
+      </c>
+      <c r="BK133">
         <v>10</v>
-      </c>
-      <c r="BK133">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.82</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.82</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT5" t="n">
         <v>0.45</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT6" t="n">
         <v>1.55</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0.82</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU8" t="n">
         <v>2.54</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>3</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU11" t="n">
         <v>2.05</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT13" t="n">
         <v>0.73</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU14" t="n">
         <v>1.59</v>
@@ -3539,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU15" t="n">
         <v>1.41</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU21" t="n">
         <v>1.24</v>
@@ -4963,7 +4963,7 @@
         <v>2.36</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU22" t="n">
         <v>1.23</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT23" t="n">
         <v>1.09</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT24" t="n">
         <v>1.55</v>
@@ -5572,7 +5572,7 @@
         <v>1.55</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU25" t="n">
         <v>1.74</v>
@@ -5772,10 +5772,10 @@
         <v>2</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU26" t="n">
         <v>1.23</v>
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU27" t="n">
         <v>2.44</v>
@@ -6181,7 +6181,7 @@
         <v>1.82</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU28" t="n">
         <v>1.99</v>
@@ -6384,7 +6384,7 @@
         <v>0.73</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU29" t="n">
         <v>1.87</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT30" t="n">
         <v>1.18</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT31" t="n">
         <v>0.73</v>
@@ -6990,7 +6990,7 @@
         <v>1.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT32" t="n">
         <v>1.73</v>
@@ -7399,7 +7399,7 @@
         <v>2.36</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU34" t="n">
         <v>1.19</v>
@@ -7602,7 +7602,7 @@
         <v>1.55</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU35" t="n">
         <v>2.19</v>
@@ -8005,7 +8005,7 @@
         <v>1.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT37" t="n">
         <v>0.45</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT38" t="n">
         <v>1.55</v>
@@ -8414,7 +8414,7 @@
         <v>1.55</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU39" t="n">
         <v>1.89</v>
@@ -9223,10 +9223,10 @@
         <v>1.67</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU43" t="n">
         <v>1.77</v>
@@ -9426,10 +9426,10 @@
         <v>1.75</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU44" t="n">
         <v>2.32</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU45" t="n">
         <v>1.45</v>
@@ -9832,10 +9832,10 @@
         <v>1.67</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU46" t="n">
         <v>1.24</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT47" t="n">
         <v>1.09</v>
@@ -10241,7 +10241,7 @@
         <v>0.82</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU48" t="n">
         <v>2.17</v>
@@ -10441,10 +10441,10 @@
         <v>2.33</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU49" t="n">
         <v>1.52</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT50" t="n">
         <v>1.73</v>
@@ -11053,7 +11053,7 @@
         <v>2.36</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU52" t="n">
         <v>1.4</v>
@@ -11253,10 +11253,10 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU53" t="n">
         <v>1.68</v>
@@ -11862,10 +11862,10 @@
         <v>2.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU56" t="n">
         <v>1.7</v>
@@ -12065,10 +12065,10 @@
         <v>0.75</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU57" t="n">
         <v>1.6</v>
@@ -12271,7 +12271,7 @@
         <v>1.55</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU58" t="n">
         <v>1.8</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT59" t="n">
         <v>1.18</v>
@@ -13286,7 +13286,7 @@
         <v>0.82</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU63" t="n">
         <v>2.06</v>
@@ -13689,7 +13689,7 @@
         <v>0.2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT65" t="n">
         <v>0.73</v>
@@ -13892,7 +13892,7 @@
         <v>1.2</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT66" t="n">
         <v>1.55</v>
@@ -14098,7 +14098,7 @@
         <v>2.36</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU67" t="n">
         <v>1.44</v>
@@ -14298,10 +14298,10 @@
         <v>0.8</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU68" t="n">
         <v>1.46</v>
@@ -14501,10 +14501,10 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU69" t="n">
         <v>2.16</v>
@@ -14704,10 +14704,10 @@
         <v>1.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU70" t="n">
         <v>1.7</v>
@@ -14907,10 +14907,10 @@
         <v>1.17</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU71" t="n">
         <v>1.52</v>
@@ -15313,10 +15313,10 @@
         <v>0.6</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU73" t="n">
         <v>1.53</v>
@@ -15516,10 +15516,10 @@
         <v>0.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU74" t="n">
         <v>1.52</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT75" t="n">
         <v>1.73</v>
@@ -16534,7 +16534,7 @@
         <v>1.55</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU79" t="n">
         <v>1.78</v>
@@ -16734,7 +16734,7 @@
         <v>0.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT80" t="n">
         <v>0.73</v>
@@ -16937,10 +16937,10 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU81" t="n">
         <v>2.08</v>
@@ -17143,7 +17143,7 @@
         <v>1.55</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU82" t="n">
         <v>1.81</v>
@@ -17343,10 +17343,10 @@
         <v>1.14</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU83" t="n">
         <v>1.44</v>
@@ -17546,7 +17546,7 @@
         <v>1.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT84" t="n">
         <v>1.09</v>
@@ -17752,7 +17752,7 @@
         <v>0.73</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT88" t="n">
         <v>1.55</v>
@@ -18564,7 +18564,7 @@
         <v>1.55</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU89" t="n">
         <v>1.68</v>
@@ -18764,10 +18764,10 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU90" t="n">
         <v>1.94</v>
@@ -19170,10 +19170,10 @@
         <v>1.43</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU92" t="n">
         <v>1.47</v>
@@ -19376,7 +19376,7 @@
         <v>0.73</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU93" t="n">
         <v>1.38</v>
@@ -19779,7 +19779,7 @@
         <v>0.29</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT95" t="n">
         <v>0.73</v>
@@ -19982,7 +19982,7 @@
         <v>1.14</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT96" t="n">
         <v>1.09</v>
@@ -20188,7 +20188,7 @@
         <v>0.82</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU97" t="n">
         <v>2.09</v>
@@ -20591,7 +20591,7 @@
         <v>1.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT99" t="n">
         <v>1.73</v>
@@ -20794,7 +20794,7 @@
         <v>1.71</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT100" t="n">
         <v>1.18</v>
@@ -20997,10 +20997,10 @@
         <v>1.38</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU101" t="n">
         <v>1.88</v>
@@ -21203,7 +21203,7 @@
         <v>2.36</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU102" t="n">
         <v>1.63</v>
@@ -21406,7 +21406,7 @@
         <v>1.55</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU103" t="n">
         <v>1.85</v>
@@ -21809,10 +21809,10 @@
         <v>1.88</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU105" t="n">
         <v>1.61</v>
@@ -22012,10 +22012,10 @@
         <v>1.25</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU106" t="n">
         <v>1.44</v>
@@ -22418,7 +22418,7 @@
         <v>0.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT108" t="n">
         <v>0.45</v>
@@ -22624,7 +22624,7 @@
         <v>1.82</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU109" t="n">
         <v>1.94</v>
@@ -23027,10 +23027,10 @@
         <v>1.56</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU111" t="n">
         <v>1.58</v>
@@ -23433,10 +23433,10 @@
         <v>0.78</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU113" t="n">
         <v>2.02</v>
@@ -23636,10 +23636,10 @@
         <v>1.22</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU114" t="n">
         <v>1.54</v>
@@ -24042,7 +24042,7 @@
         <v>0.44</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT116" t="n">
         <v>0.45</v>
@@ -24248,7 +24248,7 @@
         <v>1.82</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU117" t="n">
         <v>1.8</v>
@@ -24451,7 +24451,7 @@
         <v>1.55</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU118" t="n">
         <v>1.67</v>
@@ -24651,7 +24651,7 @@
         <v>1.33</v>
       </c>
       <c r="AS119" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT119" t="n">
         <v>1.09</v>
@@ -24854,7 +24854,7 @@
         <v>1.44</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT120" t="n">
         <v>1.18</v>
@@ -25060,7 +25060,7 @@
         <v>0.73</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU121" t="n">
         <v>1.31</v>
@@ -25260,10 +25260,10 @@
         <v>0.7</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU122" t="n">
         <v>1.38</v>
@@ -25466,7 +25466,7 @@
         <v>1.82</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU123" t="n">
         <v>1.76</v>
@@ -25869,7 +25869,7 @@
         <v>1.6</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT125" t="n">
         <v>1.73</v>
@@ -26072,10 +26072,10 @@
         <v>1.2</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU126" t="n">
         <v>1.9</v>
@@ -26478,7 +26478,7 @@
         <v>0.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT128" t="n">
         <v>0.45</v>
@@ -26684,7 +26684,7 @@
         <v>1.55</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU129" t="n">
         <v>1.59</v>
@@ -27087,10 +27087,10 @@
         <v>1.7</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU131" t="n">
         <v>2.21</v>
@@ -27290,7 +27290,7 @@
         <v>1.3</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT132" t="n">
         <v>1.18</v>
@@ -27496,7 +27496,7 @@
         <v>0.73</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU133" t="n">
         <v>1.33</v>
@@ -27548,6 +27548,1224 @@
       </c>
       <c r="BK133" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5691740</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45016.58333333334</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2</v>
+      </c>
+      <c r="K134" t="n">
+        <v>3</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="n">
+        <v>3</v>
+      </c>
+      <c r="N134" t="n">
+        <v>4</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['9', '14', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>3</v>
+      </c>
+      <c r="R134" t="n">
+        <v>8</v>
+      </c>
+      <c r="S134" t="n">
+        <v>11</v>
+      </c>
+      <c r="T134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V134" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X134" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5691741</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45018.375</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="n">
+        <v>2</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>7</v>
+      </c>
+      <c r="R135" t="n">
+        <v>3</v>
+      </c>
+      <c r="S135" t="n">
+        <v>10</v>
+      </c>
+      <c r="T135" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V135" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X135" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5691742</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45018.375</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>AaB</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2</v>
+      </c>
+      <c r="K136" t="n">
+        <v>2</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>4</v>
+      </c>
+      <c r="N136" t="n">
+        <v>4</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['5', '40', '75', '85']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>3</v>
+      </c>
+      <c r="R136" t="n">
+        <v>6</v>
+      </c>
+      <c r="S136" t="n">
+        <v>9</v>
+      </c>
+      <c r="T136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5691743</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45018.45833333334</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>3</v>
+      </c>
+      <c r="N137" t="n">
+        <v>3</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['10', '71', '78']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>9</v>
+      </c>
+      <c r="R137" t="n">
+        <v>5</v>
+      </c>
+      <c r="S137" t="n">
+        <v>14</v>
+      </c>
+      <c r="T137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V137" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X137" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5691744</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45018.54166666666</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Nordsjælland</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>3</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['62', '82']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>10</v>
+      </c>
+      <c r="R138" t="n">
+        <v>3</v>
+      </c>
+      <c r="S138" t="n">
+        <v>13</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V138" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X138" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5691745</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45019.58333333334</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>2</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="n">
+        <v>2</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>7</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2</v>
+      </c>
+      <c r="S139" t="n">
+        <v>9</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V139" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT3" t="n">
         <v>0.83</v>
@@ -1715,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT17" t="n">
         <v>1.73</v>
@@ -5369,7 +5369,7 @@
         <v>1.25</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU24" t="n">
         <v>1.32</v>
@@ -6178,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT28" t="n">
         <v>1.08</v>
@@ -7196,7 +7196,7 @@
         <v>0.82</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU33" t="n">
         <v>2.14</v>
@@ -8211,7 +8211,7 @@
         <v>1.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU38" t="n">
         <v>2.08</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT40" t="n">
         <v>0.73</v>
@@ -11459,7 +11459,7 @@
         <v>1.55</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU54" t="n">
         <v>2.02</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT55" t="n">
         <v>0.45</v>
@@ -12674,7 +12674,7 @@
         <v>0.75</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT60" t="n">
         <v>1.09</v>
@@ -13895,7 +13895,7 @@
         <v>2.17</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU66" t="n">
         <v>2.29</v>
@@ -15922,7 +15922,7 @@
         <v>1.6</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT76" t="n">
         <v>1.18</v>
@@ -16128,7 +16128,7 @@
         <v>2.36</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU77" t="n">
         <v>1.54</v>
@@ -18361,7 +18361,7 @@
         <v>0.75</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU88" t="n">
         <v>1.67</v>
@@ -19576,10 +19576,10 @@
         <v>1.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU94" t="n">
         <v>1.91</v>
@@ -21609,7 +21609,7 @@
         <v>0.73</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU104" t="n">
         <v>1.42</v>
@@ -22621,7 +22621,7 @@
         <v>1.75</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT109" t="n">
         <v>1.83</v>
@@ -24245,7 +24245,7 @@
         <v>1.22</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT117" t="n">
         <v>1.33</v>
@@ -25463,7 +25463,7 @@
         <v>1.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT123" t="n">
         <v>1.42</v>
@@ -26278,7 +26278,7 @@
         <v>1.55</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU127" t="n">
         <v>1.72</v>
@@ -28766,6 +28766,209 @@
       </c>
       <c r="BK139" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5691746</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45025.45833333334</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>7</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2</v>
+      </c>
+      <c r="S140" t="n">
+        <v>9</v>
+      </c>
+      <c r="T140" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2</v>
+      </c>
+      <c r="V140" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK140"/>
+  <dimension ref="A1:BK144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
         <v>1.33</v>
@@ -2118,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>1.08</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT16" t="n">
         <v>0.45</v>
@@ -3948,7 +3948,7 @@
         <v>1.67</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU17" t="n">
         <v>2.27</v>
@@ -4151,7 +4151,7 @@
         <v>1.55</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT20" t="n">
         <v>0.45</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT22" t="n">
         <v>1.67</v>
@@ -5166,7 +5166,7 @@
         <v>2.17</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>2.6</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT29" t="n">
         <v>1.42</v>
@@ -6587,7 +6587,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU30" t="n">
         <v>1.9</v>
@@ -6790,7 +6790,7 @@
         <v>1.58</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU31" t="n">
         <v>1.65</v>
@@ -6993,7 +6993,7 @@
         <v>0.75</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU32" t="n">
         <v>1.21</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
         <v>1.67</v>
@@ -7396,7 +7396,7 @@
         <v>1.33</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT34" t="n">
         <v>1.08</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT35" t="n">
         <v>1.67</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>1.58</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT39" t="n">
         <v>0.83</v>
@@ -8617,7 +8617,7 @@
         <v>1.67</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU40" t="n">
         <v>1.71</v>
@@ -8817,10 +8817,10 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU41" t="n">
         <v>1.29</v>
@@ -9023,7 +9023,7 @@
         <v>1.55</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU42" t="n">
         <v>2.09</v>
@@ -10038,7 +10038,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT48" t="n">
         <v>0.83</v>
@@ -10647,7 +10647,7 @@
         <v>1.25</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU50" t="n">
         <v>1.51</v>
@@ -10847,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU51" t="n">
         <v>1.57</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT52" t="n">
         <v>1.83</v>
@@ -12268,7 +12268,7 @@
         <v>1.4</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT58" t="n">
         <v>1.08</v>
@@ -12474,7 +12474,7 @@
         <v>0.75</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU59" t="n">
         <v>1.45</v>
@@ -12677,7 +12677,7 @@
         <v>1.67</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.86</v>
@@ -12877,10 +12877,10 @@
         <v>1.2</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU61" t="n">
         <v>2.16</v>
@@ -13080,10 +13080,10 @@
         <v>1.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU62" t="n">
         <v>1.5</v>
@@ -13283,7 +13283,7 @@
         <v>0.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
         <v>1.67</v>
@@ -13692,7 +13692,7 @@
         <v>1.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU65" t="n">
         <v>1.8</v>
@@ -14095,7 +14095,7 @@
         <v>1.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT67" t="n">
         <v>1.33</v>
@@ -15110,10 +15110,10 @@
         <v>0.8</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU72" t="n">
         <v>1.81</v>
@@ -15722,7 +15722,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU75" t="n">
         <v>1.96</v>
@@ -15925,7 +15925,7 @@
         <v>1.67</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU76" t="n">
         <v>1.92</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT77" t="n">
         <v>1.67</v>
@@ -16328,7 +16328,7 @@
         <v>0.67</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT78" t="n">
         <v>0.45</v>
@@ -16737,7 +16737,7 @@
         <v>1.25</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU80" t="n">
         <v>1.46</v>
@@ -17140,7 +17140,7 @@
         <v>1.83</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT82" t="n">
         <v>1.42</v>
@@ -17549,7 +17549,7 @@
         <v>1.58</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU84" t="n">
         <v>1.62</v>
@@ -17749,7 +17749,7 @@
         <v>0.83</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT85" t="n">
         <v>1.67</v>
@@ -17952,7 +17952,7 @@
         <v>0.57</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT86" t="n">
         <v>0.45</v>
@@ -18155,10 +18155,10 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU87" t="n">
         <v>1.85</v>
@@ -18967,10 +18967,10 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU91" t="n">
         <v>2.16</v>
@@ -19373,7 +19373,7 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT93" t="n">
         <v>1.08</v>
@@ -19782,7 +19782,7 @@
         <v>2.17</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU95" t="n">
         <v>2.03</v>
@@ -19985,7 +19985,7 @@
         <v>1.25</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.43</v>
@@ -20185,7 +20185,7 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT97" t="n">
         <v>1.42</v>
@@ -20391,7 +20391,7 @@
         <v>1.55</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU98" t="n">
         <v>1.63</v>
@@ -20594,7 +20594,7 @@
         <v>1.58</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU99" t="n">
         <v>1.58</v>
@@ -20797,7 +20797,7 @@
         <v>1.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU100" t="n">
         <v>1.56</v>
@@ -21200,7 +21200,7 @@
         <v>0.88</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT102" t="n">
         <v>0.83</v>
@@ -21403,7 +21403,7 @@
         <v>1.86</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT103" t="n">
         <v>1.83</v>
@@ -21606,7 +21606,7 @@
         <v>1.22</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT104" t="n">
         <v>1.67</v>
@@ -22218,7 +22218,7 @@
         <v>1.55</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU107" t="n">
         <v>1.69</v>
@@ -22824,10 +22824,10 @@
         <v>1.63</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU110" t="n">
         <v>1.65</v>
@@ -23230,10 +23230,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU112" t="n">
         <v>1.71</v>
@@ -23839,10 +23839,10 @@
         <v>1.13</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.97</v>
@@ -24654,7 +24654,7 @@
         <v>0.75</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU119" t="n">
         <v>1.56</v>
@@ -24857,7 +24857,7 @@
         <v>2.17</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU120" t="n">
         <v>2.11</v>
@@ -25057,7 +25057,7 @@
         <v>1.89</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT121" t="n">
         <v>1.83</v>
@@ -25666,10 +25666,10 @@
         <v>0.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU124" t="n">
         <v>2.06</v>
@@ -25872,7 +25872,7 @@
         <v>1.5</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU125" t="n">
         <v>1.52</v>
@@ -26275,7 +26275,7 @@
         <v>1.4</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT127" t="n">
         <v>1.67</v>
@@ -26884,10 +26884,10 @@
         <v>1.2</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.74</v>
@@ -27293,7 +27293,7 @@
         <v>1.58</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU132" t="n">
         <v>1.46</v>
@@ -27493,7 +27493,7 @@
         <v>1.2</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT133" t="n">
         <v>1.33</v>
@@ -28969,6 +28969,818 @@
       </c>
       <c r="BK140" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5691748</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45026.375</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>5</v>
+      </c>
+      <c r="R141" t="n">
+        <v>6</v>
+      </c>
+      <c r="S141" t="n">
+        <v>11</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V141" t="n">
+        <v>5</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X141" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5691747</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45026.375</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>AaB</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2</v>
+      </c>
+      <c r="M142" t="n">
+        <v>3</v>
+      </c>
+      <c r="N142" t="n">
+        <v>5</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['48', '71']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['13', '39', '75']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>8</v>
+      </c>
+      <c r="R142" t="n">
+        <v>8</v>
+      </c>
+      <c r="S142" t="n">
+        <v>16</v>
+      </c>
+      <c r="T142" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X142" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5691749</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45026.45833333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>6</v>
+      </c>
+      <c r="R143" t="n">
+        <v>6</v>
+      </c>
+      <c r="S143" t="n">
+        <v>12</v>
+      </c>
+      <c r="T143" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5691750</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45026.54166666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Nordsjælland</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>2</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="n">
+        <v>3</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['12', '29']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>2</v>
+      </c>
+      <c r="R144" t="n">
+        <v>6</v>
+      </c>
+      <c r="S144" t="n">
+        <v>8</v>
+      </c>
+      <c r="T144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V144" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X144" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -29642,13 +29642,13 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R144" t="n">
         <v>6</v>
       </c>
       <c r="S144" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T144" t="n">
         <v>2.4</v>
@@ -29765,22 +29765,22 @@
         <v>3.48</v>
       </c>
       <c r="BF144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ144" t="n">
         <v>4</v>
       </c>
-      <c r="BG144" t="n">
-        <v>10</v>
-      </c>
-      <c r="BH144" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI144" t="n">
-        <v>8</v>
-      </c>
-      <c r="BJ144" t="n">
-        <v>5</v>
-      </c>
       <c r="BK144" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK144"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>2.17</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.67</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU16" t="n">
         <v>1.33</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>1.67</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU20" t="n">
         <v>2.93</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT25" t="n">
         <v>0.83</v>
@@ -8008,7 +8008,7 @@
         <v>1.25</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU37" t="n">
         <v>1.42</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT42" t="n">
         <v>1.33</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT54" t="n">
         <v>1.67</v>
@@ -11662,7 +11662,7 @@
         <v>1.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU55" t="n">
         <v>1.74</v>
@@ -13486,10 +13486,10 @@
         <v>0.8</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU64" t="n">
         <v>1.84</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU78" t="n">
         <v>2.05</v>
@@ -16531,7 +16531,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT79" t="n">
         <v>1.33</v>
@@ -17955,7 +17955,7 @@
         <v>2.42</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU86" t="n">
         <v>1.54</v>
@@ -18561,7 +18561,7 @@
         <v>1.14</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT89" t="n">
         <v>1.67</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT98" t="n">
         <v>0.67</v>
@@ -22215,7 +22215,7 @@
         <v>1.44</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT107" t="n">
         <v>1.58</v>
@@ -22421,7 +22421,7 @@
         <v>1.5</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -24045,7 +24045,7 @@
         <v>1.58</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU116" t="n">
         <v>1.46</v>
@@ -24448,7 +24448,7 @@
         <v>1.78</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT118" t="n">
         <v>1.42</v>
@@ -26481,7 +26481,7 @@
         <v>0.75</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU128" t="n">
         <v>1.49</v>
@@ -26681,7 +26681,7 @@
         <v>1.8</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT129" t="n">
         <v>1.83</v>
@@ -29642,13 +29642,13 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R144" t="n">
         <v>6</v>
       </c>
       <c r="S144" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T144" t="n">
         <v>2.4</v>
@@ -29765,22 +29765,225 @@
         <v>3.48</v>
       </c>
       <c r="BF144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5691751</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45027.5625</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>2</v>
+      </c>
+      <c r="N145" t="n">
         <v>3</v>
       </c>
-      <c r="BG144" t="n">
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['10', '50']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
         <v>9</v>
       </c>
-      <c r="BH144" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI144" t="n">
+      <c r="R145" t="n">
+        <v>2</v>
+      </c>
+      <c r="S145" t="n">
+        <v>11</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V145" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK145" t="n">
         <v>6</v>
-      </c>
-      <c r="BJ144" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK144" t="n">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.67</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>1.42</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU25" t="n">
         <v>1.74</v>
@@ -8414,7 +8414,7 @@
         <v>1.67</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU39" t="n">
         <v>1.89</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU48" t="n">
         <v>2.17</v>
@@ -12068,7 +12068,7 @@
         <v>1.58</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU57" t="n">
         <v>1.6</v>
@@ -15316,7 +15316,7 @@
         <v>1.5</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU73" t="n">
         <v>1.53</v>
@@ -15519,7 +15519,7 @@
         <v>0.75</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU74" t="n">
         <v>1.52</v>
@@ -18767,7 +18767,7 @@
         <v>1.5</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU90" t="n">
         <v>1.94</v>
@@ -21203,7 +21203,7 @@
         <v>2.42</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU102" t="n">
         <v>1.63</v>
@@ -23436,7 +23436,7 @@
         <v>2.17</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU113" t="n">
         <v>2.02</v>
@@ -25263,7 +25263,7 @@
         <v>1.25</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU122" t="n">
         <v>1.38</v>
@@ -28105,7 +28105,7 @@
         <v>1.5</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU136" t="n">
         <v>1.48</v>
@@ -29984,6 +29984,209 @@
       </c>
       <c r="BK145" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5691752</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45030.58333333334</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>AaB</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>6</v>
+      </c>
+      <c r="R146" t="n">
+        <v>7</v>
+      </c>
+      <c r="S146" t="n">
+        <v>13</v>
+      </c>
+      <c r="T146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V146" t="n">
+        <v>5</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK146"/>
+  <dimension ref="A1:BK150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT7" t="n">
         <v>1.42</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>2.54</v>
@@ -2324,7 +2324,7 @@
         <v>1.58</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT11" t="n">
         <v>1.42</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT14" t="n">
         <v>1.83</v>
@@ -3745,7 +3745,7 @@
         <v>0.67</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU16" t="n">
         <v>1.33</v>
@@ -4557,7 +4557,7 @@
         <v>1.67</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU20" t="n">
         <v>2.93</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT21" t="n">
         <v>1.83</v>
@@ -4963,7 +4963,7 @@
         <v>2.42</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU22" t="n">
         <v>1.23</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU24" t="n">
         <v>1.32</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT27" t="n">
         <v>1.33</v>
@@ -6181,7 +6181,7 @@
         <v>1.67</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.99</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT30" t="n">
         <v>1.33</v>
@@ -6990,7 +6990,7 @@
         <v>1.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT32" t="n">
         <v>1.58</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU33" t="n">
         <v>2.14</v>
@@ -7399,7 +7399,7 @@
         <v>2.42</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>1.19</v>
@@ -7602,7 +7602,7 @@
         <v>1.67</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU35" t="n">
         <v>2.19</v>
@@ -8005,10 +8005,10 @@
         <v>1.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU37" t="n">
         <v>1.42</v>
@@ -8211,7 +8211,7 @@
         <v>1.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU38" t="n">
         <v>2.08</v>
@@ -9223,7 +9223,7 @@
         <v>1.67</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT43" t="n">
         <v>1.83</v>
@@ -9426,10 +9426,10 @@
         <v>1.75</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU44" t="n">
         <v>2.32</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU45" t="n">
         <v>1.45</v>
@@ -9832,7 +9832,7 @@
         <v>1.67</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT46" t="n">
         <v>1.33</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT50" t="n">
         <v>1.58</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT53" t="n">
         <v>1.33</v>
@@ -11459,7 +11459,7 @@
         <v>1.42</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU54" t="n">
         <v>2.02</v>
@@ -11662,7 +11662,7 @@
         <v>1.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU55" t="n">
         <v>1.74</v>
@@ -12271,7 +12271,7 @@
         <v>1.67</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.8</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT59" t="n">
         <v>1.33</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU63" t="n">
         <v>2.06</v>
@@ -13489,7 +13489,7 @@
         <v>1.42</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU64" t="n">
         <v>1.84</v>
@@ -13689,7 +13689,7 @@
         <v>0.2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT65" t="n">
         <v>0.67</v>
@@ -13892,10 +13892,10 @@
         <v>1.2</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU66" t="n">
         <v>2.29</v>
@@ -14298,10 +14298,10 @@
         <v>0.8</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU68" t="n">
         <v>1.46</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT69" t="n">
         <v>1.42</v>
@@ -14907,10 +14907,10 @@
         <v>1.17</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.52</v>
@@ -15516,7 +15516,7 @@
         <v>0.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT74" t="n">
         <v>0.85</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT75" t="n">
         <v>1.58</v>
@@ -16128,7 +16128,7 @@
         <v>2.42</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU77" t="n">
         <v>1.54</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU78" t="n">
         <v>2.05</v>
@@ -16734,7 +16734,7 @@
         <v>0.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT80" t="n">
         <v>0.67</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT81" t="n">
         <v>1.83</v>
@@ -17346,7 +17346,7 @@
         <v>1.5</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.44</v>
@@ -17752,7 +17752,7 @@
         <v>0.67</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -17955,7 +17955,7 @@
         <v>2.42</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU86" t="n">
         <v>1.54</v>
@@ -18358,10 +18358,10 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU88" t="n">
         <v>1.67</v>
@@ -18564,7 +18564,7 @@
         <v>1.42</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU89" t="n">
         <v>1.68</v>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT90" t="n">
         <v>0.85</v>
@@ -19376,7 +19376,7 @@
         <v>0.67</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.38</v>
@@ -19579,7 +19579,7 @@
         <v>1.67</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU94" t="n">
         <v>1.91</v>
@@ -19779,7 +19779,7 @@
         <v>0.29</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT95" t="n">
         <v>0.67</v>
@@ -19982,7 +19982,7 @@
         <v>1.14</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20997,10 +20997,10 @@
         <v>1.38</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU101" t="n">
         <v>1.88</v>
@@ -21609,7 +21609,7 @@
         <v>0.67</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU104" t="n">
         <v>1.42</v>
@@ -21809,7 +21809,7 @@
         <v>1.88</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT105" t="n">
         <v>1.42</v>
@@ -22012,7 +22012,7 @@
         <v>1.25</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT106" t="n">
         <v>1.33</v>
@@ -22418,10 +22418,10 @@
         <v>0.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -23030,7 +23030,7 @@
         <v>1.5</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU111" t="n">
         <v>1.58</v>
@@ -23433,7 +23433,7 @@
         <v>0.78</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT113" t="n">
         <v>0.85</v>
@@ -23639,7 +23639,7 @@
         <v>1.58</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU114" t="n">
         <v>1.54</v>
@@ -24045,7 +24045,7 @@
         <v>1.58</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU116" t="n">
         <v>1.46</v>
@@ -24651,7 +24651,7 @@
         <v>1.33</v>
       </c>
       <c r="AS119" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -24854,7 +24854,7 @@
         <v>1.44</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT120" t="n">
         <v>1.33</v>
@@ -25260,7 +25260,7 @@
         <v>0.7</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT122" t="n">
         <v>0.85</v>
@@ -26072,10 +26072,10 @@
         <v>1.2</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU126" t="n">
         <v>1.9</v>
@@ -26278,7 +26278,7 @@
         <v>1.67</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU127" t="n">
         <v>1.72</v>
@@ -26478,10 +26478,10 @@
         <v>0.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU128" t="n">
         <v>1.49</v>
@@ -27087,10 +27087,10 @@
         <v>1.7</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU131" t="n">
         <v>2.21</v>
@@ -27696,7 +27696,7 @@
         <v>1.73</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT134" t="n">
         <v>1.83</v>
@@ -27899,10 +27899,10 @@
         <v>1.09</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU135" t="n">
         <v>1.49</v>
@@ -28305,10 +28305,10 @@
         <v>1.55</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU137" t="n">
         <v>1.91</v>
@@ -28508,7 +28508,7 @@
         <v>1.55</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT138" t="n">
         <v>1.42</v>
@@ -28917,7 +28917,7 @@
         <v>1.67</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU140" t="n">
         <v>1.7</v>
@@ -29932,7 +29932,7 @@
         <v>1.42</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU145" t="n">
         <v>1.57</v>
@@ -30187,6 +30187,818 @@
       </c>
       <c r="BK146" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5691753</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45032.375</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
+      <c r="L147" t="n">
+        <v>2</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="n">
+        <v>3</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['25', '71']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>10</v>
+      </c>
+      <c r="R147" t="n">
+        <v>3</v>
+      </c>
+      <c r="S147" t="n">
+        <v>13</v>
+      </c>
+      <c r="T147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V147" t="n">
+        <v>4</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5691754</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45032.375</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['54', '64']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>4</v>
+      </c>
+      <c r="R148" t="n">
+        <v>6</v>
+      </c>
+      <c r="S148" t="n">
+        <v>10</v>
+      </c>
+      <c r="T148" t="n">
+        <v>3</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V148" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5691755</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45032.45833333334</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2</v>
+      </c>
+      <c r="L149" t="n">
+        <v>2</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>3</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['10', '75']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>2</v>
+      </c>
+      <c r="R149" t="n">
+        <v>5</v>
+      </c>
+      <c r="S149" t="n">
+        <v>7</v>
+      </c>
+      <c r="T149" t="n">
+        <v>2</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V149" t="n">
+        <v>6</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X149" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5691756</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45032.54166666666</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>3</v>
+      </c>
+      <c r="R150" t="n">
+        <v>4</v>
+      </c>
+      <c r="S150" t="n">
+        <v>7</v>
+      </c>
+      <c r="T150" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V150" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Denmark Superliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK150"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.38</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT10" t="n">
         <v>1.33</v>
@@ -2730,7 +2730,7 @@
         <v>1.62</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU11" t="n">
         <v>2.05</v>
@@ -4554,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT20" t="n">
         <v>0.62</v>
@@ -6384,7 +6384,7 @@
         <v>0.67</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU29" t="n">
         <v>1.87</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT35" t="n">
         <v>1.54</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT39" t="n">
         <v>0.85</v>
@@ -10444,7 +10444,7 @@
         <v>1.58</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU49" t="n">
         <v>1.52</v>
@@ -11865,7 +11865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU56" t="n">
         <v>1.7</v>
@@ -12268,7 +12268,7 @@
         <v>1.4</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -14504,7 +14504,7 @@
         <v>2.23</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU69" t="n">
         <v>2.16</v>
@@ -15110,7 +15110,7 @@
         <v>0.8</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -17140,10 +17140,10 @@
         <v>1.83</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU82" t="n">
         <v>1.81</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT87" t="n">
         <v>1.58</v>
@@ -20188,7 +20188,7 @@
         <v>1</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU97" t="n">
         <v>2.09</v>
@@ -21403,7 +21403,7 @@
         <v>1.86</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT103" t="n">
         <v>1.83</v>
@@ -21812,7 +21812,7 @@
         <v>0.92</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU105" t="n">
         <v>1.61</v>
@@ -23230,7 +23230,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT112" t="n">
         <v>0.67</v>
@@ -24451,7 +24451,7 @@
         <v>1.42</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU118" t="n">
         <v>1.67</v>
@@ -25466,7 +25466,7 @@
         <v>1.67</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU123" t="n">
         <v>1.76</v>
@@ -26275,7 +26275,7 @@
         <v>1.4</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT127" t="n">
         <v>1.54</v>
@@ -28511,7 +28511,7 @@
         <v>2.23</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU138" t="n">
         <v>2.16</v>
@@ -29523,7 +29523,7 @@
         <v>1.73</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT143" t="n">
         <v>1.58</v>
@@ -30999,6 +30999,209 @@
       </c>
       <c r="BK150" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5691757</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45033.58333333334</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Nordsjælland</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>3</v>
+      </c>
+      <c r="R151" t="n">
+        <v>7</v>
+      </c>
+      <c r="S151" t="n">
+        <v>10</v>
+      </c>
+      <c r="T151" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X151" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
